--- a/BackTest/2020-01-12 BackTest REP.xlsx
+++ b/BackTest/2020-01-12 BackTest REP.xlsx
@@ -451,17 +451,13 @@
         <v>10495.66666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>10230</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10230</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -496,16 +492,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10250</v>
+        <v>10230</v>
       </c>
       <c r="K3" t="n">
         <v>10230</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -576,18 +568,20 @@
         <v>10471.66666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>10270</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>10230</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,22 +609,14 @@
         <v>10465.16666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>10370</v>
-      </c>
-      <c r="K6" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +644,14 @@
         <v>10458</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>10310</v>
-      </c>
-      <c r="K7" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,22 +679,14 @@
         <v>10450.66666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>10300</v>
-      </c>
-      <c r="K8" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -744,22 +714,14 @@
         <v>10443.33333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>10320</v>
-      </c>
-      <c r="K9" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,22 +749,14 @@
         <v>10435.83333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>10320</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -830,22 +784,14 @@
         <v>10429.16666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>10320</v>
-      </c>
-      <c r="K11" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -873,22 +819,14 @@
         <v>10423.83333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>10380</v>
-      </c>
-      <c r="K12" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -916,22 +854,14 @@
         <v>10417.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>10330</v>
-      </c>
-      <c r="K13" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -959,22 +889,14 @@
         <v>10409.83333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>10350</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1002,22 +924,14 @@
         <v>10404.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>10430</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1045,22 +959,14 @@
         <v>10399</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>10370</v>
-      </c>
-      <c r="K16" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1094,14 +1000,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1129,22 +1029,14 @@
         <v>10390.16666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>10370</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1172,22 +1064,14 @@
         <v>10385.66666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>10300</v>
-      </c>
-      <c r="K19" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,14 +1105,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1256,22 +1134,14 @@
         <v>10377</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>10300</v>
-      </c>
-      <c r="K21" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1299,22 +1169,14 @@
         <v>10372.83333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>10300</v>
-      </c>
-      <c r="K22" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1342,22 +1204,14 @@
         <v>10369</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>10300</v>
-      </c>
-      <c r="K23" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1385,22 +1239,14 @@
         <v>10365.16666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>10390</v>
-      </c>
-      <c r="K24" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1428,22 +1274,14 @@
         <v>10362.33333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>10400</v>
-      </c>
-      <c r="K25" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1471,22 +1309,14 @@
         <v>10359.5</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>10410</v>
-      </c>
-      <c r="K26" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1514,22 +1344,14 @@
         <v>10358.33333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>10410</v>
-      </c>
-      <c r="K27" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1557,22 +1379,14 @@
         <v>10358.5</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>10430</v>
-      </c>
-      <c r="K28" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1606,14 +1420,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1647,14 +1455,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1688,14 +1490,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1729,14 +1525,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1770,14 +1560,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1811,14 +1595,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1852,14 +1630,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1893,14 +1665,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1934,14 +1700,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1975,14 +1735,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2016,14 +1770,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2057,14 +1805,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2098,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2139,14 +1875,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2180,14 +1910,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2221,14 +1945,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2262,14 +1980,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2303,14 +2015,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2344,14 +2050,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2385,14 +2085,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2426,14 +2120,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2467,14 +2155,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2508,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2549,14 +2225,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2590,14 +2260,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2631,14 +2295,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2672,14 +2330,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2713,14 +2365,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2754,14 +2400,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2795,14 +2435,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2836,14 +2470,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2877,14 +2505,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2918,14 +2540,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2959,14 +2575,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3000,14 +2610,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3041,14 +2645,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3082,14 +2680,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3123,14 +2715,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3164,14 +2750,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3205,14 +2785,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3246,14 +2820,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3287,14 +2855,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3328,14 +2890,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3369,14 +2925,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3410,14 +2960,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3451,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3492,14 +3030,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3533,14 +3065,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3574,14 +3100,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3615,14 +3135,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3656,14 +3170,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3697,14 +3205,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3738,14 +3240,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3779,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3820,16 +3310,10 @@
         <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>1.034922103213243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">

--- a/BackTest/2020-01-12 BackTest REP.xlsx
+++ b/BackTest/2020-01-12 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M241"/>
+  <dimension ref="A1:M242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10230</v>
+        <v>10210</v>
       </c>
       <c r="C2" t="n">
-        <v>10230</v>
+        <v>10210</v>
       </c>
       <c r="D2" t="n">
-        <v>10230</v>
+        <v>10210</v>
       </c>
       <c r="E2" t="n">
-        <v>10230</v>
+        <v>10210</v>
       </c>
       <c r="F2" t="n">
-        <v>1.3676</v>
+        <v>3.9373</v>
       </c>
       <c r="G2" t="n">
-        <v>10495.66666666667</v>
+        <v>10504.33333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,35 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10250</v>
+        <v>10230</v>
       </c>
       <c r="C3" t="n">
-        <v>10250</v>
+        <v>10230</v>
       </c>
       <c r="D3" t="n">
-        <v>10250</v>
+        <v>10230</v>
       </c>
       <c r="E3" t="n">
-        <v>10250</v>
+        <v>10230</v>
       </c>
       <c r="F3" t="n">
-        <v>209.1072</v>
+        <v>1.3676</v>
       </c>
       <c r="G3" t="n">
-        <v>10486.5</v>
+        <v>10495.66666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>10230</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10230</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -513,16 +509,16 @@
         <v>10250</v>
       </c>
       <c r="D4" t="n">
-        <v>10260</v>
+        <v>10250</v>
       </c>
       <c r="E4" t="n">
         <v>10250</v>
       </c>
       <c r="F4" t="n">
-        <v>311.9036</v>
+        <v>209.1072</v>
       </c>
       <c r="G4" t="n">
-        <v>10479</v>
+        <v>10486.5</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -531,16 +527,12 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10250</v>
+        <v>10230</v>
       </c>
       <c r="K4" t="n">
         <v>10230</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -550,30 +542,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10270</v>
+        <v>10250</v>
       </c>
       <c r="C5" t="n">
-        <v>10270</v>
+        <v>10250</v>
       </c>
       <c r="D5" t="n">
-        <v>10270</v>
+        <v>10260</v>
       </c>
       <c r="E5" t="n">
-        <v>10270</v>
+        <v>10250</v>
       </c>
       <c r="F5" t="n">
-        <v>31.8915</v>
+        <v>311.9036</v>
       </c>
       <c r="G5" t="n">
-        <v>10471.66666666667</v>
+        <v>10479</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>10250</v>
+      </c>
       <c r="K5" t="n">
         <v>10230</v>
       </c>
@@ -591,32 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10370</v>
+        <v>10270</v>
       </c>
       <c r="C6" t="n">
-        <v>10310</v>
+        <v>10270</v>
       </c>
       <c r="D6" t="n">
-        <v>10400</v>
+        <v>10270</v>
       </c>
       <c r="E6" t="n">
-        <v>10310</v>
+        <v>10270</v>
       </c>
       <c r="F6" t="n">
-        <v>484.7591</v>
+        <v>31.8915</v>
       </c>
       <c r="G6" t="n">
-        <v>10465.16666666667</v>
+        <v>10471.66666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10230</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -626,31 +628,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>10370</v>
+      </c>
+      <c r="C7" t="n">
         <v>10310</v>
       </c>
-      <c r="C7" t="n">
-        <v>10290</v>
-      </c>
       <c r="D7" t="n">
+        <v>10400</v>
+      </c>
+      <c r="E7" t="n">
         <v>10310</v>
       </c>
-      <c r="E7" t="n">
-        <v>10290</v>
-      </c>
       <c r="F7" t="n">
-        <v>45.73</v>
+        <v>484.7591</v>
       </c>
       <c r="G7" t="n">
-        <v>10458</v>
+        <v>10465.16666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>10270</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10270</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -661,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10300</v>
+        <v>10310</v>
       </c>
       <c r="C8" t="n">
         <v>10290</v>
       </c>
       <c r="D8" t="n">
-        <v>10300</v>
+        <v>10310</v>
       </c>
       <c r="E8" t="n">
         <v>10290</v>
       </c>
       <c r="F8" t="n">
-        <v>62.6354</v>
+        <v>45.73</v>
       </c>
       <c r="G8" t="n">
-        <v>10450.66666666667</v>
+        <v>10458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -685,8 +691,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>10270</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -696,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10320</v>
+        <v>10300</v>
       </c>
       <c r="C9" t="n">
-        <v>10320</v>
+        <v>10290</v>
       </c>
       <c r="D9" t="n">
-        <v>10320</v>
+        <v>10300</v>
       </c>
       <c r="E9" t="n">
-        <v>10320</v>
+        <v>10290</v>
       </c>
       <c r="F9" t="n">
-        <v>53.9999</v>
+        <v>62.6354</v>
       </c>
       <c r="G9" t="n">
-        <v>10443.33333333333</v>
+        <v>10450.66666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -720,8 +732,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>10270</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -743,10 +761,10 @@
         <v>10320</v>
       </c>
       <c r="F10" t="n">
-        <v>88.26990000000001</v>
+        <v>53.9999</v>
       </c>
       <c r="G10" t="n">
-        <v>10435.83333333333</v>
+        <v>10443.33333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -778,10 +796,10 @@
         <v>10320</v>
       </c>
       <c r="F11" t="n">
-        <v>42.992</v>
+        <v>88.26990000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>10429.16666666667</v>
+        <v>10435.83333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -801,22 +819,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10380</v>
+        <v>10320</v>
       </c>
       <c r="C12" t="n">
-        <v>10390</v>
+        <v>10320</v>
       </c>
       <c r="D12" t="n">
-        <v>10390</v>
+        <v>10320</v>
       </c>
       <c r="E12" t="n">
-        <v>10380</v>
+        <v>10320</v>
       </c>
       <c r="F12" t="n">
-        <v>61.8193</v>
+        <v>42.992</v>
       </c>
       <c r="G12" t="n">
-        <v>10423.83333333333</v>
+        <v>10429.16666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -836,7 +854,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10330</v>
+        <v>10380</v>
       </c>
       <c r="C13" t="n">
         <v>10390</v>
@@ -845,13 +863,13 @@
         <v>10390</v>
       </c>
       <c r="E13" t="n">
-        <v>10330</v>
+        <v>10380</v>
       </c>
       <c r="F13" t="n">
-        <v>40.8354</v>
+        <v>61.8193</v>
       </c>
       <c r="G13" t="n">
-        <v>10417.5</v>
+        <v>10423.83333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -871,22 +889,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10350</v>
+        <v>10330</v>
       </c>
       <c r="C14" t="n">
-        <v>10340</v>
+        <v>10390</v>
       </c>
       <c r="D14" t="n">
-        <v>10350</v>
+        <v>10390</v>
       </c>
       <c r="E14" t="n">
-        <v>10340</v>
+        <v>10330</v>
       </c>
       <c r="F14" t="n">
-        <v>19.971</v>
+        <v>40.8354</v>
       </c>
       <c r="G14" t="n">
-        <v>10409.83333333333</v>
+        <v>10417.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +924,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10430</v>
+        <v>10350</v>
       </c>
       <c r="C15" t="n">
-        <v>10380</v>
+        <v>10340</v>
       </c>
       <c r="D15" t="n">
-        <v>10540</v>
+        <v>10350</v>
       </c>
       <c r="E15" t="n">
-        <v>10380</v>
+        <v>10340</v>
       </c>
       <c r="F15" t="n">
-        <v>137.707869829222</v>
+        <v>19.971</v>
       </c>
       <c r="G15" t="n">
-        <v>10404.5</v>
+        <v>10409.83333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -941,22 +959,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10370</v>
+        <v>10430</v>
       </c>
       <c r="C16" t="n">
-        <v>10370</v>
+        <v>10380</v>
       </c>
       <c r="D16" t="n">
-        <v>10370</v>
+        <v>10540</v>
       </c>
       <c r="E16" t="n">
-        <v>10370</v>
+        <v>10380</v>
       </c>
       <c r="F16" t="n">
-        <v>2.9911</v>
+        <v>137.707869829222</v>
       </c>
       <c r="G16" t="n">
-        <v>10399</v>
+        <v>10404.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -976,22 +994,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10380</v>
+        <v>10370</v>
       </c>
       <c r="C17" t="n">
-        <v>10380</v>
+        <v>10370</v>
       </c>
       <c r="D17" t="n">
-        <v>10380</v>
+        <v>10370</v>
       </c>
       <c r="E17" t="n">
-        <v>10380</v>
+        <v>10370</v>
       </c>
       <c r="F17" t="n">
-        <v>15.0533</v>
+        <v>2.9911</v>
       </c>
       <c r="G17" t="n">
-        <v>10395.16666666667</v>
+        <v>10399</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1011,22 +1029,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10370</v>
+        <v>10380</v>
       </c>
       <c r="C18" t="n">
-        <v>10300</v>
+        <v>10380</v>
       </c>
       <c r="D18" t="n">
-        <v>10370</v>
+        <v>10380</v>
       </c>
       <c r="E18" t="n">
-        <v>10300</v>
+        <v>10380</v>
       </c>
       <c r="F18" t="n">
-        <v>417.092</v>
+        <v>15.0533</v>
       </c>
       <c r="G18" t="n">
-        <v>10390.16666666667</v>
+        <v>10395.16666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1046,22 +1064,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10300</v>
+        <v>10370</v>
       </c>
       <c r="C19" t="n">
         <v>10300</v>
       </c>
       <c r="D19" t="n">
-        <v>10300</v>
+        <v>10370</v>
       </c>
       <c r="E19" t="n">
         <v>10300</v>
       </c>
       <c r="F19" t="n">
-        <v>198.0974</v>
+        <v>417.092</v>
       </c>
       <c r="G19" t="n">
-        <v>10385.66666666667</v>
+        <v>10390.16666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1093,10 +1111,10 @@
         <v>10300</v>
       </c>
       <c r="F20" t="n">
-        <v>55.6709</v>
+        <v>198.0974</v>
       </c>
       <c r="G20" t="n">
-        <v>10381.16666666667</v>
+        <v>10385.66666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1128,10 +1146,10 @@
         <v>10300</v>
       </c>
       <c r="F21" t="n">
-        <v>17.1192</v>
+        <v>55.6709</v>
       </c>
       <c r="G21" t="n">
-        <v>10377</v>
+        <v>10381.16666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1163,10 +1181,10 @@
         <v>10300</v>
       </c>
       <c r="F22" t="n">
-        <v>19.5569</v>
+        <v>17.1192</v>
       </c>
       <c r="G22" t="n">
-        <v>10372.83333333333</v>
+        <v>10377</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1198,10 +1216,10 @@
         <v>10300</v>
       </c>
       <c r="F23" t="n">
-        <v>2.932</v>
+        <v>19.5569</v>
       </c>
       <c r="G23" t="n">
-        <v>10369</v>
+        <v>10372.83333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1221,22 +1239,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10390</v>
+        <v>10300</v>
       </c>
       <c r="C24" t="n">
         <v>10300</v>
       </c>
       <c r="D24" t="n">
-        <v>10390</v>
+        <v>10300</v>
       </c>
       <c r="E24" t="n">
         <v>10300</v>
       </c>
       <c r="F24" t="n">
-        <v>248.788</v>
+        <v>2.932</v>
       </c>
       <c r="G24" t="n">
-        <v>10365.16666666667</v>
+        <v>10369</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1256,22 +1274,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10400</v>
+        <v>10390</v>
       </c>
       <c r="C25" t="n">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="D25" t="n">
-        <v>10400</v>
+        <v>10390</v>
       </c>
       <c r="E25" t="n">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05</v>
+        <v>248.788</v>
       </c>
       <c r="G25" t="n">
-        <v>10362.33333333333</v>
+        <v>10365.16666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,22 +1309,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10410</v>
+        <v>10400</v>
       </c>
       <c r="C26" t="n">
-        <v>10410</v>
+        <v>10400</v>
       </c>
       <c r="D26" t="n">
-        <v>10410</v>
+        <v>10400</v>
       </c>
       <c r="E26" t="n">
-        <v>10410</v>
+        <v>10400</v>
       </c>
       <c r="F26" t="n">
         <v>0.05</v>
       </c>
       <c r="G26" t="n">
-        <v>10359.5</v>
+        <v>10362.33333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,10 +1356,10 @@
         <v>10410</v>
       </c>
       <c r="F27" t="n">
-        <v>38.2518</v>
+        <v>0.05</v>
       </c>
       <c r="G27" t="n">
-        <v>10358.33333333333</v>
+        <v>10359.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1361,22 +1379,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10430</v>
+        <v>10410</v>
       </c>
       <c r="C28" t="n">
-        <v>10480</v>
+        <v>10410</v>
       </c>
       <c r="D28" t="n">
-        <v>10480</v>
+        <v>10410</v>
       </c>
       <c r="E28" t="n">
-        <v>10430</v>
+        <v>10410</v>
       </c>
       <c r="F28" t="n">
-        <v>4.2</v>
+        <v>38.2518</v>
       </c>
       <c r="G28" t="n">
-        <v>10358.5</v>
+        <v>10358.33333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1396,22 +1414,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10470</v>
+        <v>10430</v>
       </c>
       <c r="C29" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="D29" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="E29" t="n">
-        <v>10470</v>
+        <v>10430</v>
       </c>
       <c r="F29" t="n">
-        <v>36</v>
+        <v>4.2</v>
       </c>
       <c r="G29" t="n">
-        <v>10358.16666666667</v>
+        <v>10358.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1431,22 +1449,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="C30" t="n">
-        <v>10420</v>
+        <v>10470</v>
       </c>
       <c r="D30" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="E30" t="n">
-        <v>10420</v>
+        <v>10470</v>
       </c>
       <c r="F30" t="n">
-        <v>16.9675</v>
+        <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>10357.33333333333</v>
+        <v>10358.16666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1466,22 +1484,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10590</v>
+        <v>10500</v>
       </c>
       <c r="C31" t="n">
-        <v>10590</v>
+        <v>10420</v>
       </c>
       <c r="D31" t="n">
-        <v>10590</v>
+        <v>10500</v>
       </c>
       <c r="E31" t="n">
-        <v>10590</v>
+        <v>10420</v>
       </c>
       <c r="F31" t="n">
-        <v>67.54519999999999</v>
+        <v>16.9675</v>
       </c>
       <c r="G31" t="n">
-        <v>10359.33333333333</v>
+        <v>10357.33333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1513,10 +1531,10 @@
         <v>10590</v>
       </c>
       <c r="F32" t="n">
-        <v>3.14</v>
+        <v>67.54519999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>10361.16666666667</v>
+        <v>10359.33333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1536,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10600</v>
+        <v>10590</v>
       </c>
       <c r="C33" t="n">
-        <v>10540</v>
+        <v>10590</v>
       </c>
       <c r="D33" t="n">
-        <v>10640</v>
+        <v>10590</v>
       </c>
       <c r="E33" t="n">
-        <v>10510</v>
+        <v>10590</v>
       </c>
       <c r="F33" t="n">
-        <v>178.0512889097744</v>
+        <v>3.14</v>
       </c>
       <c r="G33" t="n">
-        <v>10362.16666666667</v>
+        <v>10361.16666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1571,22 +1589,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10630</v>
+        <v>10600</v>
       </c>
       <c r="C34" t="n">
-        <v>10630</v>
+        <v>10540</v>
       </c>
       <c r="D34" t="n">
-        <v>10630</v>
+        <v>10640</v>
       </c>
       <c r="E34" t="n">
-        <v>10630</v>
+        <v>10510</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0755</v>
+        <v>178.0512889097744</v>
       </c>
       <c r="G34" t="n">
-        <v>10364.5</v>
+        <v>10362.16666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1606,22 +1624,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10530</v>
+        <v>10630</v>
       </c>
       <c r="C35" t="n">
-        <v>10530</v>
+        <v>10630</v>
       </c>
       <c r="D35" t="n">
-        <v>10530</v>
+        <v>10630</v>
       </c>
       <c r="E35" t="n">
-        <v>10530</v>
+        <v>10630</v>
       </c>
       <c r="F35" t="n">
-        <v>1.6629</v>
+        <v>0.0755</v>
       </c>
       <c r="G35" t="n">
-        <v>10365.33333333333</v>
+        <v>10364.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1641,28 +1659,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10600</v>
+        <v>10530</v>
       </c>
       <c r="C36" t="n">
-        <v>10600</v>
+        <v>10530</v>
       </c>
       <c r="D36" t="n">
-        <v>10600</v>
+        <v>10530</v>
       </c>
       <c r="E36" t="n">
-        <v>10600</v>
+        <v>10530</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0544</v>
+        <v>1.6629</v>
       </c>
       <c r="G36" t="n">
-        <v>10367.5</v>
+        <v>10365.33333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1676,7 +1694,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10540</v>
+        <v>10600</v>
       </c>
       <c r="C37" t="n">
         <v>10600</v>
@@ -1685,13 +1703,13 @@
         <v>10600</v>
       </c>
       <c r="E37" t="n">
-        <v>10540</v>
+        <v>10600</v>
       </c>
       <c r="F37" t="n">
-        <v>32.7650320754717</v>
+        <v>0.0544</v>
       </c>
       <c r="G37" t="n">
-        <v>10369</v>
+        <v>10367.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1711,28 +1729,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10550</v>
+        <v>10540</v>
       </c>
       <c r="C38" t="n">
-        <v>10540</v>
+        <v>10600</v>
       </c>
       <c r="D38" t="n">
-        <v>10550</v>
+        <v>10600</v>
       </c>
       <c r="E38" t="n">
         <v>10540</v>
       </c>
       <c r="F38" t="n">
-        <v>20.2723</v>
+        <v>32.7650320754717</v>
       </c>
       <c r="G38" t="n">
-        <v>10368.5</v>
+        <v>10369</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1746,28 +1764,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10540</v>
+        <v>10550</v>
       </c>
       <c r="C39" t="n">
         <v>10540</v>
       </c>
       <c r="D39" t="n">
-        <v>10540</v>
+        <v>10550</v>
       </c>
       <c r="E39" t="n">
         <v>10540</v>
       </c>
       <c r="F39" t="n">
-        <v>28.5116</v>
+        <v>20.2723</v>
       </c>
       <c r="G39" t="n">
-        <v>10368.66666666667</v>
+        <v>10368.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1781,22 +1799,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10530</v>
+        <v>10540</v>
       </c>
       <c r="C40" t="n">
-        <v>10530</v>
+        <v>10540</v>
       </c>
       <c r="D40" t="n">
-        <v>10530</v>
+        <v>10540</v>
       </c>
       <c r="E40" t="n">
-        <v>10530</v>
+        <v>10540</v>
       </c>
       <c r="F40" t="n">
-        <v>56.0634</v>
+        <v>28.5116</v>
       </c>
       <c r="G40" t="n">
-        <v>10369.5</v>
+        <v>10368.66666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1816,22 +1834,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10500</v>
+        <v>10530</v>
       </c>
       <c r="C41" t="n">
-        <v>10440</v>
+        <v>10530</v>
       </c>
       <c r="D41" t="n">
-        <v>10500</v>
+        <v>10530</v>
       </c>
       <c r="E41" t="n">
-        <v>10440</v>
+        <v>10530</v>
       </c>
       <c r="F41" t="n">
-        <v>37.899</v>
+        <v>56.0634</v>
       </c>
       <c r="G41" t="n">
-        <v>10368.83333333333</v>
+        <v>10369.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1851,22 +1869,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10410</v>
+        <v>10500</v>
       </c>
       <c r="C42" t="n">
-        <v>10520</v>
+        <v>10440</v>
       </c>
       <c r="D42" t="n">
-        <v>10520</v>
+        <v>10500</v>
       </c>
       <c r="E42" t="n">
-        <v>10410</v>
+        <v>10440</v>
       </c>
       <c r="F42" t="n">
-        <v>61.9277</v>
+        <v>37.899</v>
       </c>
       <c r="G42" t="n">
-        <v>10369.83333333333</v>
+        <v>10368.83333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1886,22 +1904,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10510</v>
+        <v>10410</v>
       </c>
       <c r="C43" t="n">
-        <v>10510</v>
+        <v>10520</v>
       </c>
       <c r="D43" t="n">
-        <v>10510</v>
+        <v>10520</v>
       </c>
       <c r="E43" t="n">
-        <v>10510</v>
+        <v>10410</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>61.9277</v>
       </c>
       <c r="G43" t="n">
-        <v>10371</v>
+        <v>10369.83333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1921,22 +1939,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10500</v>
+        <v>10510</v>
       </c>
       <c r="C44" t="n">
-        <v>10500</v>
+        <v>10510</v>
       </c>
       <c r="D44" t="n">
-        <v>10500</v>
+        <v>10510</v>
       </c>
       <c r="E44" t="n">
-        <v>10500</v>
+        <v>10510</v>
       </c>
       <c r="F44" t="n">
-        <v>3.4783</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>10373.66666666667</v>
+        <v>10371</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1956,22 +1974,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10550</v>
+        <v>10500</v>
       </c>
       <c r="C45" t="n">
-        <v>10550</v>
+        <v>10500</v>
       </c>
       <c r="D45" t="n">
-        <v>10550</v>
+        <v>10500</v>
       </c>
       <c r="E45" t="n">
-        <v>10550</v>
+        <v>10500</v>
       </c>
       <c r="F45" t="n">
-        <v>3.266824644549763</v>
+        <v>3.4783</v>
       </c>
       <c r="G45" t="n">
-        <v>10377.83333333333</v>
+        <v>10373.66666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1991,22 +2009,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10490</v>
+        <v>10550</v>
       </c>
       <c r="C46" t="n">
-        <v>10490</v>
+        <v>10550</v>
       </c>
       <c r="D46" t="n">
-        <v>10490</v>
+        <v>10550</v>
       </c>
       <c r="E46" t="n">
-        <v>10490</v>
+        <v>10550</v>
       </c>
       <c r="F46" t="n">
-        <v>6.8253</v>
+        <v>3.266824644549763</v>
       </c>
       <c r="G46" t="n">
-        <v>10381</v>
+        <v>10377.83333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2026,22 +2044,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10470</v>
+        <v>10490</v>
       </c>
       <c r="C47" t="n">
-        <v>10470</v>
+        <v>10490</v>
       </c>
       <c r="D47" t="n">
-        <v>10470</v>
+        <v>10490</v>
       </c>
       <c r="E47" t="n">
-        <v>10460</v>
+        <v>10490</v>
       </c>
       <c r="F47" t="n">
-        <v>359.2438</v>
+        <v>6.8253</v>
       </c>
       <c r="G47" t="n">
-        <v>10383.83333333333</v>
+        <v>10381</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2061,22 +2079,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>10450</v>
+        <v>10470</v>
       </c>
       <c r="C48" t="n">
-        <v>10450</v>
+        <v>10470</v>
       </c>
       <c r="D48" t="n">
-        <v>10450</v>
+        <v>10470</v>
       </c>
       <c r="E48" t="n">
-        <v>10450</v>
+        <v>10460</v>
       </c>
       <c r="F48" t="n">
-        <v>9.8939</v>
+        <v>359.2438</v>
       </c>
       <c r="G48" t="n">
-        <v>10387.16666666667</v>
+        <v>10383.83333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2096,22 +2114,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10420</v>
+        <v>10450</v>
       </c>
       <c r="C49" t="n">
-        <v>10410</v>
+        <v>10450</v>
       </c>
       <c r="D49" t="n">
-        <v>10420</v>
+        <v>10450</v>
       </c>
       <c r="E49" t="n">
-        <v>10410</v>
+        <v>10450</v>
       </c>
       <c r="F49" t="n">
-        <v>67.54519999999999</v>
+        <v>9.8939</v>
       </c>
       <c r="G49" t="n">
-        <v>10388.16666666667</v>
+        <v>10387.16666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2134,19 +2152,19 @@
         <v>10420</v>
       </c>
       <c r="C50" t="n">
-        <v>10420</v>
+        <v>10410</v>
       </c>
       <c r="D50" t="n">
         <v>10420</v>
       </c>
       <c r="E50" t="n">
-        <v>10420</v>
+        <v>10410</v>
       </c>
       <c r="F50" t="n">
-        <v>101.0212</v>
+        <v>67.54519999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>10388.33333333333</v>
+        <v>10388.16666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2166,22 +2184,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10450</v>
+        <v>10420</v>
       </c>
       <c r="C51" t="n">
-        <v>10450</v>
+        <v>10420</v>
       </c>
       <c r="D51" t="n">
-        <v>10450</v>
+        <v>10420</v>
       </c>
       <c r="E51" t="n">
-        <v>10450</v>
+        <v>10420</v>
       </c>
       <c r="F51" t="n">
-        <v>31.0369</v>
+        <v>101.0212</v>
       </c>
       <c r="G51" t="n">
-        <v>10392.5</v>
+        <v>10388.33333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2201,22 +2219,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>10420</v>
+        <v>10450</v>
       </c>
       <c r="C52" t="n">
-        <v>10420</v>
+        <v>10450</v>
       </c>
       <c r="D52" t="n">
-        <v>10420</v>
+        <v>10450</v>
       </c>
       <c r="E52" t="n">
-        <v>10420</v>
+        <v>10450</v>
       </c>
       <c r="F52" t="n">
-        <v>33.1267</v>
+        <v>31.0369</v>
       </c>
       <c r="G52" t="n">
-        <v>10394.33333333333</v>
+        <v>10392.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2236,22 +2254,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>10430</v>
+        <v>10420</v>
       </c>
       <c r="C53" t="n">
         <v>10420</v>
       </c>
       <c r="D53" t="n">
-        <v>10430</v>
+        <v>10420</v>
       </c>
       <c r="E53" t="n">
         <v>10420</v>
       </c>
       <c r="F53" t="n">
-        <v>109.7291</v>
+        <v>33.1267</v>
       </c>
       <c r="G53" t="n">
-        <v>10396.16666666667</v>
+        <v>10394.33333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2274,19 +2292,19 @@
         <v>10430</v>
       </c>
       <c r="C54" t="n">
-        <v>10430</v>
+        <v>10420</v>
       </c>
       <c r="D54" t="n">
         <v>10430</v>
       </c>
       <c r="E54" t="n">
-        <v>10430</v>
+        <v>10420</v>
       </c>
       <c r="F54" t="n">
-        <v>40.8648</v>
+        <v>109.7291</v>
       </c>
       <c r="G54" t="n">
-        <v>10398</v>
+        <v>10396.16666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2306,22 +2324,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>10400</v>
+        <v>10430</v>
       </c>
       <c r="C55" t="n">
-        <v>10370</v>
+        <v>10430</v>
       </c>
       <c r="D55" t="n">
-        <v>10400</v>
+        <v>10430</v>
       </c>
       <c r="E55" t="n">
-        <v>10370</v>
+        <v>10430</v>
       </c>
       <c r="F55" t="n">
-        <v>109.6283</v>
+        <v>40.8648</v>
       </c>
       <c r="G55" t="n">
-        <v>10397.66666666667</v>
+        <v>10398</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2341,22 +2359,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>10470</v>
+        <v>10400</v>
       </c>
       <c r="C56" t="n">
-        <v>10520</v>
+        <v>10370</v>
       </c>
       <c r="D56" t="n">
-        <v>10520</v>
+        <v>10400</v>
       </c>
       <c r="E56" t="n">
-        <v>10470</v>
+        <v>10370</v>
       </c>
       <c r="F56" t="n">
-        <v>142.9977</v>
+        <v>109.6283</v>
       </c>
       <c r="G56" t="n">
-        <v>10401</v>
+        <v>10397.66666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2376,31 +2394,35 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>10490</v>
+        <v>10470</v>
       </c>
       <c r="C57" t="n">
-        <v>10420</v>
+        <v>10520</v>
       </c>
       <c r="D57" t="n">
-        <v>10500</v>
+        <v>10520</v>
       </c>
       <c r="E57" t="n">
-        <v>10420</v>
+        <v>10470</v>
       </c>
       <c r="F57" t="n">
-        <v>157.6</v>
+        <v>142.9977</v>
       </c>
       <c r="G57" t="n">
-        <v>10402.66666666667</v>
+        <v>10401</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>10370</v>
+      </c>
+      <c r="K57" t="n">
+        <v>10370</v>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
@@ -2411,32 +2433,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10500</v>
+        <v>10490</v>
       </c>
       <c r="C58" t="n">
-        <v>10500</v>
+        <v>10420</v>
       </c>
       <c r="D58" t="n">
         <v>10500</v>
       </c>
       <c r="E58" t="n">
-        <v>10500</v>
+        <v>10420</v>
       </c>
       <c r="F58" t="n">
-        <v>30</v>
+        <v>157.6</v>
       </c>
       <c r="G58" t="n">
-        <v>10407.83333333333</v>
+        <v>10402.66666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>10520</v>
+      </c>
+      <c r="K58" t="n">
+        <v>10370</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2446,22 +2476,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10490</v>
+        <v>10500</v>
       </c>
       <c r="C59" t="n">
-        <v>10460</v>
+        <v>10500</v>
       </c>
       <c r="D59" t="n">
-        <v>10490</v>
+        <v>10500</v>
       </c>
       <c r="E59" t="n">
-        <v>10460</v>
+        <v>10500</v>
       </c>
       <c r="F59" t="n">
-        <v>12.8716</v>
+        <v>30</v>
       </c>
       <c r="G59" t="n">
-        <v>10410.83333333333</v>
+        <v>10407.83333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2470,8 +2500,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>10370</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2484,19 +2520,19 @@
         <v>10490</v>
       </c>
       <c r="C60" t="n">
-        <v>10490</v>
+        <v>10460</v>
       </c>
       <c r="D60" t="n">
         <v>10490</v>
       </c>
       <c r="E60" t="n">
-        <v>10490</v>
+        <v>10460</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3803</v>
+        <v>12.8716</v>
       </c>
       <c r="G60" t="n">
-        <v>10415.5</v>
+        <v>10410.83333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2519,19 +2555,19 @@
         <v>10490</v>
       </c>
       <c r="C61" t="n">
-        <v>10450</v>
+        <v>10490</v>
       </c>
       <c r="D61" t="n">
         <v>10490</v>
       </c>
       <c r="E61" t="n">
-        <v>10450</v>
+        <v>10490</v>
       </c>
       <c r="F61" t="n">
-        <v>65.8232</v>
+        <v>0.3803</v>
       </c>
       <c r="G61" t="n">
-        <v>10419.5</v>
+        <v>10415.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2551,22 +2587,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>10490</v>
+      </c>
+      <c r="C62" t="n">
         <v>10450</v>
       </c>
-      <c r="C62" t="n">
-        <v>10400</v>
-      </c>
       <c r="D62" t="n">
+        <v>10490</v>
+      </c>
+      <c r="E62" t="n">
         <v>10450</v>
       </c>
-      <c r="E62" t="n">
-        <v>10400</v>
-      </c>
       <c r="F62" t="n">
-        <v>328.8849</v>
+        <v>65.8232</v>
       </c>
       <c r="G62" t="n">
-        <v>10422.33333333333</v>
+        <v>10419.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2586,22 +2622,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10490</v>
+        <v>10450</v>
       </c>
       <c r="C63" t="n">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="D63" t="n">
-        <v>10500</v>
+        <v>10450</v>
       </c>
       <c r="E63" t="n">
-        <v>10490</v>
+        <v>10400</v>
       </c>
       <c r="F63" t="n">
-        <v>6</v>
+        <v>328.8849</v>
       </c>
       <c r="G63" t="n">
-        <v>10426.5</v>
+        <v>10422.33333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2621,22 +2657,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10500</v>
+        <v>10490</v>
       </c>
       <c r="C64" t="n">
         <v>10500</v>
       </c>
       <c r="D64" t="n">
-        <v>10510</v>
+        <v>10500</v>
       </c>
       <c r="E64" t="n">
-        <v>10450</v>
+        <v>10490</v>
       </c>
       <c r="F64" t="n">
-        <v>193.892</v>
+        <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>10430.66666666667</v>
+        <v>10426.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2662,16 +2698,16 @@
         <v>10500</v>
       </c>
       <c r="D65" t="n">
-        <v>10500</v>
+        <v>10510</v>
       </c>
       <c r="E65" t="n">
-        <v>10500</v>
+        <v>10450</v>
       </c>
       <c r="F65" t="n">
-        <v>242.4145</v>
+        <v>193.892</v>
       </c>
       <c r="G65" t="n">
-        <v>10434.5</v>
+        <v>10430.66666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2694,19 +2730,19 @@
         <v>10500</v>
       </c>
       <c r="C66" t="n">
-        <v>10530</v>
+        <v>10500</v>
       </c>
       <c r="D66" t="n">
-        <v>10530</v>
+        <v>10500</v>
       </c>
       <c r="E66" t="n">
         <v>10500</v>
       </c>
       <c r="F66" t="n">
-        <v>115.7853</v>
+        <v>242.4145</v>
       </c>
       <c r="G66" t="n">
-        <v>10438.16666666667</v>
+        <v>10434.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2726,22 +2762,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10510</v>
+        <v>10500</v>
       </c>
       <c r="C67" t="n">
-        <v>10500</v>
+        <v>10530</v>
       </c>
       <c r="D67" t="n">
-        <v>10510</v>
+        <v>10530</v>
       </c>
       <c r="E67" t="n">
         <v>10500</v>
       </c>
       <c r="F67" t="n">
-        <v>46.4008</v>
+        <v>115.7853</v>
       </c>
       <c r="G67" t="n">
-        <v>10441.66666666667</v>
+        <v>10438.16666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2761,22 +2797,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>10570</v>
+        <v>10510</v>
       </c>
       <c r="C68" t="n">
-        <v>10570</v>
+        <v>10500</v>
       </c>
       <c r="D68" t="n">
-        <v>10570</v>
+        <v>10510</v>
       </c>
       <c r="E68" t="n">
-        <v>10570</v>
+        <v>10500</v>
       </c>
       <c r="F68" t="n">
-        <v>7.594</v>
+        <v>46.4008</v>
       </c>
       <c r="G68" t="n">
-        <v>10446.33333333333</v>
+        <v>10441.66666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2799,19 +2835,19 @@
         <v>10570</v>
       </c>
       <c r="C69" t="n">
-        <v>10600</v>
+        <v>10570</v>
       </c>
       <c r="D69" t="n">
-        <v>10600</v>
+        <v>10570</v>
       </c>
       <c r="E69" t="n">
         <v>10570</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>7.594</v>
       </c>
       <c r="G69" t="n">
-        <v>10451</v>
+        <v>10446.33333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2831,7 +2867,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10600</v>
+        <v>10570</v>
       </c>
       <c r="C70" t="n">
         <v>10600</v>
@@ -2840,13 +2876,13 @@
         <v>10600</v>
       </c>
       <c r="E70" t="n">
-        <v>10600</v>
+        <v>10570</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1665</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>10455.66666666667</v>
+        <v>10451</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2878,10 +2914,10 @@
         <v>10600</v>
       </c>
       <c r="F71" t="n">
-        <v>37.6088</v>
+        <v>0.1665</v>
       </c>
       <c r="G71" t="n">
-        <v>10460.33333333333</v>
+        <v>10455.66666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2901,22 +2937,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10610</v>
+        <v>10600</v>
       </c>
       <c r="C72" t="n">
-        <v>10610</v>
+        <v>10600</v>
       </c>
       <c r="D72" t="n">
-        <v>10620</v>
+        <v>10600</v>
       </c>
       <c r="E72" t="n">
-        <v>10610</v>
+        <v>10600</v>
       </c>
       <c r="F72" t="n">
-        <v>23.6523</v>
+        <v>37.6088</v>
       </c>
       <c r="G72" t="n">
-        <v>10464</v>
+        <v>10460.33333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2936,22 +2972,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10620</v>
+        <v>10610</v>
       </c>
       <c r="C73" t="n">
-        <v>10600</v>
+        <v>10610</v>
       </c>
       <c r="D73" t="n">
         <v>10620</v>
       </c>
       <c r="E73" t="n">
-        <v>10600</v>
+        <v>10610</v>
       </c>
       <c r="F73" t="n">
-        <v>16.0996</v>
+        <v>23.6523</v>
       </c>
       <c r="G73" t="n">
-        <v>10467.5</v>
+        <v>10464</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2977,16 +3013,16 @@
         <v>10600</v>
       </c>
       <c r="D74" t="n">
-        <v>10630</v>
+        <v>10620</v>
       </c>
       <c r="E74" t="n">
         <v>10600</v>
       </c>
       <c r="F74" t="n">
-        <v>201.8565</v>
+        <v>16.0996</v>
       </c>
       <c r="G74" t="n">
-        <v>10471.83333333333</v>
+        <v>10467.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3006,22 +3042,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>10620</v>
+      </c>
+      <c r="C75" t="n">
         <v>10600</v>
       </c>
-      <c r="C75" t="n">
-        <v>10650</v>
-      </c>
       <c r="D75" t="n">
-        <v>10650</v>
+        <v>10630</v>
       </c>
       <c r="E75" t="n">
         <v>10600</v>
       </c>
       <c r="F75" t="n">
-        <v>25.7089</v>
+        <v>201.8565</v>
       </c>
       <c r="G75" t="n">
-        <v>10476.33333333333</v>
+        <v>10471.83333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3041,22 +3077,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>10600</v>
+      </c>
+      <c r="C76" t="n">
         <v>10650</v>
       </c>
-      <c r="C76" t="n">
-        <v>10660</v>
-      </c>
       <c r="D76" t="n">
-        <v>10660</v>
+        <v>10650</v>
       </c>
       <c r="E76" t="n">
-        <v>10650</v>
+        <v>10600</v>
       </c>
       <c r="F76" t="n">
-        <v>44.86175225140713</v>
+        <v>25.7089</v>
       </c>
       <c r="G76" t="n">
-        <v>10481.16666666667</v>
+        <v>10476.33333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3076,7 +3112,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10660</v>
+        <v>10650</v>
       </c>
       <c r="C77" t="n">
         <v>10660</v>
@@ -3085,13 +3121,13 @@
         <v>10660</v>
       </c>
       <c r="E77" t="n">
-        <v>10660</v>
+        <v>10650</v>
       </c>
       <c r="F77" t="n">
-        <v>57.99264774859287</v>
+        <v>44.86175225140713</v>
       </c>
       <c r="G77" t="n">
-        <v>10485.83333333333</v>
+        <v>10481.16666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3123,10 +3159,10 @@
         <v>10660</v>
       </c>
       <c r="F78" t="n">
-        <v>30</v>
+        <v>57.99264774859287</v>
       </c>
       <c r="G78" t="n">
-        <v>10491.83333333333</v>
+        <v>10485.83333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3158,10 +3194,10 @@
         <v>10660</v>
       </c>
       <c r="F79" t="n">
-        <v>0.007352251407129455</v>
+        <v>30</v>
       </c>
       <c r="G79" t="n">
-        <v>10497.83333333333</v>
+        <v>10491.83333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3184,19 +3220,19 @@
         <v>10660</v>
       </c>
       <c r="C80" t="n">
-        <v>10670</v>
+        <v>10660</v>
       </c>
       <c r="D80" t="n">
-        <v>10670</v>
+        <v>10660</v>
       </c>
       <c r="E80" t="n">
         <v>10660</v>
       </c>
       <c r="F80" t="n">
-        <v>57</v>
+        <v>0.007352251407129455</v>
       </c>
       <c r="G80" t="n">
-        <v>10504</v>
+        <v>10497.83333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3216,22 +3252,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>10680</v>
+        <v>10660</v>
       </c>
       <c r="C81" t="n">
-        <v>10680</v>
+        <v>10670</v>
       </c>
       <c r="D81" t="n">
-        <v>10750</v>
+        <v>10670</v>
       </c>
       <c r="E81" t="n">
-        <v>10610</v>
+        <v>10660</v>
       </c>
       <c r="F81" t="n">
-        <v>838.3764</v>
+        <v>57</v>
       </c>
       <c r="G81" t="n">
-        <v>10510.33333333333</v>
+        <v>10504</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3257,16 +3293,16 @@
         <v>10680</v>
       </c>
       <c r="D82" t="n">
-        <v>10680</v>
+        <v>10750</v>
       </c>
       <c r="E82" t="n">
-        <v>10670</v>
+        <v>10610</v>
       </c>
       <c r="F82" t="n">
-        <v>19.2</v>
+        <v>838.3764</v>
       </c>
       <c r="G82" t="n">
-        <v>10516.66666666667</v>
+        <v>10510.33333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3295,19 +3331,19 @@
         <v>10680</v>
       </c>
       <c r="E83" t="n">
-        <v>10680</v>
+        <v>10670</v>
       </c>
       <c r="F83" t="n">
-        <v>3.45</v>
+        <v>19.2</v>
       </c>
       <c r="G83" t="n">
-        <v>10523</v>
+        <v>10516.66666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3321,22 +3357,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10650</v>
+        <v>10680</v>
       </c>
       <c r="C84" t="n">
-        <v>10710</v>
+        <v>10680</v>
       </c>
       <c r="D84" t="n">
-        <v>10710</v>
+        <v>10680</v>
       </c>
       <c r="E84" t="n">
-        <v>10650</v>
+        <v>10680</v>
       </c>
       <c r="F84" t="n">
-        <v>244.5365</v>
+        <v>3.45</v>
       </c>
       <c r="G84" t="n">
-        <v>10529.83333333333</v>
+        <v>10523</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3356,22 +3392,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>10650</v>
+      </c>
+      <c r="C85" t="n">
         <v>10710</v>
-      </c>
-      <c r="C85" t="n">
-        <v>10700</v>
       </c>
       <c r="D85" t="n">
         <v>10710</v>
       </c>
       <c r="E85" t="n">
-        <v>10700</v>
+        <v>10650</v>
       </c>
       <c r="F85" t="n">
-        <v>461.18</v>
+        <v>244.5365</v>
       </c>
       <c r="G85" t="n">
-        <v>10534.83333333333</v>
+        <v>10529.83333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3391,22 +3427,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10740</v>
+        <v>10710</v>
       </c>
       <c r="C86" t="n">
-        <v>10750</v>
+        <v>10700</v>
       </c>
       <c r="D86" t="n">
-        <v>10750</v>
+        <v>10710</v>
       </c>
       <c r="E86" t="n">
-        <v>10740</v>
+        <v>10700</v>
       </c>
       <c r="F86" t="n">
-        <v>249.7362</v>
+        <v>461.18</v>
       </c>
       <c r="G86" t="n">
-        <v>10540.5</v>
+        <v>10534.83333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3426,22 +3462,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10780</v>
+        <v>10740</v>
       </c>
       <c r="C87" t="n">
-        <v>10660</v>
+        <v>10750</v>
       </c>
       <c r="D87" t="n">
-        <v>10880</v>
+        <v>10750</v>
       </c>
       <c r="E87" t="n">
-        <v>10660</v>
+        <v>10740</v>
       </c>
       <c r="F87" t="n">
-        <v>512.2564</v>
+        <v>249.7362</v>
       </c>
       <c r="G87" t="n">
-        <v>10544.66666666667</v>
+        <v>10540.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3461,22 +3497,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>10720</v>
+        <v>10780</v>
       </c>
       <c r="C88" t="n">
-        <v>10720</v>
+        <v>10660</v>
       </c>
       <c r="D88" t="n">
-        <v>10720</v>
+        <v>10880</v>
       </c>
       <c r="E88" t="n">
-        <v>10720</v>
+        <v>10660</v>
       </c>
       <c r="F88" t="n">
-        <v>6.4</v>
+        <v>512.2564</v>
       </c>
       <c r="G88" t="n">
-        <v>10548.66666666667</v>
+        <v>10544.66666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3496,22 +3532,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10760</v>
+        <v>10720</v>
       </c>
       <c r="C89" t="n">
-        <v>10760</v>
+        <v>10720</v>
       </c>
       <c r="D89" t="n">
-        <v>10760</v>
+        <v>10720</v>
       </c>
       <c r="E89" t="n">
-        <v>10760</v>
+        <v>10720</v>
       </c>
       <c r="F89" t="n">
-        <v>126.2192</v>
+        <v>6.4</v>
       </c>
       <c r="G89" t="n">
-        <v>10553.5</v>
+        <v>10548.66666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3531,22 +3567,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10770</v>
+        <v>10760</v>
       </c>
       <c r="C90" t="n">
-        <v>10720</v>
+        <v>10760</v>
       </c>
       <c r="D90" t="n">
-        <v>10840</v>
+        <v>10760</v>
       </c>
       <c r="E90" t="n">
-        <v>10720</v>
+        <v>10760</v>
       </c>
       <c r="F90" t="n">
-        <v>159.4934</v>
+        <v>126.2192</v>
       </c>
       <c r="G90" t="n">
-        <v>10558.5</v>
+        <v>10553.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3566,22 +3602,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10750</v>
+        <v>10770</v>
       </c>
       <c r="C91" t="n">
-        <v>10750</v>
+        <v>10720</v>
       </c>
       <c r="D91" t="n">
-        <v>10750</v>
+        <v>10840</v>
       </c>
       <c r="E91" t="n">
-        <v>10750</v>
+        <v>10720</v>
       </c>
       <c r="F91" t="n">
-        <v>44.8</v>
+        <v>159.4934</v>
       </c>
       <c r="G91" t="n">
-        <v>10561.16666666667</v>
+        <v>10558.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3607,16 +3643,16 @@
         <v>10750</v>
       </c>
       <c r="D92" t="n">
-        <v>10760</v>
+        <v>10750</v>
       </c>
       <c r="E92" t="n">
-        <v>10740</v>
+        <v>10750</v>
       </c>
       <c r="F92" t="n">
-        <v>52</v>
+        <v>44.8</v>
       </c>
       <c r="G92" t="n">
-        <v>10563.83333333333</v>
+        <v>10561.16666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3639,19 +3675,19 @@
         <v>10750</v>
       </c>
       <c r="C93" t="n">
-        <v>10740</v>
+        <v>10750</v>
       </c>
       <c r="D93" t="n">
-        <v>10750</v>
+        <v>10760</v>
       </c>
       <c r="E93" t="n">
         <v>10740</v>
       </c>
       <c r="F93" t="n">
-        <v>92.8005</v>
+        <v>52</v>
       </c>
       <c r="G93" t="n">
-        <v>10567.16666666667</v>
+        <v>10563.83333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3671,22 +3707,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10790</v>
+        <v>10750</v>
       </c>
       <c r="C94" t="n">
         <v>10740</v>
       </c>
       <c r="D94" t="n">
-        <v>10790</v>
+        <v>10750</v>
       </c>
       <c r="E94" t="n">
-        <v>10730</v>
+        <v>10740</v>
       </c>
       <c r="F94" t="n">
-        <v>28.9003</v>
+        <v>92.8005</v>
       </c>
       <c r="G94" t="n">
-        <v>10569</v>
+        <v>10567.16666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3706,22 +3742,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>10790</v>
+      </c>
+      <c r="C95" t="n">
+        <v>10740</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10790</v>
+      </c>
+      <c r="E95" t="n">
         <v>10730</v>
       </c>
-      <c r="C95" t="n">
-        <v>10700</v>
-      </c>
-      <c r="D95" t="n">
-        <v>10730</v>
-      </c>
-      <c r="E95" t="n">
-        <v>10700</v>
-      </c>
       <c r="F95" t="n">
-        <v>153.4254</v>
+        <v>28.9003</v>
       </c>
       <c r="G95" t="n">
-        <v>10571.83333333333</v>
+        <v>10569</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3741,22 +3777,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>10690</v>
+        <v>10730</v>
       </c>
       <c r="C96" t="n">
-        <v>10690</v>
+        <v>10700</v>
       </c>
       <c r="D96" t="n">
-        <v>10690</v>
+        <v>10730</v>
       </c>
       <c r="E96" t="n">
-        <v>10690</v>
+        <v>10700</v>
       </c>
       <c r="F96" t="n">
-        <v>15.5184</v>
+        <v>153.4254</v>
       </c>
       <c r="G96" t="n">
-        <v>10573.33333333333</v>
+        <v>10571.83333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3776,22 +3812,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>10700</v>
+        <v>10690</v>
       </c>
       <c r="C97" t="n">
-        <v>10700</v>
+        <v>10690</v>
       </c>
       <c r="D97" t="n">
-        <v>10700</v>
+        <v>10690</v>
       </c>
       <c r="E97" t="n">
-        <v>10700</v>
+        <v>10690</v>
       </c>
       <c r="F97" t="n">
-        <v>15.5185</v>
+        <v>15.5184</v>
       </c>
       <c r="G97" t="n">
-        <v>10575</v>
+        <v>10573.33333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3811,22 +3847,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>10750</v>
+        <v>10700</v>
       </c>
       <c r="C98" t="n">
-        <v>10750</v>
+        <v>10700</v>
       </c>
       <c r="D98" t="n">
-        <v>10750</v>
+        <v>10700</v>
       </c>
       <c r="E98" t="n">
-        <v>10750</v>
+        <v>10700</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1</v>
+        <v>15.5185</v>
       </c>
       <c r="G98" t="n">
-        <v>10578.5</v>
+        <v>10575</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3858,10 +3894,10 @@
         <v>10750</v>
       </c>
       <c r="F99" t="n">
-        <v>9.280799999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G99" t="n">
-        <v>10582</v>
+        <v>10578.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3881,22 +3917,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>10760</v>
+        <v>10750</v>
       </c>
       <c r="C100" t="n">
-        <v>10770</v>
+        <v>10750</v>
       </c>
       <c r="D100" t="n">
-        <v>10770</v>
+        <v>10750</v>
       </c>
       <c r="E100" t="n">
-        <v>10760</v>
+        <v>10750</v>
       </c>
       <c r="F100" t="n">
-        <v>5</v>
+        <v>9.280799999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>10586</v>
+        <v>10582</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3916,22 +3952,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>10800</v>
+        <v>10760</v>
       </c>
       <c r="C101" t="n">
-        <v>10750</v>
+        <v>10770</v>
       </c>
       <c r="D101" t="n">
-        <v>10800</v>
+        <v>10770</v>
       </c>
       <c r="E101" t="n">
-        <v>10750</v>
+        <v>10760</v>
       </c>
       <c r="F101" t="n">
-        <v>74.1041</v>
+        <v>5</v>
       </c>
       <c r="G101" t="n">
-        <v>10591.16666666667</v>
+        <v>10586</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3951,22 +3987,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>10810</v>
+        <v>10800</v>
       </c>
       <c r="C102" t="n">
-        <v>10810</v>
+        <v>10750</v>
       </c>
       <c r="D102" t="n">
-        <v>10810</v>
+        <v>10800</v>
       </c>
       <c r="E102" t="n">
-        <v>10810</v>
+        <v>10750</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>74.1041</v>
       </c>
       <c r="G102" t="n">
-        <v>10596</v>
+        <v>10591.16666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3989,19 +4025,19 @@
         <v>10810</v>
       </c>
       <c r="C103" t="n">
-        <v>10750</v>
+        <v>10810</v>
       </c>
       <c r="D103" t="n">
         <v>10810</v>
       </c>
       <c r="E103" t="n">
-        <v>10750</v>
+        <v>10810</v>
       </c>
       <c r="F103" t="n">
-        <v>34.7032</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>10600</v>
+        <v>10596</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4021,22 +4057,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>10820</v>
+        <v>10810</v>
       </c>
       <c r="C104" t="n">
-        <v>10880</v>
+        <v>10750</v>
       </c>
       <c r="D104" t="n">
-        <v>10880</v>
+        <v>10810</v>
       </c>
       <c r="E104" t="n">
-        <v>10820</v>
+        <v>10750</v>
       </c>
       <c r="F104" t="n">
-        <v>183.4099</v>
+        <v>34.7032</v>
       </c>
       <c r="G104" t="n">
-        <v>10606.33333333333</v>
+        <v>10600</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4056,22 +4092,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>10750</v>
+        <v>10820</v>
       </c>
       <c r="C105" t="n">
-        <v>10750</v>
+        <v>10880</v>
       </c>
       <c r="D105" t="n">
-        <v>10750</v>
+        <v>10880</v>
       </c>
       <c r="E105" t="n">
-        <v>10750</v>
+        <v>10820</v>
       </c>
       <c r="F105" t="n">
-        <v>6.4</v>
+        <v>183.4099</v>
       </c>
       <c r="G105" t="n">
-        <v>10609.66666666667</v>
+        <v>10606.33333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4091,22 +4127,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>10850</v>
+        <v>10750</v>
       </c>
       <c r="C106" t="n">
-        <v>10850</v>
+        <v>10750</v>
       </c>
       <c r="D106" t="n">
-        <v>10850</v>
+        <v>10750</v>
       </c>
       <c r="E106" t="n">
-        <v>10850</v>
+        <v>10750</v>
       </c>
       <c r="F106" t="n">
-        <v>27.5808</v>
+        <v>6.4</v>
       </c>
       <c r="G106" t="n">
-        <v>10615.66666666667</v>
+        <v>10609.66666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4138,10 +4174,10 @@
         <v>10850</v>
       </c>
       <c r="F107" t="n">
-        <v>49.3846</v>
+        <v>27.5808</v>
       </c>
       <c r="G107" t="n">
-        <v>10622</v>
+        <v>10615.66666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4164,19 +4200,19 @@
         <v>10850</v>
       </c>
       <c r="C108" t="n">
-        <v>10760</v>
+        <v>10850</v>
       </c>
       <c r="D108" t="n">
         <v>10850</v>
       </c>
       <c r="E108" t="n">
-        <v>10760</v>
+        <v>10850</v>
       </c>
       <c r="F108" t="n">
-        <v>15.4</v>
+        <v>49.3846</v>
       </c>
       <c r="G108" t="n">
-        <v>10627.16666666667</v>
+        <v>10622</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4196,22 +4232,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>10780</v>
+        <v>10850</v>
       </c>
       <c r="C109" t="n">
-        <v>10750</v>
+        <v>10760</v>
       </c>
       <c r="D109" t="n">
-        <v>10780</v>
+        <v>10850</v>
       </c>
       <c r="E109" t="n">
-        <v>10750</v>
+        <v>10760</v>
       </c>
       <c r="F109" t="n">
-        <v>49.3846</v>
+        <v>15.4</v>
       </c>
       <c r="G109" t="n">
-        <v>10632.83333333333</v>
+        <v>10627.16666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4231,22 +4267,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>10830</v>
+        <v>10780</v>
       </c>
       <c r="C110" t="n">
-        <v>10830</v>
+        <v>10750</v>
       </c>
       <c r="D110" t="n">
-        <v>10830</v>
+        <v>10780</v>
       </c>
       <c r="E110" t="n">
-        <v>10830</v>
+        <v>10750</v>
       </c>
       <c r="F110" t="n">
-        <v>5.9529</v>
+        <v>49.3846</v>
       </c>
       <c r="G110" t="n">
-        <v>10639.66666666667</v>
+        <v>10632.83333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4266,22 +4302,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>10800</v>
+        <v>10830</v>
       </c>
       <c r="C111" t="n">
-        <v>10800</v>
+        <v>10830</v>
       </c>
       <c r="D111" t="n">
-        <v>10800</v>
+        <v>10830</v>
       </c>
       <c r="E111" t="n">
-        <v>10800</v>
+        <v>10830</v>
       </c>
       <c r="F111" t="n">
-        <v>104.0834</v>
+        <v>5.9529</v>
       </c>
       <c r="G111" t="n">
-        <v>10645.5</v>
+        <v>10639.66666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4301,22 +4337,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>10790</v>
+        <v>10800</v>
       </c>
       <c r="C112" t="n">
-        <v>10780</v>
+        <v>10800</v>
       </c>
       <c r="D112" t="n">
-        <v>10790</v>
+        <v>10800</v>
       </c>
       <c r="E112" t="n">
-        <v>10780</v>
+        <v>10800</v>
       </c>
       <c r="F112" t="n">
-        <v>64</v>
+        <v>104.0834</v>
       </c>
       <c r="G112" t="n">
-        <v>10651.5</v>
+        <v>10645.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4339,19 +4375,19 @@
         <v>10790</v>
       </c>
       <c r="C113" t="n">
-        <v>10830</v>
+        <v>10780</v>
       </c>
       <c r="D113" t="n">
-        <v>10830</v>
+        <v>10790</v>
       </c>
       <c r="E113" t="n">
         <v>10780</v>
       </c>
       <c r="F113" t="n">
-        <v>35.0866</v>
+        <v>64</v>
       </c>
       <c r="G113" t="n">
-        <v>10658.33333333333</v>
+        <v>10651.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4371,22 +4407,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>10760</v>
+        <v>10790</v>
       </c>
       <c r="C114" t="n">
-        <v>10750</v>
+        <v>10830</v>
       </c>
       <c r="D114" t="n">
-        <v>10760</v>
+        <v>10830</v>
       </c>
       <c r="E114" t="n">
-        <v>10750</v>
+        <v>10780</v>
       </c>
       <c r="F114" t="n">
-        <v>135.977</v>
+        <v>35.0866</v>
       </c>
       <c r="G114" t="n">
-        <v>10663.66666666667</v>
+        <v>10658.33333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4406,22 +4442,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>10800</v>
+        <v>10760</v>
       </c>
       <c r="C115" t="n">
-        <v>10800</v>
+        <v>10750</v>
       </c>
       <c r="D115" t="n">
-        <v>10800</v>
+        <v>10760</v>
       </c>
       <c r="E115" t="n">
-        <v>10800</v>
+        <v>10750</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>135.977</v>
       </c>
       <c r="G115" t="n">
-        <v>10670.83333333333</v>
+        <v>10663.66666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4453,10 +4489,10 @@
         <v>10800</v>
       </c>
       <c r="F116" t="n">
-        <v>118.8118</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>10675.5</v>
+        <v>10670.83333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4479,19 +4515,19 @@
         <v>10800</v>
       </c>
       <c r="C117" t="n">
-        <v>10830</v>
+        <v>10800</v>
       </c>
       <c r="D117" t="n">
-        <v>10830</v>
+        <v>10800</v>
       </c>
       <c r="E117" t="n">
         <v>10800</v>
       </c>
       <c r="F117" t="n">
-        <v>55.2561</v>
+        <v>118.8118</v>
       </c>
       <c r="G117" t="n">
-        <v>10682.33333333333</v>
+        <v>10675.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4511,7 +4547,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>10830</v>
+        <v>10800</v>
       </c>
       <c r="C118" t="n">
         <v>10830</v>
@@ -4520,13 +4556,13 @@
         <v>10830</v>
       </c>
       <c r="E118" t="n">
-        <v>10830</v>
+        <v>10800</v>
       </c>
       <c r="F118" t="n">
-        <v>21.61</v>
+        <v>55.2561</v>
       </c>
       <c r="G118" t="n">
-        <v>10687.83333333333</v>
+        <v>10682.33333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4549,19 +4585,19 @@
         <v>10830</v>
       </c>
       <c r="C119" t="n">
-        <v>10870</v>
+        <v>10830</v>
       </c>
       <c r="D119" t="n">
-        <v>10870</v>
+        <v>10830</v>
       </c>
       <c r="E119" t="n">
         <v>10830</v>
       </c>
       <c r="F119" t="n">
-        <v>18.0307</v>
+        <v>21.61</v>
       </c>
       <c r="G119" t="n">
-        <v>10694.66666666667</v>
+        <v>10687.83333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4581,22 +4617,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>10820</v>
+        <v>10830</v>
       </c>
       <c r="C120" t="n">
-        <v>10800</v>
+        <v>10870</v>
       </c>
       <c r="D120" t="n">
-        <v>10820</v>
+        <v>10870</v>
       </c>
       <c r="E120" t="n">
-        <v>10800</v>
+        <v>10830</v>
       </c>
       <c r="F120" t="n">
-        <v>108.0992</v>
+        <v>18.0307</v>
       </c>
       <c r="G120" t="n">
-        <v>10699.83333333333</v>
+        <v>10694.66666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4616,22 +4652,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>10870</v>
+        <v>10820</v>
       </c>
       <c r="C121" t="n">
-        <v>10870</v>
+        <v>10800</v>
       </c>
       <c r="D121" t="n">
-        <v>10870</v>
+        <v>10820</v>
       </c>
       <c r="E121" t="n">
-        <v>10870</v>
+        <v>10800</v>
       </c>
       <c r="F121" t="n">
-        <v>0.2318</v>
+        <v>108.0992</v>
       </c>
       <c r="G121" t="n">
-        <v>10706.83333333333</v>
+        <v>10699.83333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4654,19 +4690,19 @@
         <v>10870</v>
       </c>
       <c r="C122" t="n">
-        <v>10880</v>
+        <v>10870</v>
       </c>
       <c r="D122" t="n">
-        <v>10880</v>
+        <v>10870</v>
       </c>
       <c r="E122" t="n">
         <v>10870</v>
       </c>
       <c r="F122" t="n">
-        <v>46.6369</v>
+        <v>0.2318</v>
       </c>
       <c r="G122" t="n">
-        <v>10714.83333333333</v>
+        <v>10706.83333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4686,22 +4722,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>10820</v>
+        <v>10870</v>
       </c>
       <c r="C123" t="n">
-        <v>10850</v>
+        <v>10880</v>
       </c>
       <c r="D123" t="n">
-        <v>10860</v>
+        <v>10880</v>
       </c>
       <c r="E123" t="n">
-        <v>10790</v>
+        <v>10870</v>
       </c>
       <c r="F123" t="n">
-        <v>172.0188</v>
+        <v>46.6369</v>
       </c>
       <c r="G123" t="n">
-        <v>10720.66666666667</v>
+        <v>10714.83333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4721,22 +4757,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>10780</v>
+        <v>10820</v>
       </c>
       <c r="C124" t="n">
+        <v>10850</v>
+      </c>
+      <c r="D124" t="n">
+        <v>10860</v>
+      </c>
+      <c r="E124" t="n">
         <v>10790</v>
       </c>
-      <c r="D124" t="n">
-        <v>10790</v>
-      </c>
-      <c r="E124" t="n">
-        <v>10780</v>
-      </c>
       <c r="F124" t="n">
-        <v>29.868</v>
+        <v>172.0188</v>
       </c>
       <c r="G124" t="n">
-        <v>10725.5</v>
+        <v>10720.66666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4756,7 +4792,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>10790</v>
+        <v>10780</v>
       </c>
       <c r="C125" t="n">
         <v>10790</v>
@@ -4765,13 +4801,13 @@
         <v>10790</v>
       </c>
       <c r="E125" t="n">
-        <v>10790</v>
+        <v>10780</v>
       </c>
       <c r="F125" t="n">
-        <v>4.6223</v>
+        <v>29.868</v>
       </c>
       <c r="G125" t="n">
-        <v>10730.33333333333</v>
+        <v>10725.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4791,22 +4827,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>10760</v>
+        <v>10790</v>
       </c>
       <c r="C126" t="n">
-        <v>10740</v>
+        <v>10790</v>
       </c>
       <c r="D126" t="n">
-        <v>10760</v>
+        <v>10790</v>
       </c>
       <c r="E126" t="n">
-        <v>10740</v>
+        <v>10790</v>
       </c>
       <c r="F126" t="n">
-        <v>46.6369</v>
+        <v>4.6223</v>
       </c>
       <c r="G126" t="n">
-        <v>10733.83333333333</v>
+        <v>10730.33333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4826,22 +4862,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>10780</v>
+        <v>10760</v>
       </c>
       <c r="C127" t="n">
-        <v>10780</v>
+        <v>10740</v>
       </c>
       <c r="D127" t="n">
-        <v>10780</v>
+        <v>10760</v>
       </c>
       <c r="E127" t="n">
-        <v>10780</v>
+        <v>10740</v>
       </c>
       <c r="F127" t="n">
-        <v>11.7181</v>
+        <v>46.6369</v>
       </c>
       <c r="G127" t="n">
-        <v>10738.5</v>
+        <v>10733.83333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4861,22 +4897,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>10750</v>
+        <v>10780</v>
       </c>
       <c r="C128" t="n">
-        <v>10750</v>
+        <v>10780</v>
       </c>
       <c r="D128" t="n">
-        <v>10750</v>
+        <v>10780</v>
       </c>
       <c r="E128" t="n">
-        <v>10750</v>
+        <v>10780</v>
       </c>
       <c r="F128" t="n">
-        <v>20.3395</v>
+        <v>11.7181</v>
       </c>
       <c r="G128" t="n">
-        <v>10741.5</v>
+        <v>10738.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4896,22 +4932,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>10790</v>
+        <v>10750</v>
       </c>
       <c r="C129" t="n">
-        <v>10790</v>
+        <v>10750</v>
       </c>
       <c r="D129" t="n">
-        <v>10790</v>
+        <v>10750</v>
       </c>
       <c r="E129" t="n">
-        <v>10790</v>
+        <v>10750</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3312</v>
+        <v>20.3395</v>
       </c>
       <c r="G129" t="n">
-        <v>10744.66666666667</v>
+        <v>10741.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4943,10 +4979,10 @@
         <v>10790</v>
       </c>
       <c r="F130" t="n">
-        <v>2.7734</v>
+        <v>0.3312</v>
       </c>
       <c r="G130" t="n">
-        <v>10747.83333333333</v>
+        <v>10744.66666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4966,22 +5002,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>10750</v>
+        <v>10790</v>
       </c>
       <c r="C131" t="n">
-        <v>10750</v>
+        <v>10790</v>
       </c>
       <c r="D131" t="n">
-        <v>10750</v>
+        <v>10790</v>
       </c>
       <c r="E131" t="n">
-        <v>10750</v>
+        <v>10790</v>
       </c>
       <c r="F131" t="n">
-        <v>5.582</v>
+        <v>2.7734</v>
       </c>
       <c r="G131" t="n">
-        <v>10750.33333333333</v>
+        <v>10747.83333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5001,22 +5037,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>10790</v>
+        <v>10750</v>
       </c>
       <c r="C132" t="n">
-        <v>10810</v>
+        <v>10750</v>
       </c>
       <c r="D132" t="n">
-        <v>10810</v>
+        <v>10750</v>
       </c>
       <c r="E132" t="n">
-        <v>10790</v>
+        <v>10750</v>
       </c>
       <c r="F132" t="n">
-        <v>23.1495</v>
+        <v>5.582</v>
       </c>
       <c r="G132" t="n">
-        <v>10753.66666666667</v>
+        <v>10750.33333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5036,22 +5072,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>10800</v>
+        <v>10790</v>
       </c>
       <c r="C133" t="n">
-        <v>10760</v>
+        <v>10810</v>
       </c>
       <c r="D133" t="n">
-        <v>10800</v>
+        <v>10810</v>
       </c>
       <c r="E133" t="n">
-        <v>10760</v>
+        <v>10790</v>
       </c>
       <c r="F133" t="n">
-        <v>47.8204</v>
+        <v>23.1495</v>
       </c>
       <c r="G133" t="n">
-        <v>10756.33333333333</v>
+        <v>10753.66666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5071,22 +5107,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>10750</v>
+        <v>10800</v>
       </c>
       <c r="C134" t="n">
-        <v>10750</v>
+        <v>10760</v>
       </c>
       <c r="D134" t="n">
-        <v>10750</v>
+        <v>10800</v>
       </c>
       <c r="E134" t="n">
-        <v>10750</v>
+        <v>10760</v>
       </c>
       <c r="F134" t="n">
-        <v>79</v>
+        <v>47.8204</v>
       </c>
       <c r="G134" t="n">
-        <v>10758.83333333333</v>
+        <v>10756.33333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5118,10 +5154,10 @@
         <v>10750</v>
       </c>
       <c r="F135" t="n">
-        <v>41.9843</v>
+        <v>79</v>
       </c>
       <c r="G135" t="n">
-        <v>10760.5</v>
+        <v>10758.83333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5141,22 +5177,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>10720</v>
+        <v>10750</v>
       </c>
       <c r="C136" t="n">
-        <v>10710</v>
+        <v>10750</v>
       </c>
       <c r="D136" t="n">
-        <v>10720</v>
+        <v>10750</v>
       </c>
       <c r="E136" t="n">
-        <v>10710</v>
+        <v>10750</v>
       </c>
       <c r="F136" t="n">
-        <v>110.9088</v>
+        <v>41.9843</v>
       </c>
       <c r="G136" t="n">
-        <v>10761.33333333333</v>
+        <v>10760.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5176,22 +5212,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>10770</v>
+        <v>10720</v>
       </c>
       <c r="C137" t="n">
-        <v>10770</v>
+        <v>10710</v>
       </c>
       <c r="D137" t="n">
-        <v>10770</v>
+        <v>10720</v>
       </c>
       <c r="E137" t="n">
-        <v>10770</v>
+        <v>10710</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1</v>
+        <v>110.9088</v>
       </c>
       <c r="G137" t="n">
-        <v>10763.16666666667</v>
+        <v>10761.33333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5223,10 +5259,10 @@
         <v>10770</v>
       </c>
       <c r="F138" t="n">
-        <v>12.8139</v>
+        <v>0.1</v>
       </c>
       <c r="G138" t="n">
-        <v>10765</v>
+        <v>10763.16666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5249,19 +5285,19 @@
         <v>10770</v>
       </c>
       <c r="C139" t="n">
-        <v>10710</v>
+        <v>10770</v>
       </c>
       <c r="D139" t="n">
         <v>10770</v>
       </c>
       <c r="E139" t="n">
-        <v>10710</v>
+        <v>10770</v>
       </c>
       <c r="F139" t="n">
-        <v>37.573</v>
+        <v>12.8139</v>
       </c>
       <c r="G139" t="n">
-        <v>10765.83333333333</v>
+        <v>10765</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5281,22 +5317,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>10770</v>
+      </c>
+      <c r="C140" t="n">
         <v>10710</v>
       </c>
-      <c r="C140" t="n">
-        <v>10700</v>
-      </c>
       <c r="D140" t="n">
+        <v>10770</v>
+      </c>
+      <c r="E140" t="n">
         <v>10710</v>
       </c>
-      <c r="E140" t="n">
-        <v>10700</v>
-      </c>
       <c r="F140" t="n">
-        <v>37.9987</v>
+        <v>37.573</v>
       </c>
       <c r="G140" t="n">
-        <v>10766.33333333333</v>
+        <v>10765.83333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5316,22 +5352,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>10700</v>
+        <v>10710</v>
       </c>
       <c r="C141" t="n">
         <v>10700</v>
       </c>
       <c r="D141" t="n">
-        <v>10700</v>
+        <v>10710</v>
       </c>
       <c r="E141" t="n">
         <v>10700</v>
       </c>
       <c r="F141" t="n">
-        <v>56.4506</v>
+        <v>37.9987</v>
       </c>
       <c r="G141" t="n">
-        <v>10766.66666666667</v>
+        <v>10766.33333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5363,10 +5399,10 @@
         <v>10700</v>
       </c>
       <c r="F142" t="n">
-        <v>166</v>
+        <v>56.4506</v>
       </c>
       <c r="G142" t="n">
-        <v>10767</v>
+        <v>10766.66666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5386,22 +5422,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>10670</v>
+        <v>10700</v>
       </c>
       <c r="C143" t="n">
-        <v>10670</v>
+        <v>10700</v>
       </c>
       <c r="D143" t="n">
-        <v>10670</v>
+        <v>10700</v>
       </c>
       <c r="E143" t="n">
-        <v>10670</v>
+        <v>10700</v>
       </c>
       <c r="F143" t="n">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="G143" t="n">
-        <v>10766.83333333333</v>
+        <v>10767</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5421,22 +5457,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>10700</v>
+        <v>10670</v>
       </c>
       <c r="C144" t="n">
-        <v>10700</v>
+        <v>10670</v>
       </c>
       <c r="D144" t="n">
-        <v>10700</v>
+        <v>10670</v>
       </c>
       <c r="E144" t="n">
-        <v>10700</v>
+        <v>10670</v>
       </c>
       <c r="F144" t="n">
-        <v>4.8239</v>
+        <v>4</v>
       </c>
       <c r="G144" t="n">
-        <v>10766.66666666667</v>
+        <v>10766.83333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5468,7 +5504,7 @@
         <v>10700</v>
       </c>
       <c r="F145" t="n">
-        <v>5.6471</v>
+        <v>4.8239</v>
       </c>
       <c r="G145" t="n">
         <v>10766.66666666667</v>
@@ -5491,22 +5527,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>10740</v>
+        <v>10700</v>
       </c>
       <c r="C146" t="n">
-        <v>10740</v>
+        <v>10700</v>
       </c>
       <c r="D146" t="n">
-        <v>10740</v>
+        <v>10700</v>
       </c>
       <c r="E146" t="n">
-        <v>10740</v>
+        <v>10700</v>
       </c>
       <c r="F146" t="n">
-        <v>2</v>
+        <v>5.6471</v>
       </c>
       <c r="G146" t="n">
-        <v>10766.5</v>
+        <v>10766.66666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5526,22 +5562,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>10700</v>
+        <v>10740</v>
       </c>
       <c r="C147" t="n">
-        <v>10700</v>
+        <v>10740</v>
       </c>
       <c r="D147" t="n">
-        <v>10700</v>
+        <v>10740</v>
       </c>
       <c r="E147" t="n">
-        <v>10700</v>
+        <v>10740</v>
       </c>
       <c r="F147" t="n">
-        <v>24.9838</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>10767.16666666667</v>
+        <v>10766.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5573,10 +5609,10 @@
         <v>10700</v>
       </c>
       <c r="F148" t="n">
-        <v>5.2873</v>
+        <v>24.9838</v>
       </c>
       <c r="G148" t="n">
-        <v>10766.83333333333</v>
+        <v>10767.16666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5608,10 +5644,10 @@
         <v>10700</v>
       </c>
       <c r="F149" t="n">
-        <v>27.192</v>
+        <v>5.2873</v>
       </c>
       <c r="G149" t="n">
-        <v>10765.83333333333</v>
+        <v>10766.83333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5643,10 +5679,10 @@
         <v>10700</v>
       </c>
       <c r="F150" t="n">
-        <v>5.3119</v>
+        <v>27.192</v>
       </c>
       <c r="G150" t="n">
-        <v>10765.5</v>
+        <v>10765.83333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5678,10 +5714,10 @@
         <v>10700</v>
       </c>
       <c r="F151" t="n">
-        <v>129.8903</v>
+        <v>5.3119</v>
       </c>
       <c r="G151" t="n">
-        <v>10764.66666666667</v>
+        <v>10765.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5701,22 +5737,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>10720</v>
+        <v>10700</v>
       </c>
       <c r="C152" t="n">
-        <v>10720</v>
+        <v>10700</v>
       </c>
       <c r="D152" t="n">
-        <v>10720</v>
+        <v>10700</v>
       </c>
       <c r="E152" t="n">
-        <v>10720</v>
+        <v>10700</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7796999999999999</v>
+        <v>129.8903</v>
       </c>
       <c r="G152" t="n">
-        <v>10764.16666666667</v>
+        <v>10764.66666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5736,22 +5772,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>10670</v>
+        <v>10720</v>
       </c>
       <c r="C153" t="n">
-        <v>10670</v>
+        <v>10720</v>
       </c>
       <c r="D153" t="n">
-        <v>10670</v>
+        <v>10720</v>
       </c>
       <c r="E153" t="n">
-        <v>10670</v>
+        <v>10720</v>
       </c>
       <c r="F153" t="n">
-        <v>56.6009</v>
+        <v>0.7796999999999999</v>
       </c>
       <c r="G153" t="n">
-        <v>10763</v>
+        <v>10764.16666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5771,22 +5807,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>10700</v>
+        <v>10670</v>
       </c>
       <c r="C154" t="n">
-        <v>10650</v>
+        <v>10670</v>
       </c>
       <c r="D154" t="n">
-        <v>10700</v>
+        <v>10670</v>
       </c>
       <c r="E154" t="n">
-        <v>10650</v>
+        <v>10670</v>
       </c>
       <c r="F154" t="n">
-        <v>7.1069</v>
+        <v>56.6009</v>
       </c>
       <c r="G154" t="n">
-        <v>10761.5</v>
+        <v>10763</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5806,22 +5842,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C155" t="n">
         <v>10650</v>
       </c>
-      <c r="C155" t="n">
-        <v>10670</v>
-      </c>
       <c r="D155" t="n">
-        <v>10670</v>
+        <v>10700</v>
       </c>
       <c r="E155" t="n">
         <v>10650</v>
       </c>
       <c r="F155" t="n">
-        <v>58.5734</v>
+        <v>7.1069</v>
       </c>
       <c r="G155" t="n">
-        <v>10761</v>
+        <v>10761.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5844,19 +5880,19 @@
         <v>10650</v>
       </c>
       <c r="C156" t="n">
-        <v>10650</v>
+        <v>10670</v>
       </c>
       <c r="D156" t="n">
-        <v>10650</v>
+        <v>10670</v>
       </c>
       <c r="E156" t="n">
         <v>10650</v>
       </c>
       <c r="F156" t="n">
-        <v>33.5683</v>
+        <v>58.5734</v>
       </c>
       <c r="G156" t="n">
-        <v>10760.33333333333</v>
+        <v>10761</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5876,22 +5912,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>10600</v>
+        <v>10650</v>
       </c>
       <c r="C157" t="n">
-        <v>10600</v>
+        <v>10650</v>
       </c>
       <c r="D157" t="n">
-        <v>10600</v>
+        <v>10650</v>
       </c>
       <c r="E157" t="n">
-        <v>10600</v>
+        <v>10650</v>
       </c>
       <c r="F157" t="n">
-        <v>0.1342</v>
+        <v>33.5683</v>
       </c>
       <c r="G157" t="n">
-        <v>10758.66666666667</v>
+        <v>10760.33333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5923,10 +5959,10 @@
         <v>10600</v>
       </c>
       <c r="F158" t="n">
-        <v>7.8711</v>
+        <v>0.1342</v>
       </c>
       <c r="G158" t="n">
-        <v>10756.16666666667</v>
+        <v>10758.66666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5946,22 +5982,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>10640</v>
+        <v>10600</v>
       </c>
       <c r="C159" t="n">
-        <v>10640</v>
+        <v>10600</v>
       </c>
       <c r="D159" t="n">
-        <v>10640</v>
+        <v>10600</v>
       </c>
       <c r="E159" t="n">
-        <v>10640</v>
+        <v>10600</v>
       </c>
       <c r="F159" t="n">
-        <v>2</v>
+        <v>7.8711</v>
       </c>
       <c r="G159" t="n">
-        <v>10754.33333333333</v>
+        <v>10756.16666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5984,19 +6020,19 @@
         <v>10640</v>
       </c>
       <c r="C160" t="n">
-        <v>10720</v>
+        <v>10640</v>
       </c>
       <c r="D160" t="n">
-        <v>10720</v>
+        <v>10640</v>
       </c>
       <c r="E160" t="n">
         <v>10640</v>
       </c>
       <c r="F160" t="n">
-        <v>602.4506</v>
+        <v>2</v>
       </c>
       <c r="G160" t="n">
-        <v>10753.5</v>
+        <v>10754.33333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6016,22 +6052,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>10660</v>
+        <v>10640</v>
       </c>
       <c r="C161" t="n">
-        <v>10670</v>
+        <v>10720</v>
       </c>
       <c r="D161" t="n">
-        <v>10700</v>
+        <v>10720</v>
       </c>
       <c r="E161" t="n">
-        <v>10660</v>
+        <v>10640</v>
       </c>
       <c r="F161" t="n">
-        <v>494.6536</v>
+        <v>602.4506</v>
       </c>
       <c r="G161" t="n">
-        <v>10752.16666666667</v>
+        <v>10753.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6051,22 +6087,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>10680</v>
+        <v>10660</v>
       </c>
       <c r="C162" t="n">
-        <v>10680</v>
+        <v>10670</v>
       </c>
       <c r="D162" t="n">
-        <v>10680</v>
+        <v>10700</v>
       </c>
       <c r="E162" t="n">
-        <v>10680</v>
+        <v>10660</v>
       </c>
       <c r="F162" t="n">
-        <v>19.6492</v>
+        <v>494.6536</v>
       </c>
       <c r="G162" t="n">
-        <v>10750</v>
+        <v>10752.16666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6086,22 +6122,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>10650</v>
+        <v>10680</v>
       </c>
       <c r="C163" t="n">
-        <v>10650</v>
+        <v>10680</v>
       </c>
       <c r="D163" t="n">
-        <v>10650</v>
+        <v>10680</v>
       </c>
       <c r="E163" t="n">
-        <v>10650</v>
+        <v>10680</v>
       </c>
       <c r="F163" t="n">
-        <v>50</v>
+        <v>19.6492</v>
       </c>
       <c r="G163" t="n">
-        <v>10748.33333333333</v>
+        <v>10750</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6121,22 +6157,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>10670</v>
+        <v>10650</v>
       </c>
       <c r="C164" t="n">
-        <v>10670</v>
+        <v>10650</v>
       </c>
       <c r="D164" t="n">
-        <v>10670</v>
+        <v>10650</v>
       </c>
       <c r="E164" t="n">
-        <v>10670</v>
+        <v>10650</v>
       </c>
       <c r="F164" t="n">
-        <v>17.2</v>
+        <v>50</v>
       </c>
       <c r="G164" t="n">
-        <v>10744.83333333333</v>
+        <v>10748.33333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6156,22 +6192,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>10740</v>
+        <v>10670</v>
       </c>
       <c r="C165" t="n">
-        <v>10740</v>
+        <v>10670</v>
       </c>
       <c r="D165" t="n">
-        <v>10740</v>
+        <v>10670</v>
       </c>
       <c r="E165" t="n">
-        <v>10740</v>
+        <v>10670</v>
       </c>
       <c r="F165" t="n">
-        <v>0.8</v>
+        <v>17.2</v>
       </c>
       <c r="G165" t="n">
-        <v>10744.66666666667</v>
+        <v>10744.83333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6191,22 +6227,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>10700</v>
+        <v>10740</v>
       </c>
       <c r="C166" t="n">
-        <v>10700</v>
+        <v>10740</v>
       </c>
       <c r="D166" t="n">
-        <v>10700</v>
+        <v>10740</v>
       </c>
       <c r="E166" t="n">
-        <v>10700</v>
+        <v>10740</v>
       </c>
       <c r="F166" t="n">
-        <v>24.865</v>
+        <v>0.8</v>
       </c>
       <c r="G166" t="n">
-        <v>10742.16666666667</v>
+        <v>10744.66666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6238,10 +6274,10 @@
         <v>10700</v>
       </c>
       <c r="F167" t="n">
-        <v>75.5886</v>
+        <v>24.865</v>
       </c>
       <c r="G167" t="n">
-        <v>10739.66666666667</v>
+        <v>10742.16666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6273,10 +6309,10 @@
         <v>10700</v>
       </c>
       <c r="F168" t="n">
-        <v>51.2706</v>
+        <v>75.5886</v>
       </c>
       <c r="G168" t="n">
-        <v>10738.66666666667</v>
+        <v>10739.66666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6296,22 +6332,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>10710</v>
+        <v>10700</v>
       </c>
       <c r="C169" t="n">
-        <v>10710</v>
+        <v>10700</v>
       </c>
       <c r="D169" t="n">
-        <v>10710</v>
+        <v>10700</v>
       </c>
       <c r="E169" t="n">
-        <v>10710</v>
+        <v>10700</v>
       </c>
       <c r="F169" t="n">
-        <v>50</v>
+        <v>51.2706</v>
       </c>
       <c r="G169" t="n">
-        <v>10738</v>
+        <v>10738.66666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6331,22 +6367,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>10740</v>
+        <v>10710</v>
       </c>
       <c r="C170" t="n">
-        <v>10740</v>
+        <v>10710</v>
       </c>
       <c r="D170" t="n">
-        <v>10740</v>
+        <v>10710</v>
       </c>
       <c r="E170" t="n">
-        <v>10740</v>
+        <v>10710</v>
       </c>
       <c r="F170" t="n">
-        <v>2.9878</v>
+        <v>50</v>
       </c>
       <c r="G170" t="n">
-        <v>10736.5</v>
+        <v>10738</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6378,10 +6414,10 @@
         <v>10740</v>
       </c>
       <c r="F171" t="n">
-        <v>5.0603</v>
+        <v>2.9878</v>
       </c>
       <c r="G171" t="n">
-        <v>10735.5</v>
+        <v>10736.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6413,10 +6449,10 @@
         <v>10740</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0001</v>
+        <v>5.0603</v>
       </c>
       <c r="G172" t="n">
-        <v>10734.83333333333</v>
+        <v>10735.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6436,22 +6472,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>10800</v>
+        <v>10740</v>
       </c>
       <c r="C173" t="n">
-        <v>10800</v>
+        <v>10740</v>
       </c>
       <c r="D173" t="n">
-        <v>10800</v>
+        <v>10740</v>
       </c>
       <c r="E173" t="n">
-        <v>10800</v>
+        <v>10740</v>
       </c>
       <c r="F173" t="n">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
       <c r="G173" t="n">
-        <v>10734.33333333333</v>
+        <v>10734.83333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6471,22 +6507,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>10720</v>
+        <v>10800</v>
       </c>
       <c r="C174" t="n">
-        <v>10720</v>
+        <v>10800</v>
       </c>
       <c r="D174" t="n">
-        <v>10720</v>
+        <v>10800</v>
       </c>
       <c r="E174" t="n">
-        <v>10720</v>
+        <v>10800</v>
       </c>
       <c r="F174" t="n">
-        <v>19.3887</v>
+        <v>0.1</v>
       </c>
       <c r="G174" t="n">
-        <v>10733.83333333333</v>
+        <v>10734.33333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6506,19 +6542,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>10800</v>
+        <v>10720</v>
       </c>
       <c r="C175" t="n">
-        <v>10800</v>
+        <v>10720</v>
       </c>
       <c r="D175" t="n">
-        <v>10800</v>
+        <v>10720</v>
       </c>
       <c r="E175" t="n">
-        <v>10800</v>
+        <v>10720</v>
       </c>
       <c r="F175" t="n">
-        <v>20.7643</v>
+        <v>19.3887</v>
       </c>
       <c r="G175" t="n">
         <v>10733.83333333333</v>
@@ -6541,22 +6577,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>10780</v>
+        <v>10800</v>
       </c>
       <c r="C176" t="n">
-        <v>10780</v>
+        <v>10800</v>
       </c>
       <c r="D176" t="n">
-        <v>10780</v>
+        <v>10800</v>
       </c>
       <c r="E176" t="n">
-        <v>10780</v>
+        <v>10800</v>
       </c>
       <c r="F176" t="n">
-        <v>15.7</v>
+        <v>20.7643</v>
       </c>
       <c r="G176" t="n">
-        <v>10733.5</v>
+        <v>10733.83333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6576,22 +6612,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>10800</v>
+        <v>10780</v>
       </c>
       <c r="C177" t="n">
-        <v>10800</v>
+        <v>10780</v>
       </c>
       <c r="D177" t="n">
-        <v>10800</v>
+        <v>10780</v>
       </c>
       <c r="E177" t="n">
-        <v>10800</v>
+        <v>10780</v>
       </c>
       <c r="F177" t="n">
-        <v>18.6307</v>
+        <v>15.7</v>
       </c>
       <c r="G177" t="n">
-        <v>10733</v>
+        <v>10733.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6614,19 +6650,19 @@
         <v>10800</v>
       </c>
       <c r="C178" t="n">
-        <v>10790</v>
+        <v>10800</v>
       </c>
       <c r="D178" t="n">
         <v>10800</v>
       </c>
       <c r="E178" t="n">
-        <v>10790</v>
+        <v>10800</v>
       </c>
       <c r="F178" t="n">
-        <v>91.4036</v>
+        <v>18.6307</v>
       </c>
       <c r="G178" t="n">
-        <v>10732.33333333333</v>
+        <v>10733</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6646,22 +6682,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>10790</v>
+        <v>10800</v>
       </c>
       <c r="C179" t="n">
         <v>10790</v>
       </c>
       <c r="D179" t="n">
-        <v>10790</v>
+        <v>10800</v>
       </c>
       <c r="E179" t="n">
         <v>10790</v>
       </c>
       <c r="F179" t="n">
-        <v>25.8292</v>
+        <v>91.4036</v>
       </c>
       <c r="G179" t="n">
-        <v>10731</v>
+        <v>10732.33333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6684,19 +6720,19 @@
         <v>10790</v>
       </c>
       <c r="C180" t="n">
-        <v>10780</v>
+        <v>10790</v>
       </c>
       <c r="D180" t="n">
         <v>10790</v>
       </c>
       <c r="E180" t="n">
-        <v>10780</v>
+        <v>10790</v>
       </c>
       <c r="F180" t="n">
-        <v>106.5656</v>
+        <v>25.8292</v>
       </c>
       <c r="G180" t="n">
-        <v>10730.66666666667</v>
+        <v>10731</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6716,22 +6752,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>10780</v>
+        <v>10790</v>
       </c>
       <c r="C181" t="n">
         <v>10780</v>
       </c>
       <c r="D181" t="n">
-        <v>10780</v>
+        <v>10790</v>
       </c>
       <c r="E181" t="n">
         <v>10780</v>
       </c>
       <c r="F181" t="n">
-        <v>12.81</v>
+        <v>106.5656</v>
       </c>
       <c r="G181" t="n">
-        <v>10729.16666666667</v>
+        <v>10730.66666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6751,22 +6787,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>10790</v>
+        <v>10780</v>
       </c>
       <c r="C182" t="n">
-        <v>10790</v>
+        <v>10780</v>
       </c>
       <c r="D182" t="n">
-        <v>10790</v>
+        <v>10780</v>
       </c>
       <c r="E182" t="n">
-        <v>10790</v>
+        <v>10780</v>
       </c>
       <c r="F182" t="n">
-        <v>2.8969</v>
+        <v>12.81</v>
       </c>
       <c r="G182" t="n">
-        <v>10727.66666666667</v>
+        <v>10729.16666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6798,10 +6834,10 @@
         <v>10790</v>
       </c>
       <c r="F183" t="n">
-        <v>19.6475</v>
+        <v>2.8969</v>
       </c>
       <c r="G183" t="n">
-        <v>10726.66666666667</v>
+        <v>10727.66666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6821,22 +6857,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>10800</v>
+        <v>10790</v>
       </c>
       <c r="C184" t="n">
-        <v>10800</v>
+        <v>10790</v>
       </c>
       <c r="D184" t="n">
-        <v>10800</v>
+        <v>10790</v>
       </c>
       <c r="E184" t="n">
-        <v>10800</v>
+        <v>10790</v>
       </c>
       <c r="F184" t="n">
-        <v>14.712</v>
+        <v>19.6475</v>
       </c>
       <c r="G184" t="n">
-        <v>10726.83333333333</v>
+        <v>10726.66666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6868,10 +6904,10 @@
         <v>10800</v>
       </c>
       <c r="F185" t="n">
-        <v>4.159</v>
+        <v>14.712</v>
       </c>
       <c r="G185" t="n">
-        <v>10727</v>
+        <v>10726.83333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6891,22 +6927,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>10840</v>
+        <v>10800</v>
       </c>
       <c r="C186" t="n">
-        <v>10840</v>
+        <v>10800</v>
       </c>
       <c r="D186" t="n">
-        <v>10840</v>
+        <v>10800</v>
       </c>
       <c r="E186" t="n">
-        <v>10840</v>
+        <v>10800</v>
       </c>
       <c r="F186" t="n">
-        <v>79.98569999999999</v>
+        <v>4.159</v>
       </c>
       <c r="G186" t="n">
-        <v>10728.66666666667</v>
+        <v>10727</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6938,10 +6974,10 @@
         <v>10840</v>
       </c>
       <c r="F187" t="n">
-        <v>12.0356</v>
+        <v>79.98569999999999</v>
       </c>
       <c r="G187" t="n">
-        <v>10729.66666666667</v>
+        <v>10728.66666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6961,22 +6997,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>10800</v>
+        <v>10840</v>
       </c>
       <c r="C188" t="n">
-        <v>10800</v>
+        <v>10840</v>
       </c>
       <c r="D188" t="n">
-        <v>10800</v>
+        <v>10840</v>
       </c>
       <c r="E188" t="n">
-        <v>10800</v>
+        <v>10840</v>
       </c>
       <c r="F188" t="n">
-        <v>106.4057</v>
+        <v>12.0356</v>
       </c>
       <c r="G188" t="n">
-        <v>10730.5</v>
+        <v>10729.66666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7008,10 +7044,10 @@
         <v>10800</v>
       </c>
       <c r="F189" t="n">
-        <v>4.618</v>
+        <v>106.4057</v>
       </c>
       <c r="G189" t="n">
-        <v>10730.66666666667</v>
+        <v>10730.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7043,10 +7079,10 @@
         <v>10800</v>
       </c>
       <c r="F190" t="n">
-        <v>14.6772</v>
+        <v>4.618</v>
       </c>
       <c r="G190" t="n">
-        <v>10730.83333333333</v>
+        <v>10730.66666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7066,22 +7102,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>10780</v>
+        <v>10800</v>
       </c>
       <c r="C191" t="n">
-        <v>10770</v>
+        <v>10800</v>
       </c>
       <c r="D191" t="n">
-        <v>10780</v>
+        <v>10800</v>
       </c>
       <c r="E191" t="n">
-        <v>10770</v>
+        <v>10800</v>
       </c>
       <c r="F191" t="n">
-        <v>120.7992</v>
+        <v>14.6772</v>
       </c>
       <c r="G191" t="n">
-        <v>10731.16666666667</v>
+        <v>10730.83333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7104,19 +7140,19 @@
         <v>10780</v>
       </c>
       <c r="C192" t="n">
-        <v>10780</v>
+        <v>10770</v>
       </c>
       <c r="D192" t="n">
         <v>10780</v>
       </c>
       <c r="E192" t="n">
-        <v>10780</v>
+        <v>10770</v>
       </c>
       <c r="F192" t="n">
-        <v>15.7</v>
+        <v>120.7992</v>
       </c>
       <c r="G192" t="n">
-        <v>10730.66666666667</v>
+        <v>10731.16666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7136,22 +7172,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>10750</v>
+        <v>10780</v>
       </c>
       <c r="C193" t="n">
-        <v>10750</v>
+        <v>10780</v>
       </c>
       <c r="D193" t="n">
-        <v>10750</v>
+        <v>10780</v>
       </c>
       <c r="E193" t="n">
-        <v>10750</v>
+        <v>10780</v>
       </c>
       <c r="F193" t="n">
-        <v>5.514</v>
+        <v>15.7</v>
       </c>
       <c r="G193" t="n">
-        <v>10730.5</v>
+        <v>10730.66666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7183,7 +7219,7 @@
         <v>10750</v>
       </c>
       <c r="F194" t="n">
-        <v>2.6543</v>
+        <v>5.514</v>
       </c>
       <c r="G194" t="n">
         <v>10730.5</v>
@@ -7206,22 +7242,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>10770</v>
+        <v>10750</v>
       </c>
       <c r="C195" t="n">
-        <v>10780</v>
+        <v>10750</v>
       </c>
       <c r="D195" t="n">
-        <v>10780</v>
+        <v>10750</v>
       </c>
       <c r="E195" t="n">
-        <v>10770</v>
+        <v>10750</v>
       </c>
       <c r="F195" t="n">
-        <v>122.1605</v>
+        <v>2.6543</v>
       </c>
       <c r="G195" t="n">
-        <v>10731</v>
+        <v>10730.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7241,7 +7277,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>10780</v>
+        <v>10770</v>
       </c>
       <c r="C196" t="n">
         <v>10780</v>
@@ -7250,13 +7286,13 @@
         <v>10780</v>
       </c>
       <c r="E196" t="n">
-        <v>10780</v>
+        <v>10770</v>
       </c>
       <c r="F196" t="n">
-        <v>73.0568</v>
+        <v>122.1605</v>
       </c>
       <c r="G196" t="n">
-        <v>10732.16666666667</v>
+        <v>10731</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7288,10 +7324,10 @@
         <v>10780</v>
       </c>
       <c r="F197" t="n">
-        <v>32.9317</v>
+        <v>73.0568</v>
       </c>
       <c r="G197" t="n">
-        <v>10732.33333333333</v>
+        <v>10732.16666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7311,22 +7347,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>10820</v>
+        <v>10780</v>
       </c>
       <c r="C198" t="n">
-        <v>10820</v>
+        <v>10780</v>
       </c>
       <c r="D198" t="n">
-        <v>10820</v>
+        <v>10780</v>
       </c>
       <c r="E198" t="n">
-        <v>10820</v>
+        <v>10780</v>
       </c>
       <c r="F198" t="n">
-        <v>6.1256</v>
+        <v>32.9317</v>
       </c>
       <c r="G198" t="n">
-        <v>10733.16666666667</v>
+        <v>10732.33333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7346,22 +7382,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>10750</v>
+        <v>10820</v>
       </c>
       <c r="C199" t="n">
-        <v>10760</v>
+        <v>10820</v>
       </c>
       <c r="D199" t="n">
-        <v>10760</v>
+        <v>10820</v>
       </c>
       <c r="E199" t="n">
-        <v>10750</v>
+        <v>10820</v>
       </c>
       <c r="F199" t="n">
-        <v>5.8896</v>
+        <v>6.1256</v>
       </c>
       <c r="G199" t="n">
-        <v>10734</v>
+        <v>10733.16666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7381,22 +7417,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>10780</v>
+        <v>10750</v>
       </c>
       <c r="C200" t="n">
-        <v>10780</v>
+        <v>10760</v>
       </c>
       <c r="D200" t="n">
-        <v>10780</v>
+        <v>10760</v>
       </c>
       <c r="E200" t="n">
-        <v>10780</v>
+        <v>10750</v>
       </c>
       <c r="F200" t="n">
-        <v>2.8878</v>
+        <v>5.8896</v>
       </c>
       <c r="G200" t="n">
-        <v>10735.33333333333</v>
+        <v>10734</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7416,22 +7452,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>10770</v>
+        <v>10780</v>
       </c>
       <c r="C201" t="n">
-        <v>10770</v>
+        <v>10780</v>
       </c>
       <c r="D201" t="n">
-        <v>10770</v>
+        <v>10780</v>
       </c>
       <c r="E201" t="n">
-        <v>10770</v>
+        <v>10780</v>
       </c>
       <c r="F201" t="n">
-        <v>121.364</v>
+        <v>2.8878</v>
       </c>
       <c r="G201" t="n">
-        <v>10736.5</v>
+        <v>10735.33333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7463,10 +7499,10 @@
         <v>10770</v>
       </c>
       <c r="F202" t="n">
-        <v>10.284</v>
+        <v>121.364</v>
       </c>
       <c r="G202" t="n">
-        <v>10737.66666666667</v>
+        <v>10736.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7486,22 +7522,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>10790</v>
+        <v>10770</v>
       </c>
       <c r="C203" t="n">
-        <v>10790</v>
+        <v>10770</v>
       </c>
       <c r="D203" t="n">
-        <v>10790</v>
+        <v>10770</v>
       </c>
       <c r="E203" t="n">
-        <v>10790</v>
+        <v>10770</v>
       </c>
       <c r="F203" t="n">
-        <v>2.1395</v>
+        <v>10.284</v>
       </c>
       <c r="G203" t="n">
-        <v>10739.66666666667</v>
+        <v>10737.66666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7533,10 +7569,10 @@
         <v>10790</v>
       </c>
       <c r="F204" t="n">
-        <v>20</v>
+        <v>2.1395</v>
       </c>
       <c r="G204" t="n">
-        <v>10741.16666666667</v>
+        <v>10739.66666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7568,10 +7604,10 @@
         <v>10790</v>
       </c>
       <c r="F205" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G205" t="n">
-        <v>10742.66666666667</v>
+        <v>10741.16666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7603,10 +7639,10 @@
         <v>10790</v>
       </c>
       <c r="F206" t="n">
-        <v>227.8605</v>
+        <v>50</v>
       </c>
       <c r="G206" t="n">
-        <v>10743.5</v>
+        <v>10742.66666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7626,22 +7662,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>10830</v>
+        <v>10790</v>
       </c>
       <c r="C207" t="n">
-        <v>10830</v>
+        <v>10790</v>
       </c>
       <c r="D207" t="n">
-        <v>10830</v>
+        <v>10790</v>
       </c>
       <c r="E207" t="n">
-        <v>10830</v>
+        <v>10790</v>
       </c>
       <c r="F207" t="n">
-        <v>18.5355</v>
+        <v>227.8605</v>
       </c>
       <c r="G207" t="n">
-        <v>10745.66666666667</v>
+        <v>10743.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7673,10 +7709,10 @@
         <v>10830</v>
       </c>
       <c r="F208" t="n">
-        <v>1.3481</v>
+        <v>18.5355</v>
       </c>
       <c r="G208" t="n">
-        <v>10747.83333333333</v>
+        <v>10745.66666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7699,19 +7735,19 @@
         <v>10830</v>
       </c>
       <c r="C209" t="n">
-        <v>10840</v>
+        <v>10830</v>
       </c>
       <c r="D209" t="n">
-        <v>10840</v>
+        <v>10830</v>
       </c>
       <c r="E209" t="n">
         <v>10830</v>
       </c>
       <c r="F209" t="n">
-        <v>345.0755</v>
+        <v>1.3481</v>
       </c>
       <c r="G209" t="n">
-        <v>10750.16666666667</v>
+        <v>10747.83333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7731,22 +7767,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>10850</v>
+        <v>10830</v>
       </c>
       <c r="C210" t="n">
-        <v>10850</v>
+        <v>10840</v>
       </c>
       <c r="D210" t="n">
-        <v>10850</v>
+        <v>10840</v>
       </c>
       <c r="E210" t="n">
-        <v>10850</v>
+        <v>10830</v>
       </c>
       <c r="F210" t="n">
-        <v>28.3839</v>
+        <v>345.0755</v>
       </c>
       <c r="G210" t="n">
-        <v>10752.66666666667</v>
+        <v>10750.16666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7766,22 +7802,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>10860</v>
+        <v>10850</v>
       </c>
       <c r="C211" t="n">
         <v>10850</v>
       </c>
       <c r="D211" t="n">
-        <v>10860</v>
+        <v>10850</v>
       </c>
       <c r="E211" t="n">
         <v>10850</v>
       </c>
       <c r="F211" t="n">
-        <v>90.3591</v>
+        <v>28.3839</v>
       </c>
       <c r="G211" t="n">
-        <v>10755.16666666667</v>
+        <v>10752.66666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7804,19 +7840,19 @@
         <v>10860</v>
       </c>
       <c r="C212" t="n">
-        <v>10860</v>
+        <v>10850</v>
       </c>
       <c r="D212" t="n">
         <v>10860</v>
       </c>
       <c r="E212" t="n">
-        <v>10860</v>
+        <v>10850</v>
       </c>
       <c r="F212" t="n">
-        <v>14.2476</v>
+        <v>90.3591</v>
       </c>
       <c r="G212" t="n">
-        <v>10757.5</v>
+        <v>10755.16666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7848,10 +7884,10 @@
         <v>10860</v>
       </c>
       <c r="F213" t="n">
-        <v>37.3002</v>
+        <v>14.2476</v>
       </c>
       <c r="G213" t="n">
-        <v>10760.66666666667</v>
+        <v>10757.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7883,10 +7919,10 @@
         <v>10860</v>
       </c>
       <c r="F214" t="n">
-        <v>35.066</v>
+        <v>37.3002</v>
       </c>
       <c r="G214" t="n">
-        <v>10764.16666666667</v>
+        <v>10760.66666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7918,10 +7954,10 @@
         <v>10860</v>
       </c>
       <c r="F215" t="n">
-        <v>17.0859</v>
+        <v>35.066</v>
       </c>
       <c r="G215" t="n">
-        <v>10767.33333333333</v>
+        <v>10764.16666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7941,22 +7977,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>10850</v>
+        <v>10860</v>
       </c>
       <c r="C216" t="n">
-        <v>10850</v>
+        <v>10860</v>
       </c>
       <c r="D216" t="n">
-        <v>10850</v>
+        <v>10860</v>
       </c>
       <c r="E216" t="n">
-        <v>10850</v>
+        <v>10860</v>
       </c>
       <c r="F216" t="n">
-        <v>6.262</v>
+        <v>17.0859</v>
       </c>
       <c r="G216" t="n">
-        <v>10770.66666666667</v>
+        <v>10767.33333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7976,22 +8012,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>10860</v>
+        <v>10850</v>
       </c>
       <c r="C217" t="n">
-        <v>10860</v>
+        <v>10850</v>
       </c>
       <c r="D217" t="n">
-        <v>10860</v>
+        <v>10850</v>
       </c>
       <c r="E217" t="n">
-        <v>10860</v>
+        <v>10850</v>
       </c>
       <c r="F217" t="n">
-        <v>3.3024</v>
+        <v>6.262</v>
       </c>
       <c r="G217" t="n">
-        <v>10775</v>
+        <v>10770.66666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8011,22 +8047,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>10890</v>
+        <v>10860</v>
       </c>
       <c r="C218" t="n">
-        <v>10850</v>
+        <v>10860</v>
       </c>
       <c r="D218" t="n">
-        <v>10890</v>
+        <v>10860</v>
       </c>
       <c r="E218" t="n">
-        <v>10850</v>
+        <v>10860</v>
       </c>
       <c r="F218" t="n">
-        <v>12.4668</v>
+        <v>3.3024</v>
       </c>
       <c r="G218" t="n">
-        <v>10779.16666666667</v>
+        <v>10775</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8046,22 +8082,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>10850</v>
+        <v>10890</v>
       </c>
       <c r="C219" t="n">
         <v>10850</v>
       </c>
       <c r="D219" t="n">
-        <v>10850</v>
+        <v>10890</v>
       </c>
       <c r="E219" t="n">
         <v>10850</v>
       </c>
       <c r="F219" t="n">
-        <v>240.3613</v>
+        <v>12.4668</v>
       </c>
       <c r="G219" t="n">
-        <v>10782.66666666667</v>
+        <v>10779.16666666667</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8081,22 +8117,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>10880</v>
+        <v>10850</v>
       </c>
       <c r="C220" t="n">
-        <v>10880</v>
+        <v>10850</v>
       </c>
       <c r="D220" t="n">
-        <v>10880</v>
+        <v>10850</v>
       </c>
       <c r="E220" t="n">
-        <v>10880</v>
+        <v>10850</v>
       </c>
       <c r="F220" t="n">
-        <v>28.5336</v>
+        <v>240.3613</v>
       </c>
       <c r="G220" t="n">
-        <v>10785.33333333333</v>
+        <v>10782.66666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8128,10 +8164,10 @@
         <v>10880</v>
       </c>
       <c r="F221" t="n">
-        <v>97.9487</v>
+        <v>28.5336</v>
       </c>
       <c r="G221" t="n">
-        <v>10788.83333333333</v>
+        <v>10785.33333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8163,10 +8199,10 @@
         <v>10880</v>
       </c>
       <c r="F222" t="n">
-        <v>2</v>
+        <v>97.9487</v>
       </c>
       <c r="G222" t="n">
-        <v>10792.16666666667</v>
+        <v>10788.83333333333</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8186,22 +8222,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>10850</v>
+        <v>10880</v>
       </c>
       <c r="C223" t="n">
-        <v>10840</v>
+        <v>10880</v>
       </c>
       <c r="D223" t="n">
-        <v>10850</v>
+        <v>10880</v>
       </c>
       <c r="E223" t="n">
-        <v>10840</v>
+        <v>10880</v>
       </c>
       <c r="F223" t="n">
-        <v>7.0139</v>
+        <v>2</v>
       </c>
       <c r="G223" t="n">
-        <v>10795.33333333333</v>
+        <v>10792.16666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8221,22 +8257,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>10900</v>
+        <v>10850</v>
       </c>
       <c r="C224" t="n">
         <v>10840</v>
       </c>
       <c r="D224" t="n">
-        <v>10900</v>
+        <v>10850</v>
       </c>
       <c r="E224" t="n">
         <v>10840</v>
       </c>
       <c r="F224" t="n">
-        <v>29.9038</v>
+        <v>7.0139</v>
       </c>
       <c r="G224" t="n">
-        <v>10798.16666666667</v>
+        <v>10795.33333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8256,22 +8292,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>10880</v>
+        <v>10900</v>
       </c>
       <c r="C225" t="n">
-        <v>10900</v>
+        <v>10840</v>
       </c>
       <c r="D225" t="n">
         <v>10900</v>
       </c>
       <c r="E225" t="n">
-        <v>10880</v>
+        <v>10840</v>
       </c>
       <c r="F225" t="n">
-        <v>18.5164</v>
+        <v>29.9038</v>
       </c>
       <c r="G225" t="n">
-        <v>10800.83333333333</v>
+        <v>10798.16666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8291,7 +8327,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>10900</v>
+        <v>10880</v>
       </c>
       <c r="C226" t="n">
         <v>10900</v>
@@ -8300,13 +8336,13 @@
         <v>10900</v>
       </c>
       <c r="E226" t="n">
-        <v>10900</v>
+        <v>10880</v>
       </c>
       <c r="F226" t="n">
-        <v>17.6548</v>
+        <v>18.5164</v>
       </c>
       <c r="G226" t="n">
-        <v>10804.16666666667</v>
+        <v>10800.83333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8338,10 +8374,10 @@
         <v>10900</v>
       </c>
       <c r="F227" t="n">
-        <v>0.3176</v>
+        <v>17.6548</v>
       </c>
       <c r="G227" t="n">
-        <v>10807.5</v>
+        <v>10804.16666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8361,22 +8397,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>10850</v>
+        <v>10900</v>
       </c>
       <c r="C228" t="n">
-        <v>10850</v>
+        <v>10900</v>
       </c>
       <c r="D228" t="n">
-        <v>10850</v>
+        <v>10900</v>
       </c>
       <c r="E228" t="n">
-        <v>10850</v>
+        <v>10900</v>
       </c>
       <c r="F228" t="n">
-        <v>2.8766</v>
+        <v>0.3176</v>
       </c>
       <c r="G228" t="n">
-        <v>10810</v>
+        <v>10807.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8396,22 +8432,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>10840</v>
+        <v>10850</v>
       </c>
       <c r="C229" t="n">
-        <v>10800</v>
+        <v>10850</v>
       </c>
       <c r="D229" t="n">
-        <v>10840</v>
+        <v>10850</v>
       </c>
       <c r="E229" t="n">
-        <v>10800</v>
+        <v>10850</v>
       </c>
       <c r="F229" t="n">
-        <v>108.896</v>
+        <v>2.8766</v>
       </c>
       <c r="G229" t="n">
-        <v>10811.5</v>
+        <v>10810</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8431,22 +8467,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>10800</v>
+        <v>10840</v>
       </c>
       <c r="C230" t="n">
         <v>10800</v>
       </c>
       <c r="D230" t="n">
-        <v>10800</v>
+        <v>10840</v>
       </c>
       <c r="E230" t="n">
         <v>10800</v>
       </c>
       <c r="F230" t="n">
-        <v>51.3174</v>
+        <v>108.896</v>
       </c>
       <c r="G230" t="n">
-        <v>10812.5</v>
+        <v>10811.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8469,19 +8505,19 @@
         <v>10800</v>
       </c>
       <c r="C231" t="n">
-        <v>10880</v>
+        <v>10800</v>
       </c>
       <c r="D231" t="n">
-        <v>10880</v>
+        <v>10800</v>
       </c>
       <c r="E231" t="n">
         <v>10800</v>
       </c>
       <c r="F231" t="n">
-        <v>32.8695</v>
+        <v>51.3174</v>
       </c>
       <c r="G231" t="n">
-        <v>10814.83333333333</v>
+        <v>10812.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8504,19 +8540,19 @@
         <v>10800</v>
       </c>
       <c r="C232" t="n">
-        <v>10800</v>
+        <v>10880</v>
       </c>
       <c r="D232" t="n">
-        <v>10800</v>
+        <v>10880</v>
       </c>
       <c r="E232" t="n">
         <v>10800</v>
       </c>
       <c r="F232" t="n">
-        <v>265.8348</v>
+        <v>32.8695</v>
       </c>
       <c r="G232" t="n">
-        <v>10815.83333333333</v>
+        <v>10814.83333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8548,7 +8584,7 @@
         <v>10800</v>
       </c>
       <c r="F233" t="n">
-        <v>176.5897</v>
+        <v>265.8348</v>
       </c>
       <c r="G233" t="n">
         <v>10815.83333333333</v>
@@ -8583,10 +8619,10 @@
         <v>10800</v>
       </c>
       <c r="F234" t="n">
-        <v>10.0421</v>
+        <v>176.5897</v>
       </c>
       <c r="G234" t="n">
-        <v>10817.16666666667</v>
+        <v>10815.83333333333</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8606,22 +8642,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>10780</v>
+        <v>10800</v>
       </c>
       <c r="C235" t="n">
-        <v>10770</v>
+        <v>10800</v>
       </c>
       <c r="D235" t="n">
-        <v>10780</v>
+        <v>10800</v>
       </c>
       <c r="E235" t="n">
-        <v>10770</v>
+        <v>10800</v>
       </c>
       <c r="F235" t="n">
-        <v>190.8015</v>
+        <v>10.0421</v>
       </c>
       <c r="G235" t="n">
-        <v>10816.66666666667</v>
+        <v>10817.16666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8653,10 +8689,10 @@
         <v>10770</v>
       </c>
       <c r="F236" t="n">
-        <v>265.8349</v>
+        <v>190.8015</v>
       </c>
       <c r="G236" t="n">
-        <v>10816.5</v>
+        <v>10816.66666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8676,22 +8712,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>10770</v>
+        <v>10780</v>
       </c>
       <c r="C237" t="n">
         <v>10770</v>
       </c>
       <c r="D237" t="n">
-        <v>10770</v>
+        <v>10780</v>
       </c>
       <c r="E237" t="n">
         <v>10770</v>
       </c>
       <c r="F237" t="n">
-        <v>29.1722</v>
+        <v>265.8349</v>
       </c>
       <c r="G237" t="n">
-        <v>10816</v>
+        <v>10816.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8714,19 +8750,19 @@
         <v>10770</v>
       </c>
       <c r="C238" t="n">
-        <v>10760</v>
+        <v>10770</v>
       </c>
       <c r="D238" t="n">
         <v>10770</v>
       </c>
       <c r="E238" t="n">
-        <v>10760</v>
+        <v>10770</v>
       </c>
       <c r="F238" t="n">
-        <v>99.8129</v>
+        <v>29.1722</v>
       </c>
       <c r="G238" t="n">
-        <v>10815.5</v>
+        <v>10816</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8746,22 +8782,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>10760</v>
+        <v>10770</v>
       </c>
       <c r="C239" t="n">
         <v>10760</v>
       </c>
       <c r="D239" t="n">
-        <v>10760</v>
+        <v>10770</v>
       </c>
       <c r="E239" t="n">
         <v>10760</v>
       </c>
       <c r="F239" t="n">
-        <v>0.1871</v>
+        <v>99.8129</v>
       </c>
       <c r="G239" t="n">
-        <v>10815</v>
+        <v>10815.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8781,22 +8817,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>10780</v>
+        <v>10760</v>
       </c>
       <c r="C240" t="n">
-        <v>10750</v>
+        <v>10760</v>
       </c>
       <c r="D240" t="n">
-        <v>10780</v>
+        <v>10760</v>
       </c>
       <c r="E240" t="n">
-        <v>10750</v>
+        <v>10760</v>
       </c>
       <c r="F240" t="n">
-        <v>179.2439</v>
+        <v>0.1871</v>
       </c>
       <c r="G240" t="n">
-        <v>10814.5</v>
+        <v>10815</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8816,22 +8852,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>10870</v>
+        <v>10780</v>
       </c>
       <c r="C241" t="n">
-        <v>10870</v>
+        <v>10750</v>
       </c>
       <c r="D241" t="n">
-        <v>10870</v>
+        <v>10780</v>
       </c>
       <c r="E241" t="n">
-        <v>10870</v>
+        <v>10750</v>
       </c>
       <c r="F241" t="n">
-        <v>1</v>
+        <v>179.2439</v>
       </c>
       <c r="G241" t="n">
-        <v>10816</v>
+        <v>10814.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8846,6 +8882,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>10870</v>
+      </c>
+      <c r="C242" t="n">
+        <v>10870</v>
+      </c>
+      <c r="D242" t="n">
+        <v>10870</v>
+      </c>
+      <c r="E242" t="n">
+        <v>10870</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" t="n">
+        <v>10816</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-12 BackTest REP.xlsx
+++ b/BackTest/2020-01-12 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M242"/>
+  <dimension ref="A1:N252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>3.9373</v>
       </c>
       <c r="G2" t="n">
+        <v>10291.33333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>10504.33333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>1.3676</v>
       </c>
       <c r="G3" t="n">
+        <v>10286.66666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>10495.66666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10210</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10210</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,22 +533,29 @@
         <v>209.1072</v>
       </c>
       <c r="G4" t="n">
+        <v>10286.66666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>10486.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>10230</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>10230</v>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="L4" t="n">
+        <v>10210</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -557,26 +579,29 @@
         <v>311.9036</v>
       </c>
       <c r="G5" t="n">
+        <v>10280</v>
+      </c>
+      <c r="H5" t="n">
         <v>10479</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>10250</v>
       </c>
-      <c r="K5" t="n">
-        <v>10230</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>10210</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -600,65 +625,71 @@
         <v>31.8915</v>
       </c>
       <c r="G6" t="n">
+        <v>10270.66666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>10471.66666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>10250</v>
       </c>
-      <c r="K6" t="n">
-        <v>10230</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>10250</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10370</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10310</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10400</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10310</v>
+      </c>
+      <c r="F7" t="n">
+        <v>484.7591</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10278</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10465.16666666667</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10270</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10250</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>10370</v>
-      </c>
-      <c r="C7" t="n">
-        <v>10310</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10310</v>
-      </c>
-      <c r="F7" t="n">
-        <v>484.7591</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10465.16666666667</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10270</v>
-      </c>
-      <c r="K7" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -682,24 +713,27 @@
         <v>45.73</v>
       </c>
       <c r="G8" t="n">
+        <v>10276.66666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>10458</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>10250</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -723,1564 +757,1705 @@
         <v>62.6354</v>
       </c>
       <c r="G9" t="n">
+        <v>10275.33333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>10450.66666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>10270</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10320</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10320</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10320</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10320</v>
+      </c>
+      <c r="F10" t="n">
+        <v>53.9999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10275.33333333333</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10443.33333333333</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10320</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10320</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10320</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10320</v>
+      </c>
+      <c r="F11" t="n">
+        <v>88.26990000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10270.66666666667</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10435.83333333333</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10320</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10320</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10320</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10320</v>
+      </c>
+      <c r="F12" t="n">
+        <v>42.992</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10270.66666666667</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10429.16666666667</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10380</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10390</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10380</v>
+      </c>
+      <c r="F13" t="n">
+        <v>61.8193</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10275.33333333333</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10423.83333333333</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10330</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10390</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10330</v>
+      </c>
+      <c r="F14" t="n">
+        <v>40.8354</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10288.66666666667</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10417.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10350</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10340</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10350</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10340</v>
+      </c>
+      <c r="F15" t="n">
+        <v>19.971</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10292.66666666667</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10409.83333333333</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10430</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10380</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10540</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10380</v>
+      </c>
+      <c r="F16" t="n">
+        <v>137.707869829222</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10304</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10404.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10370</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10370</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10370</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10370</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.9911</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10314.66666666667</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10399</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10380</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10380</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10380</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10380</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15.0533</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10324.66666666667</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10395.16666666667</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10370</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10300</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10370</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10300</v>
+      </c>
+      <c r="F19" t="n">
+        <v>417.092</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10328</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10390.16666666667</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10300</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10300</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10300</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10300</v>
+      </c>
+      <c r="F20" t="n">
+        <v>198.0974</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10331.33333333333</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10385.66666666667</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10300</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10300</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10300</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10300</v>
+      </c>
+      <c r="F21" t="n">
+        <v>55.6709</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10333.33333333333</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10381.16666666667</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10300</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10300</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10300</v>
+      </c>
+      <c r="F22" t="n">
+        <v>17.1192</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10332.66666666667</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10377</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10300</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10300</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10300</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10300</v>
+      </c>
+      <c r="F23" t="n">
+        <v>19.5569</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10333.33333333333</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10372.83333333333</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10300</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10300</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10300</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10334</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10369</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10390</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10300</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10300</v>
+      </c>
+      <c r="F25" t="n">
+        <v>248.788</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10332.66666666667</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10365.16666666667</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10400</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10400</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10400</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10400</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10338</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10362.33333333333</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10410</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10410</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10410</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10410</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G27" t="n">
+        <v>10344</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10359.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10410</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10410</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10410</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10410</v>
+      </c>
+      <c r="F28" t="n">
+        <v>38.2518</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10345.33333333333</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10358.33333333333</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10430</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10480</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10480</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10430</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10351.33333333333</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10358.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10470</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10470</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10470</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10470</v>
+      </c>
+      <c r="F30" t="n">
+        <v>36</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10360</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10358.16666666667</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10500</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10420</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10500</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10420</v>
+      </c>
+      <c r="F31" t="n">
+        <v>16.9675</v>
+      </c>
+      <c r="G31" t="n">
+        <v>10362.66666666667</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10357.33333333333</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10590</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10590</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10590</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10590</v>
+      </c>
+      <c r="F32" t="n">
+        <v>67.54519999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10377.33333333333</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10359.33333333333</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10590</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10590</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10590</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10590</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10391.33333333333</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10361.16666666667</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>10600</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10540</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10640</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10510</v>
+      </c>
+      <c r="F34" t="n">
+        <v>178.0512889097744</v>
+      </c>
+      <c r="G34" t="n">
+        <v>10407.33333333333</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10362.16666666667</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10630</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10630</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10630</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10630</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0755</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10429.33333333333</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10364.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10530</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10530</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10530</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10530</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.6629</v>
+      </c>
+      <c r="G36" t="n">
+        <v>10444.66666666667</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10365.33333333333</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10600</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10600</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10600</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10600</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0544</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10464.66666666667</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10367.5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10540</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10600</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10600</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10540</v>
+      </c>
+      <c r="F38" t="n">
+        <v>32.7650320754717</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10484.66666666667</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10369</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>10550</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10540</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10550</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10540</v>
+      </c>
+      <c r="F39" t="n">
+        <v>20.2723</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10500.66666666667</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10368.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10540</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10540</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10540</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10540</v>
+      </c>
+      <c r="F40" t="n">
+        <v>28.5116</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10516.66666666667</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10368.66666666667</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10530</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10530</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10530</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10530</v>
+      </c>
+      <c r="F41" t="n">
+        <v>56.0634</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10525.33333333333</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10369.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10500</v>
+      </c>
+      <c r="C42" t="n">
+        <v>10440</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10500</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10440</v>
+      </c>
+      <c r="F42" t="n">
+        <v>37.899</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10527.33333333333</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10368.83333333333</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10410</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10520</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10520</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10410</v>
+      </c>
+      <c r="F43" t="n">
+        <v>61.9277</v>
+      </c>
+      <c r="G43" t="n">
+        <v>10534.66666666667</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10369.83333333333</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>10510</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10510</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10510</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10510</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10536.66666666667</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10371</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>10500</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10500</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10500</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10500</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3.4783</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10538.66666666667</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10373.66666666667</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>10550</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10550</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10550</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10550</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.266824644549763</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10547.33333333333</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10377.83333333333</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>10490</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10490</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10490</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10490</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6.8253</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10540.66666666667</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10381</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10470</v>
+      </c>
+      <c r="C48" t="n">
+        <v>10470</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10470</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10460</v>
+      </c>
+      <c r="F48" t="n">
+        <v>359.2438</v>
+      </c>
+      <c r="G48" t="n">
+        <v>10532.66666666667</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10383.83333333333</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>10450</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10450</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10450</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10450</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9.8939</v>
+      </c>
+      <c r="G49" t="n">
+        <v>10526.66666666667</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10387.16666666667</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>10420</v>
+      </c>
+      <c r="C50" t="n">
+        <v>10410</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10420</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10410</v>
+      </c>
+      <c r="F50" t="n">
+        <v>67.54519999999999</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10512</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10388.16666666667</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10420</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10420</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10420</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10420</v>
+      </c>
+      <c r="F51" t="n">
+        <v>101.0212</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10504.66666666667</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10388.33333333333</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>10450</v>
+      </c>
+      <c r="C52" t="n">
+        <v>10450</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10450</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10450</v>
+      </c>
+      <c r="F52" t="n">
+        <v>31.0369</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10494.66666666667</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10392.5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>10420</v>
+      </c>
+      <c r="L52" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>10420</v>
+      </c>
+      <c r="C53" t="n">
+        <v>10420</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10420</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10420</v>
+      </c>
+      <c r="F53" t="n">
+        <v>33.1267</v>
+      </c>
+      <c r="G53" t="n">
+        <v>10482.66666666667</v>
+      </c>
+      <c r="H53" t="n">
+        <v>10394.33333333333</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>10450</v>
+      </c>
+      <c r="L53" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>10320</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10320</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10320</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10320</v>
-      </c>
-      <c r="F10" t="n">
-        <v>53.9999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10443.33333333333</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10320</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10320</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10320</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10320</v>
-      </c>
-      <c r="F11" t="n">
-        <v>88.26990000000001</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10435.83333333333</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10320</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10320</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10320</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10320</v>
-      </c>
-      <c r="F12" t="n">
-        <v>42.992</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10429.16666666667</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>10380</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10390</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10390</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10380</v>
-      </c>
-      <c r="F13" t="n">
-        <v>61.8193</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10423.83333333333</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>10330</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10390</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10390</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10330</v>
-      </c>
-      <c r="F14" t="n">
-        <v>40.8354</v>
-      </c>
-      <c r="G14" t="n">
-        <v>10417.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>10350</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10340</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10350</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10340</v>
-      </c>
-      <c r="F15" t="n">
-        <v>19.971</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10409.83333333333</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>10430</v>
-      </c>
-      <c r="C16" t="n">
-        <v>10380</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10540</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10380</v>
-      </c>
-      <c r="F16" t="n">
-        <v>137.707869829222</v>
-      </c>
-      <c r="G16" t="n">
-        <v>10404.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>10370</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10370</v>
-      </c>
-      <c r="D17" t="n">
-        <v>10370</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10370</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.9911</v>
-      </c>
-      <c r="G17" t="n">
-        <v>10399</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>10380</v>
-      </c>
-      <c r="C18" t="n">
-        <v>10380</v>
-      </c>
-      <c r="D18" t="n">
-        <v>10380</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10380</v>
-      </c>
-      <c r="F18" t="n">
-        <v>15.0533</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10395.16666666667</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>10370</v>
-      </c>
-      <c r="C19" t="n">
-        <v>10300</v>
-      </c>
-      <c r="D19" t="n">
-        <v>10370</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10300</v>
-      </c>
-      <c r="F19" t="n">
-        <v>417.092</v>
-      </c>
-      <c r="G19" t="n">
-        <v>10390.16666666667</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>10300</v>
-      </c>
-      <c r="C20" t="n">
-        <v>10300</v>
-      </c>
-      <c r="D20" t="n">
-        <v>10300</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10300</v>
-      </c>
-      <c r="F20" t="n">
-        <v>198.0974</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10385.66666666667</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>10300</v>
-      </c>
-      <c r="C21" t="n">
-        <v>10300</v>
-      </c>
-      <c r="D21" t="n">
-        <v>10300</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10300</v>
-      </c>
-      <c r="F21" t="n">
-        <v>55.6709</v>
-      </c>
-      <c r="G21" t="n">
-        <v>10381.16666666667</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>10300</v>
-      </c>
-      <c r="C22" t="n">
-        <v>10300</v>
-      </c>
-      <c r="D22" t="n">
-        <v>10300</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10300</v>
-      </c>
-      <c r="F22" t="n">
-        <v>17.1192</v>
-      </c>
-      <c r="G22" t="n">
-        <v>10377</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>10300</v>
-      </c>
-      <c r="C23" t="n">
-        <v>10300</v>
-      </c>
-      <c r="D23" t="n">
-        <v>10300</v>
-      </c>
-      <c r="E23" t="n">
-        <v>10300</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.5569</v>
-      </c>
-      <c r="G23" t="n">
-        <v>10372.83333333333</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>10300</v>
-      </c>
-      <c r="C24" t="n">
-        <v>10300</v>
-      </c>
-      <c r="D24" t="n">
-        <v>10300</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10300</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2.932</v>
-      </c>
-      <c r="G24" t="n">
-        <v>10369</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>10390</v>
-      </c>
-      <c r="C25" t="n">
-        <v>10300</v>
-      </c>
-      <c r="D25" t="n">
-        <v>10390</v>
-      </c>
-      <c r="E25" t="n">
-        <v>10300</v>
-      </c>
-      <c r="F25" t="n">
-        <v>248.788</v>
-      </c>
-      <c r="G25" t="n">
-        <v>10365.16666666667</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>10400</v>
-      </c>
-      <c r="C26" t="n">
-        <v>10400</v>
-      </c>
-      <c r="D26" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E26" t="n">
-        <v>10400</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G26" t="n">
-        <v>10362.33333333333</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>10410</v>
-      </c>
-      <c r="C27" t="n">
-        <v>10410</v>
-      </c>
-      <c r="D27" t="n">
-        <v>10410</v>
-      </c>
-      <c r="E27" t="n">
-        <v>10410</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G27" t="n">
-        <v>10359.5</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>10410</v>
-      </c>
-      <c r="C28" t="n">
-        <v>10410</v>
-      </c>
-      <c r="D28" t="n">
-        <v>10410</v>
-      </c>
-      <c r="E28" t="n">
-        <v>10410</v>
-      </c>
-      <c r="F28" t="n">
-        <v>38.2518</v>
-      </c>
-      <c r="G28" t="n">
-        <v>10358.33333333333</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>10430</v>
-      </c>
-      <c r="C29" t="n">
-        <v>10480</v>
-      </c>
-      <c r="D29" t="n">
-        <v>10480</v>
-      </c>
-      <c r="E29" t="n">
-        <v>10430</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G29" t="n">
-        <v>10358.5</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>10470</v>
-      </c>
-      <c r="C30" t="n">
-        <v>10470</v>
-      </c>
-      <c r="D30" t="n">
-        <v>10470</v>
-      </c>
-      <c r="E30" t="n">
-        <v>10470</v>
-      </c>
-      <c r="F30" t="n">
-        <v>36</v>
-      </c>
-      <c r="G30" t="n">
-        <v>10358.16666666667</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>10500</v>
-      </c>
-      <c r="C31" t="n">
-        <v>10420</v>
-      </c>
-      <c r="D31" t="n">
-        <v>10500</v>
-      </c>
-      <c r="E31" t="n">
-        <v>10420</v>
-      </c>
-      <c r="F31" t="n">
-        <v>16.9675</v>
-      </c>
-      <c r="G31" t="n">
-        <v>10357.33333333333</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>10590</v>
-      </c>
-      <c r="C32" t="n">
-        <v>10590</v>
-      </c>
-      <c r="D32" t="n">
-        <v>10590</v>
-      </c>
-      <c r="E32" t="n">
-        <v>10590</v>
-      </c>
-      <c r="F32" t="n">
-        <v>67.54519999999999</v>
-      </c>
-      <c r="G32" t="n">
-        <v>10359.33333333333</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>10590</v>
-      </c>
-      <c r="C33" t="n">
-        <v>10590</v>
-      </c>
-      <c r="D33" t="n">
-        <v>10590</v>
-      </c>
-      <c r="E33" t="n">
-        <v>10590</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="G33" t="n">
-        <v>10361.16666666667</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>10600</v>
-      </c>
-      <c r="C34" t="n">
-        <v>10540</v>
-      </c>
-      <c r="D34" t="n">
-        <v>10640</v>
-      </c>
-      <c r="E34" t="n">
-        <v>10510</v>
-      </c>
-      <c r="F34" t="n">
-        <v>178.0512889097744</v>
-      </c>
-      <c r="G34" t="n">
-        <v>10362.16666666667</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>10630</v>
-      </c>
-      <c r="C35" t="n">
-        <v>10630</v>
-      </c>
-      <c r="D35" t="n">
-        <v>10630</v>
-      </c>
-      <c r="E35" t="n">
-        <v>10630</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.0755</v>
-      </c>
-      <c r="G35" t="n">
-        <v>10364.5</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>10530</v>
-      </c>
-      <c r="C36" t="n">
-        <v>10530</v>
-      </c>
-      <c r="D36" t="n">
-        <v>10530</v>
-      </c>
-      <c r="E36" t="n">
-        <v>10530</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.6629</v>
-      </c>
-      <c r="G36" t="n">
-        <v>10365.33333333333</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>10600</v>
-      </c>
-      <c r="C37" t="n">
-        <v>10600</v>
-      </c>
-      <c r="D37" t="n">
-        <v>10600</v>
-      </c>
-      <c r="E37" t="n">
-        <v>10600</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.0544</v>
-      </c>
-      <c r="G37" t="n">
-        <v>10367.5</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>10540</v>
-      </c>
-      <c r="C38" t="n">
-        <v>10600</v>
-      </c>
-      <c r="D38" t="n">
-        <v>10600</v>
-      </c>
-      <c r="E38" t="n">
-        <v>10540</v>
-      </c>
-      <c r="F38" t="n">
-        <v>32.7650320754717</v>
-      </c>
-      <c r="G38" t="n">
-        <v>10369</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>10550</v>
-      </c>
-      <c r="C39" t="n">
-        <v>10540</v>
-      </c>
-      <c r="D39" t="n">
-        <v>10550</v>
-      </c>
-      <c r="E39" t="n">
-        <v>10540</v>
-      </c>
-      <c r="F39" t="n">
-        <v>20.2723</v>
-      </c>
-      <c r="G39" t="n">
-        <v>10368.5</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>10540</v>
-      </c>
-      <c r="C40" t="n">
-        <v>10540</v>
-      </c>
-      <c r="D40" t="n">
-        <v>10540</v>
-      </c>
-      <c r="E40" t="n">
-        <v>10540</v>
-      </c>
-      <c r="F40" t="n">
-        <v>28.5116</v>
-      </c>
-      <c r="G40" t="n">
-        <v>10368.66666666667</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>10530</v>
-      </c>
-      <c r="C41" t="n">
-        <v>10530</v>
-      </c>
-      <c r="D41" t="n">
-        <v>10530</v>
-      </c>
-      <c r="E41" t="n">
-        <v>10530</v>
-      </c>
-      <c r="F41" t="n">
-        <v>56.0634</v>
-      </c>
-      <c r="G41" t="n">
-        <v>10369.5</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>10500</v>
-      </c>
-      <c r="C42" t="n">
-        <v>10440</v>
-      </c>
-      <c r="D42" t="n">
-        <v>10500</v>
-      </c>
-      <c r="E42" t="n">
-        <v>10440</v>
-      </c>
-      <c r="F42" t="n">
-        <v>37.899</v>
-      </c>
-      <c r="G42" t="n">
-        <v>10368.83333333333</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>10410</v>
-      </c>
-      <c r="C43" t="n">
-        <v>10520</v>
-      </c>
-      <c r="D43" t="n">
-        <v>10520</v>
-      </c>
-      <c r="E43" t="n">
-        <v>10410</v>
-      </c>
-      <c r="F43" t="n">
-        <v>61.9277</v>
-      </c>
-      <c r="G43" t="n">
-        <v>10369.83333333333</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>10510</v>
-      </c>
-      <c r="C44" t="n">
-        <v>10510</v>
-      </c>
-      <c r="D44" t="n">
-        <v>10510</v>
-      </c>
-      <c r="E44" t="n">
-        <v>10510</v>
-      </c>
-      <c r="F44" t="n">
-        <v>10</v>
-      </c>
-      <c r="G44" t="n">
-        <v>10371</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>10500</v>
-      </c>
-      <c r="C45" t="n">
-        <v>10500</v>
-      </c>
-      <c r="D45" t="n">
-        <v>10500</v>
-      </c>
-      <c r="E45" t="n">
-        <v>10500</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3.4783</v>
-      </c>
-      <c r="G45" t="n">
-        <v>10373.66666666667</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>10550</v>
-      </c>
-      <c r="C46" t="n">
-        <v>10550</v>
-      </c>
-      <c r="D46" t="n">
-        <v>10550</v>
-      </c>
-      <c r="E46" t="n">
-        <v>10550</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3.266824644549763</v>
-      </c>
-      <c r="G46" t="n">
-        <v>10377.83333333333</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>10490</v>
-      </c>
-      <c r="C47" t="n">
-        <v>10490</v>
-      </c>
-      <c r="D47" t="n">
-        <v>10490</v>
-      </c>
-      <c r="E47" t="n">
-        <v>10490</v>
-      </c>
-      <c r="F47" t="n">
-        <v>6.8253</v>
-      </c>
-      <c r="G47" t="n">
-        <v>10381</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>10470</v>
-      </c>
-      <c r="C48" t="n">
-        <v>10470</v>
-      </c>
-      <c r="D48" t="n">
-        <v>10470</v>
-      </c>
-      <c r="E48" t="n">
-        <v>10460</v>
-      </c>
-      <c r="F48" t="n">
-        <v>359.2438</v>
-      </c>
-      <c r="G48" t="n">
-        <v>10383.83333333333</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>10450</v>
-      </c>
-      <c r="C49" t="n">
-        <v>10450</v>
-      </c>
-      <c r="D49" t="n">
-        <v>10450</v>
-      </c>
-      <c r="E49" t="n">
-        <v>10450</v>
-      </c>
-      <c r="F49" t="n">
-        <v>9.8939</v>
-      </c>
-      <c r="G49" t="n">
-        <v>10387.16666666667</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>10420</v>
-      </c>
-      <c r="C50" t="n">
-        <v>10410</v>
-      </c>
-      <c r="D50" t="n">
-        <v>10420</v>
-      </c>
-      <c r="E50" t="n">
-        <v>10410</v>
-      </c>
-      <c r="F50" t="n">
-        <v>67.54519999999999</v>
-      </c>
-      <c r="G50" t="n">
-        <v>10388.16666666667</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>10420</v>
-      </c>
-      <c r="C51" t="n">
-        <v>10420</v>
-      </c>
-      <c r="D51" t="n">
-        <v>10420</v>
-      </c>
-      <c r="E51" t="n">
-        <v>10420</v>
-      </c>
-      <c r="F51" t="n">
-        <v>101.0212</v>
-      </c>
-      <c r="G51" t="n">
-        <v>10388.33333333333</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>10450</v>
-      </c>
-      <c r="C52" t="n">
-        <v>10450</v>
-      </c>
-      <c r="D52" t="n">
-        <v>10450</v>
-      </c>
-      <c r="E52" t="n">
-        <v>10450</v>
-      </c>
-      <c r="F52" t="n">
-        <v>31.0369</v>
-      </c>
-      <c r="G52" t="n">
-        <v>10392.5</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>10420</v>
-      </c>
-      <c r="C53" t="n">
-        <v>10420</v>
-      </c>
-      <c r="D53" t="n">
-        <v>10420</v>
-      </c>
-      <c r="E53" t="n">
-        <v>10420</v>
-      </c>
-      <c r="F53" t="n">
-        <v>33.1267</v>
-      </c>
-      <c r="G53" t="n">
-        <v>10394.33333333333</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2304,18 +2479,29 @@
         <v>109.7291</v>
       </c>
       <c r="G54" t="n">
+        <v>10474.66666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>10396.16666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>10420</v>
+      </c>
+      <c r="L54" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2339,18 +2525,27 @@
         <v>40.8648</v>
       </c>
       <c r="G55" t="n">
+        <v>10467.33333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>10398</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2374,18 +2569,27 @@
         <v>109.6283</v>
       </c>
       <c r="G56" t="n">
+        <v>10456.66666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>10397.66666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2409,22 +2613,29 @@
         <v>142.9977</v>
       </c>
       <c r="G57" t="n">
+        <v>10462</v>
+      </c>
+      <c r="H57" t="n">
         <v>10401</v>
       </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>10370</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>10370</v>
       </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2448,26 +2659,27 @@
         <v>157.6</v>
       </c>
       <c r="G58" t="n">
+        <v>10455.33333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>10402.66666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>10520</v>
-      </c>
-      <c r="K58" t="n">
-        <v>10370</v>
-      </c>
-      <c r="L58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2491,24 +2703,27 @@
         <v>30</v>
       </c>
       <c r="G59" t="n">
+        <v>10454.66666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>10407.83333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>10370</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2532,18 +2747,27 @@
         <v>12.8716</v>
       </c>
       <c r="G60" t="n">
+        <v>10452</v>
+      </c>
+      <c r="H60" t="n">
         <v>10410.83333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2567,18 +2791,27 @@
         <v>0.3803</v>
       </c>
       <c r="G61" t="n">
+        <v>10448</v>
+      </c>
+      <c r="H61" t="n">
         <v>10415.5</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2602,18 +2835,27 @@
         <v>65.8232</v>
       </c>
       <c r="G62" t="n">
+        <v>10445.33333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>10419.5</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2637,18 +2879,27 @@
         <v>328.8849</v>
       </c>
       <c r="G63" t="n">
+        <v>10440.66666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>10422.33333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2672,18 +2923,27 @@
         <v>6</v>
       </c>
       <c r="G64" t="n">
+        <v>10444</v>
+      </c>
+      <c r="H64" t="n">
         <v>10426.5</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2707,18 +2967,27 @@
         <v>193.892</v>
       </c>
       <c r="G65" t="n">
+        <v>10450</v>
+      </c>
+      <c r="H65" t="n">
         <v>10430.66666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2742,18 +3011,27 @@
         <v>242.4145</v>
       </c>
       <c r="G66" t="n">
+        <v>10455.33333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>10434.5</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2777,18 +3055,27 @@
         <v>115.7853</v>
       </c>
       <c r="G67" t="n">
+        <v>10460.66666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>10438.16666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2812,18 +3099,27 @@
         <v>46.4008</v>
       </c>
       <c r="G68" t="n">
+        <v>10466</v>
+      </c>
+      <c r="H68" t="n">
         <v>10441.66666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2847,18 +3143,27 @@
         <v>7.594</v>
       </c>
       <c r="G69" t="n">
+        <v>10476</v>
+      </c>
+      <c r="H69" t="n">
         <v>10446.33333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2882,18 +3187,27 @@
         <v>3</v>
       </c>
       <c r="G70" t="n">
+        <v>10487.33333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>10451</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2917,18 +3231,27 @@
         <v>0.1665</v>
       </c>
       <c r="G71" t="n">
+        <v>10502.66666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>10455.66666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2952,18 +3275,27 @@
         <v>37.6088</v>
       </c>
       <c r="G72" t="n">
+        <v>10508</v>
+      </c>
+      <c r="H72" t="n">
         <v>10460.33333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2987,18 +3319,27 @@
         <v>23.6523</v>
       </c>
       <c r="G73" t="n">
+        <v>10520.66666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>10464</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,18 +3363,27 @@
         <v>16.0996</v>
       </c>
       <c r="G74" t="n">
+        <v>10527.33333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>10467.5</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3057,18 +3407,27 @@
         <v>201.8565</v>
       </c>
       <c r="G75" t="n">
+        <v>10536.66666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>10471.83333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3092,18 +3451,27 @@
         <v>25.7089</v>
       </c>
       <c r="G76" t="n">
+        <v>10547.33333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>10476.33333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3127,18 +3495,27 @@
         <v>44.86175225140713</v>
       </c>
       <c r="G77" t="n">
+        <v>10561.33333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>10481.16666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3162,18 +3539,27 @@
         <v>57.99264774859287</v>
       </c>
       <c r="G78" t="n">
+        <v>10578.66666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>10485.83333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3197,18 +3583,27 @@
         <v>30</v>
       </c>
       <c r="G79" t="n">
+        <v>10589.33333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>10491.83333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,18 +3627,27 @@
         <v>0.007352251407129455</v>
       </c>
       <c r="G80" t="n">
+        <v>10600</v>
+      </c>
+      <c r="H80" t="n">
         <v>10497.83333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3267,18 +3671,27 @@
         <v>57</v>
       </c>
       <c r="G81" t="n">
+        <v>10611.33333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>10504</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3302,18 +3715,27 @@
         <v>838.3764</v>
       </c>
       <c r="G82" t="n">
+        <v>10621.33333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>10510.33333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3337,18 +3759,27 @@
         <v>19.2</v>
       </c>
       <c r="G83" t="n">
+        <v>10633.33333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>10516.66666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3372,18 +3803,27 @@
         <v>3.45</v>
       </c>
       <c r="G84" t="n">
+        <v>10640.66666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>10523</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3407,18 +3847,27 @@
         <v>244.5365</v>
       </c>
       <c r="G85" t="n">
+        <v>10648</v>
+      </c>
+      <c r="H85" t="n">
         <v>10529.83333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3442,18 +3891,27 @@
         <v>461.18</v>
       </c>
       <c r="G86" t="n">
+        <v>10654.66666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>10534.83333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3477,18 +3935,27 @@
         <v>249.7362</v>
       </c>
       <c r="G87" t="n">
+        <v>10664.66666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>10540.5</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3512,18 +3979,27 @@
         <v>512.2564</v>
       </c>
       <c r="G88" t="n">
+        <v>10668</v>
+      </c>
+      <c r="H88" t="n">
         <v>10544.66666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3547,18 +4023,27 @@
         <v>6.4</v>
       </c>
       <c r="G89" t="n">
+        <v>10676</v>
+      </c>
+      <c r="H89" t="n">
         <v>10548.66666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,18 +4067,27 @@
         <v>126.2192</v>
       </c>
       <c r="G90" t="n">
+        <v>10686.66666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>10553.5</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3617,18 +4111,27 @@
         <v>159.4934</v>
       </c>
       <c r="G91" t="n">
+        <v>10691.33333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>10558.5</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3652,18 +4155,27 @@
         <v>44.8</v>
       </c>
       <c r="G92" t="n">
+        <v>10697.33333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>10561.16666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3687,18 +4199,27 @@
         <v>52</v>
       </c>
       <c r="G93" t="n">
+        <v>10703.33333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>10563.83333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,18 +4243,27 @@
         <v>92.8005</v>
       </c>
       <c r="G94" t="n">
+        <v>10708.66666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>10567.16666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3757,18 +4287,27 @@
         <v>28.9003</v>
       </c>
       <c r="G95" t="n">
+        <v>10714</v>
+      </c>
+      <c r="H95" t="n">
         <v>10569</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3792,18 +4331,27 @@
         <v>153.4254</v>
       </c>
       <c r="G96" t="n">
+        <v>10716</v>
+      </c>
+      <c r="H96" t="n">
         <v>10571.83333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3827,18 +4375,27 @@
         <v>15.5184</v>
       </c>
       <c r="G97" t="n">
+        <v>10716.66666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>10573.33333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,18 +4419,27 @@
         <v>15.5185</v>
       </c>
       <c r="G98" t="n">
+        <v>10718</v>
+      </c>
+      <c r="H98" t="n">
         <v>10575</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3897,18 +4463,27 @@
         <v>0.1</v>
       </c>
       <c r="G99" t="n">
+        <v>10722.66666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>10578.5</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3932,18 +4507,27 @@
         <v>9.280799999999999</v>
       </c>
       <c r="G100" t="n">
+        <v>10725.33333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>10582</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,18 +4551,27 @@
         <v>5</v>
       </c>
       <c r="G101" t="n">
+        <v>10730</v>
+      </c>
+      <c r="H101" t="n">
         <v>10586</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4002,18 +4595,27 @@
         <v>74.1041</v>
       </c>
       <c r="G102" t="n">
+        <v>10730</v>
+      </c>
+      <c r="H102" t="n">
         <v>10591.16666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4037,18 +4639,27 @@
         <v>2</v>
       </c>
       <c r="G103" t="n">
+        <v>10740</v>
+      </c>
+      <c r="H103" t="n">
         <v>10596</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4072,19 +4683,28 @@
         <v>34.7032</v>
       </c>
       <c r="G104" t="n">
+        <v>10742</v>
+      </c>
+      <c r="H104" t="n">
         <v>10600</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
+      <c r="L104" t="n">
+        <v>10420</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>1.026669865642994</v>
       </c>
     </row>
     <row r="105">
@@ -4107,18 +4727,21 @@
         <v>183.4099</v>
       </c>
       <c r="G105" t="n">
+        <v>10750</v>
+      </c>
+      <c r="H105" t="n">
         <v>10606.33333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,18 +4765,21 @@
         <v>6.4</v>
       </c>
       <c r="G106" t="n">
+        <v>10752</v>
+      </c>
+      <c r="H106" t="n">
         <v>10609.66666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4177,18 +4803,21 @@
         <v>27.5808</v>
       </c>
       <c r="G107" t="n">
+        <v>10758.66666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>10615.66666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4212,18 +4841,21 @@
         <v>49.3846</v>
       </c>
       <c r="G108" t="n">
+        <v>10765.33333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>10622</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4247,18 +4879,21 @@
         <v>15.4</v>
       </c>
       <c r="G109" t="n">
+        <v>10766.66666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>10627.16666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4282,18 +4917,21 @@
         <v>49.3846</v>
       </c>
       <c r="G110" t="n">
+        <v>10767.33333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>10632.83333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4317,18 +4955,21 @@
         <v>5.9529</v>
       </c>
       <c r="G111" t="n">
+        <v>10776</v>
+      </c>
+      <c r="H111" t="n">
         <v>10639.66666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,18 +4993,21 @@
         <v>104.0834</v>
       </c>
       <c r="G112" t="n">
+        <v>10783.33333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>10645.5</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4387,18 +5031,21 @@
         <v>64</v>
       </c>
       <c r="G113" t="n">
+        <v>10788.66666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>10651.5</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4422,18 +5069,21 @@
         <v>35.0866</v>
       </c>
       <c r="G114" t="n">
+        <v>10794</v>
+      </c>
+      <c r="H114" t="n">
         <v>10658.33333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4457,18 +5107,21 @@
         <v>135.977</v>
       </c>
       <c r="G115" t="n">
+        <v>10794</v>
+      </c>
+      <c r="H115" t="n">
         <v>10663.66666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4492,18 +5145,21 @@
         <v>1</v>
       </c>
       <c r="G116" t="n">
+        <v>10796</v>
+      </c>
+      <c r="H116" t="n">
         <v>10670.83333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4527,18 +5183,21 @@
         <v>118.8118</v>
       </c>
       <c r="G117" t="n">
+        <v>10799.33333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>10675.5</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4562,18 +5221,21 @@
         <v>55.2561</v>
       </c>
       <c r="G118" t="n">
+        <v>10800.66666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>10682.33333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4597,18 +5259,21 @@
         <v>21.61</v>
       </c>
       <c r="G119" t="n">
+        <v>10806</v>
+      </c>
+      <c r="H119" t="n">
         <v>10687.83333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,18 +5297,21 @@
         <v>18.0307</v>
       </c>
       <c r="G120" t="n">
+        <v>10805.33333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>10694.66666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4667,18 +5335,21 @@
         <v>108.0992</v>
       </c>
       <c r="G121" t="n">
+        <v>10808.66666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>10699.83333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,18 +5373,21 @@
         <v>0.2318</v>
       </c>
       <c r="G122" t="n">
+        <v>10810</v>
+      </c>
+      <c r="H122" t="n">
         <v>10706.83333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,18 +5411,21 @@
         <v>46.6369</v>
       </c>
       <c r="G123" t="n">
+        <v>10812</v>
+      </c>
+      <c r="H123" t="n">
         <v>10714.83333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,18 +5449,21 @@
         <v>172.0188</v>
       </c>
       <c r="G124" t="n">
+        <v>10818</v>
+      </c>
+      <c r="H124" t="n">
         <v>10720.66666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,18 +5487,21 @@
         <v>29.868</v>
       </c>
       <c r="G125" t="n">
+        <v>10820.66666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>10725.5</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4842,18 +5525,21 @@
         <v>4.6223</v>
       </c>
       <c r="G126" t="n">
+        <v>10818</v>
+      </c>
+      <c r="H126" t="n">
         <v>10730.33333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4877,18 +5563,21 @@
         <v>46.6369</v>
       </c>
       <c r="G127" t="n">
+        <v>10814</v>
+      </c>
+      <c r="H127" t="n">
         <v>10733.83333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4912,18 +5601,21 @@
         <v>11.7181</v>
       </c>
       <c r="G128" t="n">
+        <v>10814</v>
+      </c>
+      <c r="H128" t="n">
         <v>10738.5</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4947,18 +5639,21 @@
         <v>20.3395</v>
       </c>
       <c r="G129" t="n">
+        <v>10808.66666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>10741.5</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4982,18 +5677,21 @@
         <v>0.3312</v>
       </c>
       <c r="G130" t="n">
+        <v>10811.33333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>10744.66666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5017,18 +5715,21 @@
         <v>2.7734</v>
       </c>
       <c r="G131" t="n">
+        <v>10810.66666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>10747.83333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5052,18 +5753,21 @@
         <v>5.582</v>
       </c>
       <c r="G132" t="n">
+        <v>10807.33333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>10750.33333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5087,18 +5791,21 @@
         <v>23.1495</v>
       </c>
       <c r="G133" t="n">
+        <v>10806</v>
+      </c>
+      <c r="H133" t="n">
         <v>10753.66666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,18 +5829,21 @@
         <v>47.8204</v>
       </c>
       <c r="G134" t="n">
+        <v>10801.33333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>10756.33333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5157,18 +5867,21 @@
         <v>79</v>
       </c>
       <c r="G135" t="n">
+        <v>10793.33333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>10758.83333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5192,18 +5905,21 @@
         <v>41.9843</v>
       </c>
       <c r="G136" t="n">
+        <v>10790</v>
+      </c>
+      <c r="H136" t="n">
         <v>10760.5</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5227,18 +5943,21 @@
         <v>110.9088</v>
       </c>
       <c r="G137" t="n">
+        <v>10779.33333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>10761.33333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5262,18 +5981,21 @@
         <v>0.1</v>
       </c>
       <c r="G138" t="n">
+        <v>10772</v>
+      </c>
+      <c r="H138" t="n">
         <v>10763.16666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5297,18 +6019,21 @@
         <v>12.8139</v>
       </c>
       <c r="G139" t="n">
+        <v>10766.66666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>10765</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,18 +6057,21 @@
         <v>37.573</v>
       </c>
       <c r="G140" t="n">
+        <v>10761.33333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>10765.83333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5367,18 +6095,21 @@
         <v>37.9987</v>
       </c>
       <c r="G141" t="n">
+        <v>10755.33333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>10766.33333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5402,18 +6133,21 @@
         <v>56.4506</v>
       </c>
       <c r="G142" t="n">
+        <v>10752.66666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>10766.66666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5437,18 +6171,21 @@
         <v>166</v>
       </c>
       <c r="G143" t="n">
+        <v>10747.33333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>10767</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5472,18 +6209,21 @@
         <v>4</v>
       </c>
       <c r="G144" t="n">
+        <v>10742</v>
+      </c>
+      <c r="H144" t="n">
         <v>10766.83333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5507,18 +6247,21 @@
         <v>4.8239</v>
       </c>
       <c r="G145" t="n">
+        <v>10736</v>
+      </c>
+      <c r="H145" t="n">
         <v>10766.66666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5542,18 +6285,21 @@
         <v>5.6471</v>
       </c>
       <c r="G146" t="n">
+        <v>10730</v>
+      </c>
+      <c r="H146" t="n">
         <v>10766.66666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5577,18 +6323,21 @@
         <v>2</v>
       </c>
       <c r="G147" t="n">
+        <v>10729.33333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>10766.5</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5612,18 +6361,21 @@
         <v>24.9838</v>
       </c>
       <c r="G148" t="n">
+        <v>10722</v>
+      </c>
+      <c r="H148" t="n">
         <v>10767.16666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,18 +6399,21 @@
         <v>5.2873</v>
       </c>
       <c r="G149" t="n">
+        <v>10718</v>
+      </c>
+      <c r="H149" t="n">
         <v>10766.83333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5682,18 +6437,21 @@
         <v>27.192</v>
       </c>
       <c r="G150" t="n">
+        <v>10714.66666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>10765.83333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5717,18 +6475,21 @@
         <v>5.3119</v>
       </c>
       <c r="G151" t="n">
+        <v>10711.33333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>10765.5</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,18 +6513,21 @@
         <v>129.8903</v>
       </c>
       <c r="G152" t="n">
+        <v>10710.66666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>10764.66666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5787,18 +6551,21 @@
         <v>0.7796999999999999</v>
       </c>
       <c r="G153" t="n">
+        <v>10707.33333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>10764.16666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5822,18 +6589,21 @@
         <v>56.6009</v>
       </c>
       <c r="G154" t="n">
+        <v>10700.66666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>10763</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5857,18 +6627,21 @@
         <v>7.1069</v>
       </c>
       <c r="G155" t="n">
+        <v>10696.66666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>10761.5</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,18 +6665,21 @@
         <v>58.5734</v>
       </c>
       <c r="G156" t="n">
+        <v>10694.66666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>10761</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5927,18 +6703,21 @@
         <v>33.5683</v>
       </c>
       <c r="G157" t="n">
+        <v>10691.33333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>10760.33333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5962,18 +6741,21 @@
         <v>0.1342</v>
       </c>
       <c r="G158" t="n">
+        <v>10684.66666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>10758.66666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5997,18 +6779,21 @@
         <v>7.8711</v>
       </c>
       <c r="G159" t="n">
+        <v>10680</v>
+      </c>
+      <c r="H159" t="n">
         <v>10756.16666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6032,18 +6817,21 @@
         <v>2</v>
       </c>
       <c r="G160" t="n">
+        <v>10676</v>
+      </c>
+      <c r="H160" t="n">
         <v>10754.33333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6067,18 +6855,21 @@
         <v>602.4506</v>
       </c>
       <c r="G161" t="n">
+        <v>10677.33333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>10753.5</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6102,18 +6893,21 @@
         <v>494.6536</v>
       </c>
       <c r="G162" t="n">
+        <v>10672.66666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>10752.16666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6137,18 +6931,21 @@
         <v>19.6492</v>
       </c>
       <c r="G163" t="n">
+        <v>10671.33333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>10750</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6172,18 +6969,21 @@
         <v>50</v>
       </c>
       <c r="G164" t="n">
+        <v>10668</v>
+      </c>
+      <c r="H164" t="n">
         <v>10748.33333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6207,18 +7007,21 @@
         <v>17.2</v>
       </c>
       <c r="G165" t="n">
+        <v>10666</v>
+      </c>
+      <c r="H165" t="n">
         <v>10744.83333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6242,18 +7045,21 @@
         <v>0.8</v>
       </c>
       <c r="G166" t="n">
+        <v>10668.66666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>10744.66666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6277,18 +7083,21 @@
         <v>24.865</v>
       </c>
       <c r="G167" t="n">
+        <v>10668.66666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>10742.16666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6312,18 +7121,21 @@
         <v>75.5886</v>
       </c>
       <c r="G168" t="n">
+        <v>10667.33333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>10739.66666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6347,18 +7159,21 @@
         <v>51.2706</v>
       </c>
       <c r="G169" t="n">
+        <v>10669.33333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>10738.66666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6382,18 +7197,21 @@
         <v>50</v>
       </c>
       <c r="G170" t="n">
+        <v>10673.33333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>10738</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6417,18 +7235,21 @@
         <v>2.9878</v>
       </c>
       <c r="G171" t="n">
+        <v>10678</v>
+      </c>
+      <c r="H171" t="n">
         <v>10736.5</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6452,18 +7273,21 @@
         <v>5.0603</v>
       </c>
       <c r="G172" t="n">
+        <v>10684</v>
+      </c>
+      <c r="H172" t="n">
         <v>10735.5</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6487,18 +7311,21 @@
         <v>0.0001</v>
       </c>
       <c r="G173" t="n">
+        <v>10693.33333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>10734.83333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6522,18 +7349,21 @@
         <v>0.1</v>
       </c>
       <c r="G174" t="n">
+        <v>10706.66666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>10734.33333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6557,18 +7387,21 @@
         <v>19.3887</v>
       </c>
       <c r="G175" t="n">
+        <v>10712</v>
+      </c>
+      <c r="H175" t="n">
         <v>10733.83333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6592,18 +7425,21 @@
         <v>20.7643</v>
       </c>
       <c r="G176" t="n">
+        <v>10717.33333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>10733.83333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6627,18 +7463,21 @@
         <v>15.7</v>
       </c>
       <c r="G177" t="n">
+        <v>10724.66666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>10733.5</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6662,18 +7501,21 @@
         <v>18.6307</v>
       </c>
       <c r="G178" t="n">
+        <v>10732.66666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>10733</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6697,18 +7539,21 @@
         <v>91.4036</v>
       </c>
       <c r="G179" t="n">
+        <v>10742</v>
+      </c>
+      <c r="H179" t="n">
         <v>10732.33333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6732,18 +7577,21 @@
         <v>25.8292</v>
       </c>
       <c r="G180" t="n">
+        <v>10750</v>
+      </c>
+      <c r="H180" t="n">
         <v>10731</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6767,18 +7615,21 @@
         <v>106.5656</v>
       </c>
       <c r="G181" t="n">
+        <v>10752.66666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>10730.66666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6802,18 +7653,21 @@
         <v>12.81</v>
       </c>
       <c r="G182" t="n">
+        <v>10758</v>
+      </c>
+      <c r="H182" t="n">
         <v>10729.16666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6837,18 +7691,21 @@
         <v>2.8969</v>
       </c>
       <c r="G183" t="n">
+        <v>10764</v>
+      </c>
+      <c r="H183" t="n">
         <v>10727.66666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6872,18 +7729,21 @@
         <v>19.6475</v>
       </c>
       <c r="G184" t="n">
+        <v>10770</v>
+      </c>
+      <c r="H184" t="n">
         <v>10726.66666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6907,18 +7767,21 @@
         <v>14.712</v>
       </c>
       <c r="G185" t="n">
+        <v>10776</v>
+      </c>
+      <c r="H185" t="n">
         <v>10726.83333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6942,18 +7805,21 @@
         <v>4.159</v>
       </c>
       <c r="G186" t="n">
+        <v>10780</v>
+      </c>
+      <c r="H186" t="n">
         <v>10727</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6977,18 +7843,21 @@
         <v>79.98569999999999</v>
       </c>
       <c r="G187" t="n">
+        <v>10786.66666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>10728.66666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7012,18 +7881,21 @@
         <v>12.0356</v>
       </c>
       <c r="G188" t="n">
+        <v>10793.33333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>10729.66666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7047,18 +7919,21 @@
         <v>106.4057</v>
       </c>
       <c r="G189" t="n">
+        <v>10793.33333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>10730.5</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7082,18 +7957,21 @@
         <v>4.618</v>
       </c>
       <c r="G190" t="n">
+        <v>10798.66666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>10730.66666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7117,18 +7995,21 @@
         <v>14.6772</v>
       </c>
       <c r="G191" t="n">
+        <v>10798.66666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>10730.83333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7152,18 +8033,21 @@
         <v>120.7992</v>
       </c>
       <c r="G192" t="n">
+        <v>10798</v>
+      </c>
+      <c r="H192" t="n">
         <v>10731.16666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7187,18 +8071,21 @@
         <v>15.7</v>
       </c>
       <c r="G193" t="n">
+        <v>10796.66666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>10730.66666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7222,18 +8109,21 @@
         <v>5.514</v>
       </c>
       <c r="G194" t="n">
+        <v>10794</v>
+      </c>
+      <c r="H194" t="n">
         <v>10730.5</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7257,18 +8147,21 @@
         <v>2.6543</v>
       </c>
       <c r="G195" t="n">
+        <v>10791.33333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>10730.5</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7292,18 +8185,21 @@
         <v>122.1605</v>
       </c>
       <c r="G196" t="n">
+        <v>10791.33333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>10731</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7327,18 +8223,21 @@
         <v>73.0568</v>
       </c>
       <c r="G197" t="n">
+        <v>10791.33333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>10732.16666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7362,18 +8261,21 @@
         <v>32.9317</v>
       </c>
       <c r="G198" t="n">
+        <v>10790.66666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>10732.33333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7397,18 +8299,21 @@
         <v>6.1256</v>
       </c>
       <c r="G199" t="n">
+        <v>10792.66666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>10733.16666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7432,18 +8337,21 @@
         <v>5.8896</v>
       </c>
       <c r="G200" t="n">
+        <v>10790</v>
+      </c>
+      <c r="H200" t="n">
         <v>10734</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7467,18 +8375,21 @@
         <v>2.8878</v>
       </c>
       <c r="G201" t="n">
+        <v>10788.66666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>10735.33333333333</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7502,18 +8413,21 @@
         <v>121.364</v>
       </c>
       <c r="G202" t="n">
+        <v>10784</v>
+      </c>
+      <c r="H202" t="n">
         <v>10736.5</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,18 +8451,21 @@
         <v>10.284</v>
       </c>
       <c r="G203" t="n">
+        <v>10779.33333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>10737.66666666667</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7572,18 +8489,21 @@
         <v>2.1395</v>
       </c>
       <c r="G204" t="n">
+        <v>10778.66666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>10739.66666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7607,18 +8527,21 @@
         <v>20</v>
       </c>
       <c r="G205" t="n">
+        <v>10778</v>
+      </c>
+      <c r="H205" t="n">
         <v>10741.16666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7642,18 +8565,21 @@
         <v>50</v>
       </c>
       <c r="G206" t="n">
+        <v>10777.33333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>10742.66666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7677,18 +8603,21 @@
         <v>227.8605</v>
       </c>
       <c r="G207" t="n">
+        <v>10778.66666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>10743.5</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7712,18 +8641,21 @@
         <v>18.5355</v>
       </c>
       <c r="G208" t="n">
+        <v>10782</v>
+      </c>
+      <c r="H208" t="n">
         <v>10745.66666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7747,18 +8679,21 @@
         <v>1.3481</v>
       </c>
       <c r="G209" t="n">
+        <v>10787.33333333333</v>
+      </c>
+      <c r="H209" t="n">
         <v>10747.83333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7782,18 +8717,21 @@
         <v>345.0755</v>
       </c>
       <c r="G210" t="n">
+        <v>10793.33333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>10750.16666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7817,18 +8755,21 @@
         <v>28.3839</v>
       </c>
       <c r="G211" t="n">
+        <v>10798</v>
+      </c>
+      <c r="H211" t="n">
         <v>10752.66666666667</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7852,18 +8793,21 @@
         <v>90.3591</v>
       </c>
       <c r="G212" t="n">
+        <v>10802.66666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>10755.16666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7887,18 +8831,21 @@
         <v>14.2476</v>
       </c>
       <c r="G213" t="n">
+        <v>10808</v>
+      </c>
+      <c r="H213" t="n">
         <v>10757.5</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7922,18 +8869,21 @@
         <v>37.3002</v>
       </c>
       <c r="G214" t="n">
+        <v>10810.66666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>10760.66666666667</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7957,18 +8907,21 @@
         <v>35.066</v>
       </c>
       <c r="G215" t="n">
+        <v>10817.33333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>10764.16666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7992,18 +8945,21 @@
         <v>17.0859</v>
       </c>
       <c r="G216" t="n">
+        <v>10822.66666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>10767.33333333333</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8027,18 +8983,21 @@
         <v>6.262</v>
       </c>
       <c r="G217" t="n">
+        <v>10828</v>
+      </c>
+      <c r="H217" t="n">
         <v>10770.66666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8062,18 +9021,21 @@
         <v>3.3024</v>
       </c>
       <c r="G218" t="n">
+        <v>10834</v>
+      </c>
+      <c r="H218" t="n">
         <v>10775</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8097,18 +9059,21 @@
         <v>12.4668</v>
       </c>
       <c r="G219" t="n">
+        <v>10838</v>
+      </c>
+      <c r="H219" t="n">
         <v>10779.16666666667</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8132,18 +9097,21 @@
         <v>240.3613</v>
       </c>
       <c r="G220" t="n">
+        <v>10842</v>
+      </c>
+      <c r="H220" t="n">
         <v>10782.66666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8167,18 +9135,21 @@
         <v>28.5336</v>
       </c>
       <c r="G221" t="n">
+        <v>10848</v>
+      </c>
+      <c r="H221" t="n">
         <v>10785.33333333333</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8202,18 +9173,21 @@
         <v>97.9487</v>
       </c>
       <c r="G222" t="n">
+        <v>10854</v>
+      </c>
+      <c r="H222" t="n">
         <v>10788.83333333333</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8237,18 +9211,21 @@
         <v>2</v>
       </c>
       <c r="G223" t="n">
+        <v>10857.33333333333</v>
+      </c>
+      <c r="H223" t="n">
         <v>10792.16666666667</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8272,18 +9249,21 @@
         <v>7.0139</v>
       </c>
       <c r="G224" t="n">
+        <v>10858</v>
+      </c>
+      <c r="H224" t="n">
         <v>10795.33333333333</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8307,18 +9287,21 @@
         <v>29.9038</v>
       </c>
       <c r="G225" t="n">
+        <v>10858</v>
+      </c>
+      <c r="H225" t="n">
         <v>10798.16666666667</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8342,18 +9325,21 @@
         <v>18.5164</v>
       </c>
       <c r="G226" t="n">
+        <v>10861.33333333333</v>
+      </c>
+      <c r="H226" t="n">
         <v>10800.83333333333</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8377,18 +9363,21 @@
         <v>17.6548</v>
       </c>
       <c r="G227" t="n">
+        <v>10864.66666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>10804.16666666667</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8412,18 +9401,21 @@
         <v>0.3176</v>
       </c>
       <c r="G228" t="n">
+        <v>10867.33333333333</v>
+      </c>
+      <c r="H228" t="n">
         <v>10807.5</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8447,18 +9439,21 @@
         <v>2.8766</v>
       </c>
       <c r="G229" t="n">
+        <v>10866.66666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>10810</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8482,18 +9477,21 @@
         <v>108.896</v>
       </c>
       <c r="G230" t="n">
+        <v>10862.66666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>10811.5</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8517,18 +9515,21 @@
         <v>51.3174</v>
       </c>
       <c r="G231" t="n">
+        <v>10858.66666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>10812.5</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8552,18 +9553,21 @@
         <v>32.8695</v>
       </c>
       <c r="G232" t="n">
+        <v>10860.66666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>10814.83333333333</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8587,18 +9591,21 @@
         <v>265.8348</v>
       </c>
       <c r="G233" t="n">
+        <v>10856.66666666667</v>
+      </c>
+      <c r="H233" t="n">
         <v>10815.83333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8622,18 +9629,21 @@
         <v>176.5897</v>
       </c>
       <c r="G234" t="n">
+        <v>10853.33333333333</v>
+      </c>
+      <c r="H234" t="n">
         <v>10815.83333333333</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8657,18 +9667,21 @@
         <v>10.0421</v>
       </c>
       <c r="G235" t="n">
+        <v>10850</v>
+      </c>
+      <c r="H235" t="n">
         <v>10817.16666666667</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8692,18 +9705,21 @@
         <v>190.8015</v>
       </c>
       <c r="G236" t="n">
+        <v>10842.66666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>10816.66666666667</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8727,18 +9743,21 @@
         <v>265.8349</v>
       </c>
       <c r="G237" t="n">
+        <v>10835.33333333333</v>
+      </c>
+      <c r="H237" t="n">
         <v>10816.5</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8762,18 +9781,21 @@
         <v>29.1722</v>
       </c>
       <c r="G238" t="n">
+        <v>10828</v>
+      </c>
+      <c r="H238" t="n">
         <v>10816</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8797,18 +9819,21 @@
         <v>99.8129</v>
       </c>
       <c r="G239" t="n">
+        <v>10822.66666666667</v>
+      </c>
+      <c r="H239" t="n">
         <v>10815.5</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8832,18 +9857,21 @@
         <v>0.1871</v>
       </c>
       <c r="G240" t="n">
+        <v>10817.33333333333</v>
+      </c>
+      <c r="H240" t="n">
         <v>10815</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8867,18 +9895,21 @@
         <v>179.2439</v>
       </c>
       <c r="G241" t="n">
+        <v>10807.33333333333</v>
+      </c>
+      <c r="H241" t="n">
         <v>10814.5</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8902,18 +9933,401 @@
         <v>1</v>
       </c>
       <c r="G242" t="n">
+        <v>10805.33333333333</v>
+      </c>
+      <c r="H242" t="n">
         <v>10816</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>10860</v>
+      </c>
+      <c r="C243" t="n">
+        <v>10860</v>
+      </c>
+      <c r="D243" t="n">
+        <v>10860</v>
+      </c>
+      <c r="E243" t="n">
+        <v>10860</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1.1494</v>
+      </c>
+      <c r="G243" t="n">
+        <v>10802.66666666667</v>
+      </c>
+      <c r="H243" t="n">
+        <v>10817.16666666667</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>10870</v>
+      </c>
+      <c r="C244" t="n">
+        <v>10870</v>
+      </c>
+      <c r="D244" t="n">
+        <v>10870</v>
+      </c>
+      <c r="E244" t="n">
+        <v>10870</v>
+      </c>
+      <c r="F244" t="n">
+        <v>113.6991</v>
+      </c>
+      <c r="G244" t="n">
+        <v>10804</v>
+      </c>
+      <c r="H244" t="n">
+        <v>10818.5</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>10870</v>
+      </c>
+      <c r="C245" t="n">
+        <v>10870</v>
+      </c>
+      <c r="D245" t="n">
+        <v>10870</v>
+      </c>
+      <c r="E245" t="n">
+        <v>10870</v>
+      </c>
+      <c r="F245" t="n">
+        <v>7.094</v>
+      </c>
+      <c r="G245" t="n">
+        <v>10808.66666666667</v>
+      </c>
+      <c r="H245" t="n">
+        <v>10819.66666666667</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>10880</v>
+      </c>
+      <c r="C246" t="n">
+        <v>10880</v>
+      </c>
+      <c r="D246" t="n">
+        <v>10880</v>
+      </c>
+      <c r="E246" t="n">
+        <v>10880</v>
+      </c>
+      <c r="F246" t="n">
+        <v>30.992</v>
+      </c>
+      <c r="G246" t="n">
+        <v>10814</v>
+      </c>
+      <c r="H246" t="n">
+        <v>10821</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>10870</v>
+      </c>
+      <c r="C247" t="n">
+        <v>10870</v>
+      </c>
+      <c r="D247" t="n">
+        <v>10870</v>
+      </c>
+      <c r="E247" t="n">
+        <v>10870</v>
+      </c>
+      <c r="F247" t="n">
+        <v>57.1864</v>
+      </c>
+      <c r="G247" t="n">
+        <v>10813.33333333333</v>
+      </c>
+      <c r="H247" t="n">
+        <v>10821.5</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>10810</v>
+      </c>
+      <c r="C248" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D248" t="n">
+        <v>10810</v>
+      </c>
+      <c r="E248" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F248" t="n">
+        <v>86.6956</v>
+      </c>
+      <c r="G248" t="n">
+        <v>10813.33333333333</v>
+      </c>
+      <c r="H248" t="n">
+        <v>10820.83333333333</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>10850</v>
+      </c>
+      <c r="C249" t="n">
+        <v>10850</v>
+      </c>
+      <c r="D249" t="n">
+        <v>10850</v>
+      </c>
+      <c r="E249" t="n">
+        <v>10850</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="G249" t="n">
+        <v>10816.66666666667</v>
+      </c>
+      <c r="H249" t="n">
+        <v>10821.66666666667</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C250" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D250" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E250" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F250" t="n">
+        <v>127.8605</v>
+      </c>
+      <c r="G250" t="n">
+        <v>10816.66666666667</v>
+      </c>
+      <c r="H250" t="n">
+        <v>10821.66666666667</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>10810</v>
+      </c>
+      <c r="C251" t="n">
+        <v>10810</v>
+      </c>
+      <c r="D251" t="n">
+        <v>10810</v>
+      </c>
+      <c r="E251" t="n">
+        <v>10810</v>
+      </c>
+      <c r="F251" t="n">
+        <v>148.9743</v>
+      </c>
+      <c r="G251" t="n">
+        <v>10819.33333333333</v>
+      </c>
+      <c r="H251" t="n">
+        <v>10821.83333333333</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C252" t="n">
+        <v>10750</v>
+      </c>
+      <c r="D252" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E252" t="n">
+        <v>10750</v>
+      </c>
+      <c r="F252" t="n">
+        <v>255.2278</v>
+      </c>
+      <c r="G252" t="n">
+        <v>10818</v>
+      </c>
+      <c r="H252" t="n">
+        <v>10821.5</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest REP.xlsx
+++ b/BackTest/2020-01-12 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1499.855178084714</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1668.855178084714</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1653.855178084714</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1664.193578084714</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1576.746578084714</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1591.746578084714</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1420.024078084714</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1419.711578084714</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1439.733478084714</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1439.733478084714</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1546.733478084714</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1567.010378084714</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1570.142778084714</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1570.142778084714</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1714.801278084714</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1714.801278084714</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2176.392578084714</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2176.392578084714</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2171.485678084714</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2428.443478084714</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2398.443478084714</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2548.875788396919</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2571.835788396919</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2398,10 +2398,14 @@
         <v>-3425.414288396918</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>10210</v>
+      </c>
+      <c r="J61" t="n">
+        <v>10210</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2431,15 +2435,19 @@
         <v>-3216.307088396919</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>10230</v>
       </c>
       <c r="J62" t="n">
-        <v>10230</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+        <v>10210</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,13 +2476,13 @@
         <v>-3216.307088396919</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>10250</v>
       </c>
       <c r="J63" t="n">
-        <v>10230</v>
+        <v>10210</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2509,19 +2517,15 @@
         <v>-3184.415588396918</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>10250</v>
       </c>
       <c r="J64" t="n">
-        <v>10230</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>10250</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2550,15 +2554,19 @@
         <v>-2699.656488396919</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>10270</v>
       </c>
       <c r="J65" t="n">
-        <v>10270</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
+        <v>10250</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2587,13 +2595,13 @@
         <v>-2745.386488396919</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>10310</v>
       </c>
       <c r="J66" t="n">
-        <v>10270</v>
+        <v>10250</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2628,17 +2636,17 @@
         <v>-2745.386488396919</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>10290</v>
       </c>
       <c r="J67" t="n">
-        <v>10270</v>
+        <v>10250</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -2669,15 +2677,19 @@
         <v>-2691.386588396919</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>10290</v>
       </c>
       <c r="J68" t="n">
-        <v>10290</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+        <v>10250</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2706,17 +2718,17 @@
         <v>-2691.386588396919</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>10320</v>
       </c>
       <c r="J69" t="n">
-        <v>10290</v>
+        <v>10250</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -2747,17 +2759,17 @@
         <v>-2691.386588396919</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>10320</v>
       </c>
       <c r="J70" t="n">
-        <v>10290</v>
+        <v>10250</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2788,15 +2800,19 @@
         <v>-2629.567288396919</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>10320</v>
       </c>
       <c r="J71" t="n">
-        <v>10320</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
+        <v>10250</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2825,17 +2841,17 @@
         <v>-2629.567288396919</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>10390</v>
       </c>
       <c r="J72" t="n">
-        <v>10320</v>
+        <v>10250</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -2866,17 +2882,17 @@
         <v>-2649.538288396919</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>10390</v>
       </c>
       <c r="J73" t="n">
-        <v>10320</v>
+        <v>10250</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2907,15 +2923,19 @@
         <v>-2511.830418567697</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>10340</v>
       </c>
       <c r="J74" t="n">
-        <v>10340</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+        <v>10250</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2944,17 +2964,15 @@
         <v>-2514.821518567697</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>10380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -2985,17 +3003,15 @@
         <v>-2499.768218567697</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>10370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -3026,17 +3042,15 @@
         <v>-2916.860218567697</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>10380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3067,13 +3081,11 @@
         <v>-2916.860218567697</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>10300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3108,13 +3120,11 @@
         <v>-2916.860218567697</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>10300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3149,13 +3159,13 @@
         <v>-2916.860218567697</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>10300</v>
       </c>
       <c r="J80" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3190,11 +3200,13 @@
         <v>-2916.860218567697</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10300</v>
+      </c>
       <c r="J81" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3229,13 +3241,13 @@
         <v>-2916.860218567697</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>10300</v>
       </c>
       <c r="J82" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3270,13 +3282,13 @@
         <v>-2916.860218567697</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>10300</v>
       </c>
       <c r="J83" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3311,13 +3323,13 @@
         <v>-2916.810218567697</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>10300</v>
       </c>
       <c r="J84" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3352,11 +3364,13 @@
         <v>-2916.760218567696</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10400</v>
+      </c>
       <c r="J85" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3391,11 +3405,13 @@
         <v>-2916.760218567696</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>10410</v>
+      </c>
       <c r="J86" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3434,7 +3450,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3473,7 +3489,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3512,7 +3528,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3551,7 +3567,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3590,7 +3606,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3629,7 +3645,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3668,7 +3684,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3707,7 +3723,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3746,7 +3762,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3785,7 +3801,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3824,7 +3840,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3863,7 +3879,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3902,7 +3918,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3941,7 +3957,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3976,11 +3992,13 @@
         <v>-3129.873807477471</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10440</v>
+      </c>
       <c r="J101" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4015,11 +4033,13 @@
         <v>-3139.873807477471</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>10520</v>
+      </c>
       <c r="J102" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4054,13 +4074,13 @@
         <v>-3143.352107477471</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>10510</v>
       </c>
       <c r="J103" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4095,11 +4115,13 @@
         <v>-3140.085282832922</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>10500</v>
+      </c>
       <c r="J104" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4134,13 +4156,13 @@
         <v>-3146.910582832922</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>10550</v>
       </c>
       <c r="J105" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4175,11 +4197,13 @@
         <v>-3506.154382832922</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>10490</v>
+      </c>
       <c r="J106" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4214,13 +4238,13 @@
         <v>-3516.048282832922</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>10470</v>
       </c>
       <c r="J107" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4255,13 +4279,13 @@
         <v>-3583.593482832922</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>10450</v>
       </c>
       <c r="J108" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4296,13 +4320,13 @@
         <v>-3482.572282832922</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>10410</v>
       </c>
       <c r="J109" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4337,13 +4361,13 @@
         <v>-3451.535382832922</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>10420</v>
       </c>
       <c r="J110" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4378,13 +4402,13 @@
         <v>-3484.662082832921</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>10450</v>
       </c>
       <c r="J111" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4419,13 +4443,13 @@
         <v>-3484.662082832921</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>10420</v>
       </c>
       <c r="J112" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4460,11 +4484,13 @@
         <v>-3443.797282832922</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>10420</v>
+      </c>
       <c r="J113" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4499,13 +4525,13 @@
         <v>-3553.425582832921</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>10430</v>
       </c>
       <c r="J114" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4540,11 +4566,13 @@
         <v>-3410.427882832922</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>10370</v>
+      </c>
       <c r="J115" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4579,11 +4607,13 @@
         <v>-3568.027882832921</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>10520</v>
+      </c>
       <c r="J116" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4618,11 +4648,13 @@
         <v>-3538.027882832921</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>10420</v>
+      </c>
       <c r="J117" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4657,11 +4689,13 @@
         <v>-3550.899482832921</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>10500</v>
+      </c>
       <c r="J118" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4696,11 +4730,13 @@
         <v>-3550.519182832922</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>10460</v>
+      </c>
       <c r="J119" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4737,9 +4773,11 @@
       <c r="H120" t="n">
         <v>1</v>
       </c>
-      <c r="I120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>10490</v>
+      </c>
       <c r="J120" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4776,9 +4814,11 @@
       <c r="H121" t="n">
         <v>1</v>
       </c>
-      <c r="I121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>10450</v>
+      </c>
       <c r="J121" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4813,11 +4853,11 @@
         <v>-3939.227282832921</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4852,11 +4892,11 @@
         <v>-3939.227282832921</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4891,11 +4931,11 @@
         <v>-3939.227282832921</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4934,7 +4974,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4973,7 +5013,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5012,7 +5052,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5051,7 +5091,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5086,13 +5126,11 @@
         <v>-3859.248782832921</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>10600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5131,7 +5169,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5170,7 +5208,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5209,7 +5247,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5248,7 +5286,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5287,7 +5325,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5326,7 +5364,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5365,7 +5403,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5404,7 +5442,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5439,19 +5477,19 @@
         <v>-3781.125430581514</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>10340</v>
+        <v>10250</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.025947775628627</v>
+        <v>1</v>
       </c>
       <c r="M138" t="inlineStr"/>
     </row>
@@ -5478,11 +5516,17 @@
         <v>-3724.125430581514</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5514,8 +5558,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5547,8 +5597,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5577,11 +5633,17 @@
         <v>-2885.749030581514</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5613,8 +5675,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5646,8 +5714,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5676,11 +5750,17 @@
         <v>-2852.656330581513</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5709,11 +5789,17 @@
         <v>-3364.912730581514</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5742,11 +5828,17 @@
         <v>-3358.512730581514</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5778,8 +5870,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5811,8 +5909,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5841,11 +5945,17 @@
         <v>-3346.986930581513</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5874,11 +5984,17 @@
         <v>-3346.986930581513</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5910,8 +6026,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5940,11 +6062,17 @@
         <v>-3439.787430581513</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5973,11 +6101,17 @@
         <v>-3593.212830581513</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6006,11 +6140,17 @@
         <v>-3608.731230581513</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6039,11 +6179,17 @@
         <v>-3593.212730581513</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6075,8 +6221,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6105,11 +6257,17 @@
         <v>-3593.112730581513</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6138,11 +6296,17 @@
         <v>-3588.112730581513</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6174,8 +6338,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6204,11 +6374,17 @@
         <v>-3660.216830581513</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6237,11 +6413,17 @@
         <v>-3694.920030581513</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6270,11 +6452,17 @@
         <v>-3511.510130581513</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6303,11 +6491,17 @@
         <v>-3517.910130581513</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6336,11 +6530,17 @@
         <v>-3490.329330581513</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6369,11 +6569,17 @@
         <v>-3490.329330581513</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6402,11 +6608,17 @@
         <v>-3505.729330581513</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6435,11 +6647,17 @@
         <v>-3555.113930581513</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6468,11 +6686,17 @@
         <v>-3549.161030581513</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6501,11 +6725,17 @@
         <v>-3653.244430581513</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6534,11 +6764,17 @@
         <v>-3717.244430581513</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6567,11 +6803,17 @@
         <v>-3682.157830581513</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6600,11 +6842,17 @@
         <v>-3818.134830581513</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6633,11 +6881,17 @@
         <v>-3817.134830581513</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6669,8 +6923,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6699,11 +6959,17 @@
         <v>-3761.878730581513</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6735,8 +7001,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6765,11 +7037,17 @@
         <v>-3743.848030581513</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6798,11 +7076,17 @@
         <v>-3851.947230581513</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6831,11 +7115,17 @@
         <v>-3851.715430581513</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6864,11 +7154,17 @@
         <v>-3805.078530581513</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6897,11 +7193,17 @@
         <v>-3977.097330581513</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6930,11 +7232,17 @@
         <v>-4006.965330581513</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6963,11 +7271,17 @@
         <v>-4006.965330581513</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6996,11 +7310,17 @@
         <v>-4053.602230581513</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7029,11 +7349,17 @@
         <v>-4041.884130581513</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7065,8 +7391,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7098,8 +7430,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7131,8 +7469,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7164,8 +7508,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7197,8 +7547,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7230,8 +7586,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7263,8 +7625,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7296,8 +7664,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7329,8 +7703,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7362,8 +7742,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7395,8 +7781,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7428,8 +7820,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7461,8 +7859,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7494,8 +7898,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7524,11 +7934,19 @@
         <v>-4357.525830581512</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>10700</v>
+      </c>
+      <c r="J201" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7557,11 +7975,19 @@
         <v>-4361.525830581512</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>10700</v>
+      </c>
+      <c r="J202" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7590,11 +8016,19 @@
         <v>-4356.701930581512</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>10670</v>
+      </c>
+      <c r="J203" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7626,8 +8060,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7659,8 +8099,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7692,8 +8138,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7725,8 +8177,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7755,11 +8213,19 @@
         <v>-4379.685730581512</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>10700</v>
+      </c>
+      <c r="J208" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7791,8 +8257,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7824,8 +8296,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7857,8 +8335,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7890,8 +8374,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7923,8 +8413,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7956,8 +8452,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7989,8 +8491,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8019,11 +8527,19 @@
         <v>-4417.742930581512</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>10650</v>
+      </c>
+      <c r="J216" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8052,11 +8568,19 @@
         <v>-4417.742930581512</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>10600</v>
+      </c>
+      <c r="J217" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8085,11 +8609,19 @@
         <v>-4415.742930581512</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>10600</v>
+      </c>
+      <c r="J218" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8118,11 +8650,19 @@
         <v>-3813.292330581512</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>10640</v>
+      </c>
+      <c r="J219" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8154,8 +8694,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8187,8 +8733,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8220,8 +8772,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8253,8 +8811,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8283,11 +8847,19 @@
         <v>-4320.296730581512</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>10670</v>
+      </c>
+      <c r="J224" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8319,8 +8891,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8352,8 +8930,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8385,8 +8969,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8415,11 +9005,19 @@
         <v>-4295.161730581512</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>10700</v>
+      </c>
+      <c r="J228" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8448,11 +9046,19 @@
         <v>-4292.173930581512</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>10710</v>
+      </c>
+      <c r="J229" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8484,8 +9090,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8517,8 +9129,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8550,8 +9168,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8583,8 +9207,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8616,8 +9246,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8649,8 +9285,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8682,8 +9324,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8715,8 +9363,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8745,11 +9399,17 @@
         <v>-4379.171230581512</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8778,11 +9438,17 @@
         <v>-4485.736830581512</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8814,8 +9480,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8847,8 +9519,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8880,8 +9558,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8913,8 +9597,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8946,8 +9636,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8979,8 +9675,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9009,11 +9711,17 @@
         <v>-4388.142230581511</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9042,11 +9750,17 @@
         <v>-4494.547930581512</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9078,8 +9792,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9108,11 +9828,17 @@
         <v>-4494.547930581512</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9141,11 +9867,17 @@
         <v>-4615.347130581512</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9174,11 +9906,17 @@
         <v>-4599.647130581512</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9210,8 +9948,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9240,11 +9984,19 @@
         <v>-4605.161130581512</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>10750</v>
+      </c>
+      <c r="J253" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9273,11 +10025,19 @@
         <v>-4483.000630581512</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>10750</v>
+      </c>
+      <c r="J254" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9306,11 +10066,19 @@
         <v>-4483.000630581512</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>10780</v>
+      </c>
+      <c r="J255" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9339,11 +10107,19 @@
         <v>-4483.000630581512</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>10780</v>
+      </c>
+      <c r="J256" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9372,11 +10148,19 @@
         <v>-4476.875030581512</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>10780</v>
+      </c>
+      <c r="J257" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9405,11 +10189,19 @@
         <v>-4482.764630581512</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>10820</v>
+      </c>
+      <c r="J258" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9438,11 +10230,19 @@
         <v>-4479.876830581512</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>10760</v>
+      </c>
+      <c r="J259" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9471,11 +10271,19 @@
         <v>-4601.240830581512</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>10780</v>
+      </c>
+      <c r="J260" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9504,11 +10312,19 @@
         <v>-4601.240830581512</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>10770</v>
+      </c>
+      <c r="J261" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9537,11 +10353,19 @@
         <v>-4599.101330581511</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>10770</v>
+      </c>
+      <c r="J262" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9570,11 +10394,19 @@
         <v>-4599.101330581511</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>10790</v>
+      </c>
+      <c r="J263" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9603,11 +10435,19 @@
         <v>-4599.101330581511</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>10790</v>
+      </c>
+      <c r="J264" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9636,11 +10476,19 @@
         <v>-4599.101330581511</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>10790</v>
+      </c>
+      <c r="J265" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9669,11 +10517,19 @@
         <v>-4580.565830581511</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>10790</v>
+      </c>
+      <c r="J266" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9702,11 +10558,19 @@
         <v>-4580.565830581511</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>10830</v>
+      </c>
+      <c r="J267" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9735,11 +10599,19 @@
         <v>-4235.490330581511</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>10830</v>
+      </c>
+      <c r="J268" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9768,11 +10640,19 @@
         <v>-4207.106430581512</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>10840</v>
+      </c>
+      <c r="J269" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9801,11 +10681,19 @@
         <v>-4207.106430581512</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>10850</v>
+      </c>
+      <c r="J270" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9834,11 +10722,19 @@
         <v>-4192.858830581512</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>10850</v>
+      </c>
+      <c r="J271" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9867,11 +10763,19 @@
         <v>-4192.858830581512</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>10860</v>
+      </c>
+      <c r="J272" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9900,11 +10804,19 @@
         <v>-4192.858830581512</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>10860</v>
+      </c>
+      <c r="J273" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9933,11 +10845,19 @@
         <v>-4192.858830581512</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>10860</v>
+      </c>
+      <c r="J274" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9966,11 +10886,19 @@
         <v>-4199.120830581512</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>10860</v>
+      </c>
+      <c r="J275" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9999,11 +10927,19 @@
         <v>-4195.818430581512</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>10850</v>
+      </c>
+      <c r="J276" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10032,11 +10968,19 @@
         <v>-4208.285230581512</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>10860</v>
+      </c>
+      <c r="J277" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10065,11 +11009,19 @@
         <v>-4208.285230581512</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>10850</v>
+      </c>
+      <c r="J278" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10098,11 +11050,19 @@
         <v>-4179.751630581512</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>10850</v>
+      </c>
+      <c r="J279" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10131,11 +11091,19 @@
         <v>-4179.751630581512</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>10880</v>
+      </c>
+      <c r="J280" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10164,11 +11132,19 @@
         <v>-4179.751630581512</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>10880</v>
+      </c>
+      <c r="J281" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10197,11 +11173,19 @@
         <v>-4186.765530581512</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>10880</v>
+      </c>
+      <c r="J282" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10230,11 +11214,19 @@
         <v>-4186.765530581512</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>10840</v>
+      </c>
+      <c r="J283" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10263,11 +11255,19 @@
         <v>-4168.249130581512</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>10840</v>
+      </c>
+      <c r="J284" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10296,11 +11296,19 @@
         <v>-4168.249130581512</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>10900</v>
+      </c>
+      <c r="J285" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10329,11 +11337,19 @@
         <v>-4168.249130581512</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>10900</v>
+      </c>
+      <c r="J286" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10362,11 +11378,19 @@
         <v>-4171.125730581512</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>10900</v>
+      </c>
+      <c r="J287" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10395,11 +11419,19 @@
         <v>-4280.021730581511</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>10850</v>
+      </c>
+      <c r="J288" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10428,11 +11460,19 @@
         <v>-4280.021730581511</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J289" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10461,11 +11501,19 @@
         <v>-4247.152230581512</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J290" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10494,11 +11542,19 @@
         <v>-4512.987030581511</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>10880</v>
+      </c>
+      <c r="J291" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10527,11 +11583,19 @@
         <v>-4512.987030581511</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J292" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10560,11 +11624,19 @@
         <v>-4512.987030581511</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J293" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10593,11 +11665,19 @@
         <v>-4703.788530581511</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J294" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10626,11 +11706,19 @@
         <v>-4703.788530581511</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>10770</v>
+      </c>
+      <c r="J295" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10659,11 +11747,19 @@
         <v>-4703.788530581511</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>10770</v>
+      </c>
+      <c r="J296" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10692,11 +11788,19 @@
         <v>-4803.601430581511</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>10770</v>
+      </c>
+      <c r="J297" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10725,11 +11829,19 @@
         <v>-4803.601430581511</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>10760</v>
+      </c>
+      <c r="J298" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10758,11 +11870,19 @@
         <v>-4982.845330581511</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>10760</v>
+      </c>
+      <c r="J299" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10791,11 +11911,19 @@
         <v>-4981.845330581511</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>10750</v>
+      </c>
+      <c r="J300" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10824,11 +11952,19 @@
         <v>-4982.994730581511</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>10870</v>
+      </c>
+      <c r="J301" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10857,11 +11993,19 @@
         <v>-4869.295630581511</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>10860</v>
+      </c>
+      <c r="J302" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10890,11 +12034,19 @@
         <v>-4869.295630581511</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>10870</v>
+      </c>
+      <c r="J303" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10923,11 +12075,19 @@
         <v>-4838.303630581511</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>10870</v>
+      </c>
+      <c r="J304" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10956,11 +12116,19 @@
         <v>-4895.490030581511</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>10880</v>
+      </c>
+      <c r="J305" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10989,11 +12157,19 @@
         <v>-4982.185630581511</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>10870</v>
+      </c>
+      <c r="J306" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11022,11 +12198,19 @@
         <v>-4982.118630581511</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J307" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11055,11 +12239,19 @@
         <v>-5109.979130581511</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>10850</v>
+      </c>
+      <c r="J308" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11088,11 +12280,19 @@
         <v>-4961.004830581511</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J309" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11121,17 +12321,25 @@
         <v>-5216.23263058151</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>10810</v>
+      </c>
+      <c r="J310" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
       <c r="M310" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest REP.xlsx
+++ b/BackTest/2020-01-12 BackTest REP.xlsx
@@ -451,7 +451,7 @@
         <v>-1499.855178084714</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1668.855178084714</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1653.855178084714</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1664.193578084714</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1632.993578084714</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1590.993578084714</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1515.860578084714</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1576.746578084714</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1439.733478084714</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3077.566807477471</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3817,10 +3817,14 @@
         <v>-3140.085282832922</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>10500</v>
+      </c>
+      <c r="J104" t="n">
+        <v>10500</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
@@ -3853,8 +3857,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3893,19 @@
         <v>-3506.154382832922</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>10490</v>
+      </c>
+      <c r="J106" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3934,19 @@
         <v>-3516.048282832922</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>10470</v>
+      </c>
+      <c r="J107" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +3975,19 @@
         <v>-3583.593482832922</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10450</v>
+      </c>
+      <c r="J108" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4016,19 @@
         <v>-3482.572282832922</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>10410</v>
+      </c>
+      <c r="J109" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4057,19 @@
         <v>-3451.535382832922</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>10420</v>
+      </c>
+      <c r="J110" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4098,19 @@
         <v>-3484.662082832921</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>10450</v>
+      </c>
+      <c r="J111" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4139,19 @@
         <v>-3484.662082832921</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>10420</v>
+      </c>
+      <c r="J112" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4180,19 @@
         <v>-3443.797282832922</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>10420</v>
+      </c>
+      <c r="J113" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4221,19 @@
         <v>-3553.425582832921</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>10430</v>
+      </c>
+      <c r="J114" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4262,19 @@
         <v>-3410.427882832922</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>10370</v>
+      </c>
+      <c r="J115" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4306,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4345,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4384,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4423,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4462,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4501,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4540,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4579,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4618,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4657,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4696,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4735,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4774,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4813,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4852,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4891,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4930,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +4969,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5008,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5047,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5086,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5125,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5164,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5203,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5242,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5281,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5320,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5359,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5398,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5437,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5476,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5515,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5554,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5590,17 @@
         <v>-3391.786930581513</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5629,17 @@
         <v>-3346.986930581513</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5668,17 @@
         <v>-3346.986930581513</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5707,17 @@
         <v>-3439.787430581513</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5746,17 @@
         <v>-3439.787430581513</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5785,17 @@
         <v>-3593.212830581513</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5824,17 @@
         <v>-3608.731230581513</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5863,17 @@
         <v>-3593.212730581513</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5902,17 @@
         <v>-3593.112730581513</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5941,17 @@
         <v>-3593.112730581513</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5980,17 @@
         <v>-3588.112730581513</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +6019,17 @@
         <v>-3662.216830581513</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +6058,17 @@
         <v>-3660.216830581513</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6097,17 @@
         <v>-3694.920030581513</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6136,17 @@
         <v>-3511.510130581513</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,10 +6178,16 @@
         <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L164" t="n">
-        <v>1</v>
+        <v>1.018809523809524</v>
       </c>
       <c r="M164" t="inlineStr"/>
     </row>
@@ -5830,7 +6214,7 @@
         <v>-3490.329330581513</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +6247,7 @@
         <v>-3490.329330581513</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +6280,7 @@
         <v>-3505.729330581513</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +6313,7 @@
         <v>-3555.113930581513</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6061,7 +6445,7 @@
         <v>-3682.157830581513</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6478,7 @@
         <v>-3818.134830581513</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6511,7 @@
         <v>-3817.134830581513</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6226,7 +6610,7 @@
         <v>-3761.878730581513</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6643,7 @@
         <v>-3743.848030581513</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6676,7 @@
         <v>-3851.947230581513</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6358,7 +6742,7 @@
         <v>-3805.078530581513</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6775,7 @@
         <v>-3977.097330581513</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6808,7 @@
         <v>-4006.965330581513</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7084,10 +7468,14 @@
         <v>-4356.701930581512</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>10670</v>
+      </c>
+      <c r="J203" t="n">
+        <v>10670</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
@@ -7120,8 +7508,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>10670</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7547,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>10670</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7216,10 +7616,14 @@
         <v>-4379.685730581512</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>10700</v>
+      </c>
+      <c r="J207" t="n">
+        <v>10700</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
@@ -7249,11 +7653,19 @@
         <v>-4379.685730581512</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>10700</v>
+      </c>
+      <c r="J208" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7694,19 @@
         <v>-4379.685730581512</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>10700</v>
+      </c>
+      <c r="J209" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,10 +7735,14 @@
         <v>-4379.685730581512</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>10700</v>
+      </c>
+      <c r="J210" t="n">
+        <v>10700</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
@@ -7348,11 +7772,19 @@
         <v>-4378.906030581512</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>10700</v>
+      </c>
+      <c r="J211" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7813,19 @@
         <v>-4435.506930581512</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>10720</v>
+      </c>
+      <c r="J212" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7854,19 @@
         <v>-4442.613830581512</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>10670</v>
+      </c>
+      <c r="J213" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7895,19 @@
         <v>-4384.040430581512</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>10650</v>
+      </c>
+      <c r="J214" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7936,19 @@
         <v>-4417.608730581512</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>10670</v>
+      </c>
+      <c r="J215" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7519,9 +7983,13 @@
         <v>10650</v>
       </c>
       <c r="J216" t="n">
-        <v>10650</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
+        <v>10700</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,15 +8018,17 @@
         <v>-4417.742930581512</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>10600</v>
+      </c>
       <c r="J217" t="n">
-        <v>10650</v>
+        <v>10700</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L217" t="n">
@@ -7589,15 +8059,17 @@
         <v>-4415.742930581512</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>10600</v>
+      </c>
       <c r="J218" t="n">
-        <v>10650</v>
+        <v>10700</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L218" t="n">
@@ -7628,11 +8100,19 @@
         <v>-3813.292330581512</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>10640</v>
+      </c>
+      <c r="J219" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7661,11 +8141,19 @@
         <v>-4307.945930581512</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>10720</v>
+      </c>
+      <c r="J220" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7694,11 +8182,19 @@
         <v>-4288.296730581512</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>10670</v>
+      </c>
+      <c r="J221" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7727,11 +8223,19 @@
         <v>-4338.296730581512</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>10680</v>
+      </c>
+      <c r="J222" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7760,11 +8264,19 @@
         <v>-4321.096730581512</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>10650</v>
+      </c>
+      <c r="J223" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7793,11 +8305,19 @@
         <v>-4320.296730581512</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>10670</v>
+      </c>
+      <c r="J224" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7826,11 +8346,19 @@
         <v>-4345.161730581512</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>10740</v>
+      </c>
+      <c r="J225" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7867,7 +8395,11 @@
       <c r="J226" t="n">
         <v>10700</v>
       </c>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7896,15 +8428,17 @@
         <v>-4345.161730581512</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>10700</v>
+      </c>
       <c r="J227" t="n">
         <v>10700</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -7945,7 +8479,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L228" t="n">
@@ -7976,11 +8510,19 @@
         <v>-4292.173930581512</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>10710</v>
+      </c>
+      <c r="J229" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8015,9 +8557,13 @@
         <v>10740</v>
       </c>
       <c r="J230" t="n">
-        <v>10740</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
+        <v>10700</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8052,11 +8598,11 @@
         <v>10740</v>
       </c>
       <c r="J231" t="n">
-        <v>10740</v>
+        <v>10700</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L231" t="n">
@@ -8093,11 +8639,11 @@
         <v>10740</v>
       </c>
       <c r="J232" t="n">
-        <v>10740</v>
+        <v>10700</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L232" t="n">
@@ -8128,11 +8674,19 @@
         <v>-4311.462630581512</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J233" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8161,11 +8715,19 @@
         <v>-4290.698330581512</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>10720</v>
+      </c>
+      <c r="J234" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8194,11 +8756,19 @@
         <v>-4306.398330581512</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J235" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8227,11 +8797,19 @@
         <v>-4287.767630581512</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>10780</v>
+      </c>
+      <c r="J236" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8260,11 +8838,19 @@
         <v>-4379.171230581512</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J237" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8293,11 +8879,19 @@
         <v>-4379.171230581512</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>10790</v>
+      </c>
+      <c r="J238" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8326,11 +8920,19 @@
         <v>-4485.736830581512</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>10790</v>
+      </c>
+      <c r="J239" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8365,9 +8967,13 @@
         <v>10780</v>
       </c>
       <c r="J240" t="n">
-        <v>10780</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
+        <v>10700</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8396,15 +9002,17 @@
         <v>-4482.839930581512</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>10780</v>
+      </c>
       <c r="J241" t="n">
-        <v>10780</v>
+        <v>10700</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L241" t="n">
@@ -8435,15 +9043,17 @@
         <v>-4482.839930581512</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>10790</v>
+      </c>
       <c r="J242" t="n">
-        <v>10780</v>
+        <v>10700</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L242" t="n">
@@ -8474,11 +9084,19 @@
         <v>-4468.127930581511</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>10790</v>
+      </c>
+      <c r="J243" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8507,11 +9125,19 @@
         <v>-4468.127930581511</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J244" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8540,11 +9166,19 @@
         <v>-4388.142230581511</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J245" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8573,11 +9207,19 @@
         <v>-4388.142230581511</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>10840</v>
+      </c>
+      <c r="J246" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8606,11 +9248,19 @@
         <v>-4494.547930581512</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>10840</v>
+      </c>
+      <c r="J247" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8639,11 +9289,19 @@
         <v>-4494.547930581512</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J248" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8672,11 +9330,19 @@
         <v>-4494.547930581512</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J249" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8705,11 +9371,19 @@
         <v>-4615.347130581512</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J250" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8738,11 +9412,19 @@
         <v>-4599.647130581512</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>10770</v>
+      </c>
+      <c r="J251" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8771,11 +9453,19 @@
         <v>-4605.161130581512</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>10780</v>
+      </c>
+      <c r="J252" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8804,11 +9494,19 @@
         <v>-4605.161130581512</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>10750</v>
+      </c>
+      <c r="J253" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8837,11 +9535,19 @@
         <v>-4483.000630581512</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>10750</v>
+      </c>
+      <c r="J254" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8870,11 +9576,19 @@
         <v>-4483.000630581512</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>10780</v>
+      </c>
+      <c r="J255" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8903,11 +9617,19 @@
         <v>-4483.000630581512</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>10780</v>
+      </c>
+      <c r="J256" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8936,11 +9658,19 @@
         <v>-4476.875030581512</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>10780</v>
+      </c>
+      <c r="J257" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8969,11 +9699,19 @@
         <v>-4482.764630581512</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>10820</v>
+      </c>
+      <c r="J258" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9002,11 +9740,19 @@
         <v>-4479.876830581512</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>10760</v>
+      </c>
+      <c r="J259" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9035,11 +9781,19 @@
         <v>-4601.240830581512</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>10780</v>
+      </c>
+      <c r="J260" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9068,11 +9822,19 @@
         <v>-4601.240830581512</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>10770</v>
+      </c>
+      <c r="J261" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9101,11 +9863,19 @@
         <v>-4599.101330581511</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>10770</v>
+      </c>
+      <c r="J262" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9134,11 +9904,19 @@
         <v>-4599.101330581511</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>10790</v>
+      </c>
+      <c r="J263" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9167,11 +9945,19 @@
         <v>-4599.101330581511</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>10790</v>
+      </c>
+      <c r="J264" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9200,11 +9986,19 @@
         <v>-4599.101330581511</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>10790</v>
+      </c>
+      <c r="J265" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9233,11 +10027,19 @@
         <v>-4580.565830581511</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>10790</v>
+      </c>
+      <c r="J266" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9266,11 +10068,19 @@
         <v>-4580.565830581511</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>10830</v>
+      </c>
+      <c r="J267" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9299,11 +10109,19 @@
         <v>-4235.490330581511</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>10830</v>
+      </c>
+      <c r="J268" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9332,11 +10150,19 @@
         <v>-4207.106430581512</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>10840</v>
+      </c>
+      <c r="J269" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9365,11 +10191,19 @@
         <v>-4207.106430581512</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>10850</v>
+      </c>
+      <c r="J270" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9398,11 +10232,19 @@
         <v>-4192.858830581512</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>10850</v>
+      </c>
+      <c r="J271" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9431,11 +10273,19 @@
         <v>-4192.858830581512</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>10860</v>
+      </c>
+      <c r="J272" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9464,11 +10314,19 @@
         <v>-4192.858830581512</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>10860</v>
+      </c>
+      <c r="J273" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9497,11 +10355,19 @@
         <v>-4192.858830581512</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>10860</v>
+      </c>
+      <c r="J274" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9530,11 +10396,19 @@
         <v>-4199.120830581512</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>10860</v>
+      </c>
+      <c r="J275" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9563,11 +10437,19 @@
         <v>-4195.818430581512</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>10850</v>
+      </c>
+      <c r="J276" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9596,11 +10478,19 @@
         <v>-4208.285230581512</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>10860</v>
+      </c>
+      <c r="J277" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9629,11 +10519,19 @@
         <v>-4208.285230581512</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>10850</v>
+      </c>
+      <c r="J278" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9662,11 +10560,19 @@
         <v>-4179.751630581512</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>10850</v>
+      </c>
+      <c r="J279" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9695,11 +10601,19 @@
         <v>-4179.751630581512</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>10880</v>
+      </c>
+      <c r="J280" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9728,11 +10642,19 @@
         <v>-4179.751630581512</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>10880</v>
+      </c>
+      <c r="J281" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9761,11 +10683,19 @@
         <v>-4186.765530581512</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>10880</v>
+      </c>
+      <c r="J282" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9794,11 +10724,19 @@
         <v>-4186.765530581512</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>10840</v>
+      </c>
+      <c r="J283" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9827,11 +10765,19 @@
         <v>-4168.249130581512</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>10840</v>
+      </c>
+      <c r="J284" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9860,11 +10806,19 @@
         <v>-4168.249130581512</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>10900</v>
+      </c>
+      <c r="J285" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9893,11 +10847,19 @@
         <v>-4168.249130581512</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>10900</v>
+      </c>
+      <c r="J286" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9926,11 +10888,19 @@
         <v>-4171.125730581512</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>10900</v>
+      </c>
+      <c r="J287" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9959,11 +10929,19 @@
         <v>-4280.021730581511</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>10850</v>
+      </c>
+      <c r="J288" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9992,11 +10970,19 @@
         <v>-4280.021730581511</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J289" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10025,11 +11011,19 @@
         <v>-4247.152230581512</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J290" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10058,11 +11052,19 @@
         <v>-4512.987030581511</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>10880</v>
+      </c>
+      <c r="J291" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10091,11 +11093,19 @@
         <v>-4512.987030581511</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J292" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10124,11 +11134,19 @@
         <v>-4512.987030581511</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J293" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10157,11 +11175,19 @@
         <v>-4703.788530581511</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J294" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10190,11 +11216,19 @@
         <v>-4703.788530581511</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>10770</v>
+      </c>
+      <c r="J295" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10223,11 +11257,19 @@
         <v>-4703.788530581511</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>10770</v>
+      </c>
+      <c r="J296" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10256,11 +11298,19 @@
         <v>-4803.601430581511</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>10770</v>
+      </c>
+      <c r="J297" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10289,11 +11339,19 @@
         <v>-4803.601430581511</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>10760</v>
+      </c>
+      <c r="J298" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10322,11 +11380,19 @@
         <v>-4982.845330581511</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>10760</v>
+      </c>
+      <c r="J299" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10355,11 +11421,19 @@
         <v>-4981.845330581511</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>10750</v>
+      </c>
+      <c r="J300" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10388,11 +11462,19 @@
         <v>-4982.994730581511</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>10870</v>
+      </c>
+      <c r="J301" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10421,11 +11503,19 @@
         <v>-4869.295630581511</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>10860</v>
+      </c>
+      <c r="J302" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10454,11 +11544,19 @@
         <v>-4869.295630581511</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>10870</v>
+      </c>
+      <c r="J303" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10487,11 +11585,19 @@
         <v>-4838.303630581511</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>10870</v>
+      </c>
+      <c r="J304" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10520,11 +11626,19 @@
         <v>-4895.490030581511</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>10880</v>
+      </c>
+      <c r="J305" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10553,11 +11667,19 @@
         <v>-4982.185630581511</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>10870</v>
+      </c>
+      <c r="J306" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10586,11 +11708,19 @@
         <v>-4982.118630581511</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J307" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10619,11 +11749,19 @@
         <v>-5109.979130581511</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>10850</v>
+      </c>
+      <c r="J308" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10652,11 +11790,19 @@
         <v>-4961.004830581511</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J309" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10685,11 +11831,19 @@
         <v>-5216.23263058151</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>10810</v>
+      </c>
+      <c r="J310" t="n">
+        <v>10700</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
